--- a/Documentação/Planilhas/Conferencia_TRP.xlsx
+++ b/Documentação/Planilhas/Conferencia_TRP.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="stg_trp_analitico" sheetId="105" r:id="rId1"/>
@@ -1226,13 +1226,19 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1271,13 +1277,10 @@
     <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1285,9 +1288,6 @@
     </xf>
     <xf numFmtId="49" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1601,7 +1601,7 @@
   </sheetPr>
   <dimension ref="A1:AX43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
@@ -1660,10 +1660,10 @@
       <c r="AR1" s="1"/>
     </row>
     <row r="2" spans="1:50" ht="21">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="14"/>
+      <c r="B2" s="16"/>
       <c r="C2" s="5" t="s">
         <v>10</v>
       </c>
@@ -1679,10 +1679,10 @@
       <c r="AR2" s="1"/>
     </row>
     <row r="3" spans="1:50" ht="21">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="15"/>
+      <c r="B3" s="17"/>
       <c r="C3" s="5" t="s">
         <v>169</v>
       </c>
@@ -3111,184 +3111,184 @@
       <c r="Y21" s="1"/>
     </row>
     <row r="22" spans="1:50" ht="11.25" customHeight="1">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="25" t="s">
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="25"/>
-      <c r="L22" s="25"/>
-      <c r="M22" s="16" t="s">
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="18"/>
-      <c r="R22" s="16" t="s">
+      <c r="N22" s="19"/>
+      <c r="O22" s="19"/>
+      <c r="P22" s="19"/>
+      <c r="Q22" s="20"/>
+      <c r="R22" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="S22" s="17"/>
-      <c r="T22" s="17"/>
-      <c r="U22" s="17"/>
-      <c r="V22" s="17"/>
-      <c r="W22" s="17"/>
-      <c r="X22" s="18"/>
-      <c r="Y22" s="11" t="s">
+      <c r="S22" s="19"/>
+      <c r="T22" s="19"/>
+      <c r="U22" s="19"/>
+      <c r="V22" s="19"/>
+      <c r="W22" s="19"/>
+      <c r="X22" s="20"/>
+      <c r="Y22" s="28" t="s">
         <v>164</v>
       </c>
-      <c r="Z22" s="11" t="s">
+      <c r="Z22" s="28" t="s">
         <v>166</v>
       </c>
-      <c r="AA22" s="11"/>
+      <c r="AA22" s="28"/>
     </row>
     <row r="23" spans="1:50" ht="11.25" customHeight="1">
-      <c r="A23" s="19"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="25"/>
-      <c r="L23" s="25"/>
-      <c r="M23" s="19"/>
-      <c r="N23" s="20"/>
-      <c r="O23" s="20"/>
-      <c r="P23" s="20"/>
-      <c r="Q23" s="21"/>
-      <c r="R23" s="19"/>
-      <c r="S23" s="20"/>
-      <c r="T23" s="20"/>
-      <c r="U23" s="20"/>
-      <c r="V23" s="20"/>
-      <c r="W23" s="20"/>
-      <c r="X23" s="21"/>
-      <c r="Y23" s="11"/>
-      <c r="Z23" s="11"/>
-      <c r="AA23" s="11"/>
+      <c r="A23" s="21"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="21"/>
+      <c r="N23" s="22"/>
+      <c r="O23" s="22"/>
+      <c r="P23" s="22"/>
+      <c r="Q23" s="23"/>
+      <c r="R23" s="21"/>
+      <c r="S23" s="22"/>
+      <c r="T23" s="22"/>
+      <c r="U23" s="22"/>
+      <c r="V23" s="22"/>
+      <c r="W23" s="22"/>
+      <c r="X23" s="23"/>
+      <c r="Y23" s="28"/>
+      <c r="Z23" s="28"/>
+      <c r="AA23" s="28"/>
     </row>
     <row r="24" spans="1:50" ht="11.25" customHeight="1">
-      <c r="A24" s="22"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="25"/>
-      <c r="L24" s="25"/>
-      <c r="M24" s="22"/>
-      <c r="N24" s="23"/>
-      <c r="O24" s="23"/>
-      <c r="P24" s="23"/>
-      <c r="Q24" s="24"/>
-      <c r="R24" s="22"/>
-      <c r="S24" s="23"/>
-      <c r="T24" s="23"/>
-      <c r="U24" s="23"/>
-      <c r="V24" s="23"/>
-      <c r="W24" s="23"/>
-      <c r="X24" s="24"/>
-      <c r="Y24" s="11"/>
-      <c r="Z24" s="11"/>
-      <c r="AA24" s="11"/>
+      <c r="A24" s="24"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="27"/>
+      <c r="M24" s="24"/>
+      <c r="N24" s="25"/>
+      <c r="O24" s="25"/>
+      <c r="P24" s="25"/>
+      <c r="Q24" s="26"/>
+      <c r="R24" s="24"/>
+      <c r="S24" s="25"/>
+      <c r="T24" s="25"/>
+      <c r="U24" s="25"/>
+      <c r="V24" s="25"/>
+      <c r="W24" s="25"/>
+      <c r="X24" s="26"/>
+      <c r="Y24" s="28"/>
+      <c r="Z24" s="28"/>
+      <c r="AA24" s="28"/>
     </row>
     <row r="25" spans="1:50" ht="11.25" customHeight="1">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C25" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="D25" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="E25" s="12" t="s">
+      <c r="E25" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="F25" s="12" t="s">
+      <c r="F25" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="G25" s="12" t="s">
+      <c r="G25" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="H25" s="12" t="s">
+      <c r="H25" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="I25" s="12" t="s">
+      <c r="I25" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="J25" s="12" t="s">
+      <c r="J25" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="K25" s="12" t="s">
+      <c r="K25" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="L25" s="12" t="s">
+      <c r="L25" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="M25" s="12" t="s">
+      <c r="M25" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="N25" s="12" t="s">
+      <c r="N25" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="O25" s="12" t="s">
+      <c r="O25" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="P25" s="12" t="s">
+      <c r="P25" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="Q25" s="12" t="s">
+      <c r="Q25" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="R25" s="12" t="s">
+      <c r="R25" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="S25" s="12" t="s">
+      <c r="S25" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="T25" s="12" t="s">
+      <c r="T25" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="U25" s="12" t="s">
+      <c r="U25" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="V25" s="12" t="s">
+      <c r="V25" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="W25" s="12" t="s">
+      <c r="W25" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="X25" s="12" t="s">
+      <c r="X25" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="Y25" s="12" t="s">
+      <c r="Y25" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="Z25" s="12" t="s">
+      <c r="Z25" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="AA25" s="13" t="s">
+      <c r="AA25" s="29" t="s">
         <v>168</v>
       </c>
       <c r="AL25" s="1"/>
@@ -3299,33 +3299,33 @@
       <c r="AR25" s="1"/>
     </row>
     <row r="26" spans="1:50">
-      <c r="A26" s="12"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="12"/>
-      <c r="N26" s="12"/>
-      <c r="O26" s="12"/>
-      <c r="P26" s="12"/>
-      <c r="Q26" s="12"/>
-      <c r="R26" s="12"/>
-      <c r="S26" s="12"/>
-      <c r="T26" s="12"/>
-      <c r="U26" s="12"/>
-      <c r="V26" s="12"/>
-      <c r="W26" s="12"/>
-      <c r="X26" s="12"/>
-      <c r="Y26" s="12"/>
-      <c r="Z26" s="12"/>
-      <c r="AA26" s="13"/>
+      <c r="A26" s="15"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="15"/>
+      <c r="O26" s="15"/>
+      <c r="P26" s="15"/>
+      <c r="Q26" s="15"/>
+      <c r="R26" s="15"/>
+      <c r="S26" s="15"/>
+      <c r="T26" s="15"/>
+      <c r="U26" s="15"/>
+      <c r="V26" s="15"/>
+      <c r="W26" s="15"/>
+      <c r="X26" s="15"/>
+      <c r="Y26" s="15"/>
+      <c r="Z26" s="15"/>
+      <c r="AA26" s="29"/>
       <c r="AL26" s="1"/>
       <c r="AM26" s="4"/>
       <c r="AO26" s="1"/>
@@ -3334,33 +3334,33 @@
       <c r="AR26" s="1"/>
     </row>
     <row r="27" spans="1:50">
-      <c r="A27" s="12"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="12"/>
-      <c r="N27" s="12"/>
-      <c r="O27" s="12"/>
-      <c r="P27" s="12"/>
-      <c r="Q27" s="12"/>
-      <c r="R27" s="12"/>
-      <c r="S27" s="12"/>
-      <c r="T27" s="12"/>
-      <c r="U27" s="12"/>
-      <c r="V27" s="12"/>
-      <c r="W27" s="12"/>
-      <c r="X27" s="12"/>
-      <c r="Y27" s="12"/>
-      <c r="Z27" s="12"/>
-      <c r="AA27" s="13"/>
+      <c r="A27" s="15"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="15"/>
+      <c r="O27" s="15"/>
+      <c r="P27" s="15"/>
+      <c r="Q27" s="15"/>
+      <c r="R27" s="15"/>
+      <c r="S27" s="15"/>
+      <c r="T27" s="15"/>
+      <c r="U27" s="15"/>
+      <c r="V27" s="15"/>
+      <c r="W27" s="15"/>
+      <c r="X27" s="15"/>
+      <c r="Y27" s="15"/>
+      <c r="Z27" s="15"/>
+      <c r="AA27" s="29"/>
       <c r="AL27" s="1"/>
       <c r="AM27" s="4"/>
       <c r="AO27" s="1"/>
@@ -3369,33 +3369,33 @@
       <c r="AR27" s="1"/>
     </row>
     <row r="28" spans="1:50">
-      <c r="A28" s="12"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="12"/>
-      <c r="L28" s="12"/>
-      <c r="M28" s="12"/>
-      <c r="N28" s="12"/>
-      <c r="O28" s="12"/>
-      <c r="P28" s="12"/>
-      <c r="Q28" s="12"/>
-      <c r="R28" s="12"/>
-      <c r="S28" s="12"/>
-      <c r="T28" s="12"/>
-      <c r="U28" s="12"/>
-      <c r="V28" s="12"/>
-      <c r="W28" s="12"/>
-      <c r="X28" s="12"/>
-      <c r="Y28" s="12"/>
-      <c r="Z28" s="12"/>
-      <c r="AA28" s="13"/>
+      <c r="A28" s="15"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="15"/>
+      <c r="N28" s="15"/>
+      <c r="O28" s="15"/>
+      <c r="P28" s="15"/>
+      <c r="Q28" s="15"/>
+      <c r="R28" s="15"/>
+      <c r="S28" s="15"/>
+      <c r="T28" s="15"/>
+      <c r="U28" s="15"/>
+      <c r="V28" s="15"/>
+      <c r="W28" s="15"/>
+      <c r="X28" s="15"/>
+      <c r="Y28" s="15"/>
+      <c r="Z28" s="15"/>
+      <c r="AA28" s="29"/>
       <c r="AL28" s="1"/>
       <c r="AM28" s="4"/>
       <c r="AO28" s="1"/>
@@ -3404,33 +3404,33 @@
       <c r="AR28" s="1"/>
     </row>
     <row r="29" spans="1:50">
-      <c r="A29" s="12"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="12"/>
-      <c r="L29" s="12"/>
-      <c r="M29" s="12"/>
-      <c r="N29" s="12"/>
-      <c r="O29" s="12"/>
-      <c r="P29" s="12"/>
-      <c r="Q29" s="12"/>
-      <c r="R29" s="12"/>
-      <c r="S29" s="12"/>
-      <c r="T29" s="12"/>
-      <c r="U29" s="12"/>
-      <c r="V29" s="12"/>
-      <c r="W29" s="12"/>
-      <c r="X29" s="12"/>
-      <c r="Y29" s="12"/>
-      <c r="Z29" s="12"/>
-      <c r="AA29" s="13"/>
+      <c r="A29" s="15"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="15"/>
+      <c r="O29" s="15"/>
+      <c r="P29" s="15"/>
+      <c r="Q29" s="15"/>
+      <c r="R29" s="15"/>
+      <c r="S29" s="15"/>
+      <c r="T29" s="15"/>
+      <c r="U29" s="15"/>
+      <c r="V29" s="15"/>
+      <c r="W29" s="15"/>
+      <c r="X29" s="15"/>
+      <c r="Y29" s="15"/>
+      <c r="Z29" s="15"/>
+      <c r="AA29" s="29"/>
       <c r="AL29" s="1"/>
       <c r="AM29" s="4"/>
       <c r="AO29" s="1"/>
@@ -3439,33 +3439,33 @@
       <c r="AR29" s="1"/>
     </row>
     <row r="30" spans="1:50">
-      <c r="A30" s="12"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="12"/>
-      <c r="L30" s="12"/>
-      <c r="M30" s="12"/>
-      <c r="N30" s="12"/>
-      <c r="O30" s="12"/>
-      <c r="P30" s="12"/>
-      <c r="Q30" s="12"/>
-      <c r="R30" s="12"/>
-      <c r="S30" s="12"/>
-      <c r="T30" s="12"/>
-      <c r="U30" s="12"/>
-      <c r="V30" s="12"/>
-      <c r="W30" s="12"/>
-      <c r="X30" s="12"/>
-      <c r="Y30" s="12"/>
-      <c r="Z30" s="12"/>
-      <c r="AA30" s="13"/>
+      <c r="A30" s="15"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="15"/>
+      <c r="M30" s="15"/>
+      <c r="N30" s="15"/>
+      <c r="O30" s="15"/>
+      <c r="P30" s="15"/>
+      <c r="Q30" s="15"/>
+      <c r="R30" s="15"/>
+      <c r="S30" s="15"/>
+      <c r="T30" s="15"/>
+      <c r="U30" s="15"/>
+      <c r="V30" s="15"/>
+      <c r="W30" s="15"/>
+      <c r="X30" s="15"/>
+      <c r="Y30" s="15"/>
+      <c r="Z30" s="15"/>
+      <c r="AA30" s="29"/>
       <c r="AL30" s="1"/>
       <c r="AM30" s="4"/>
       <c r="AO30" s="1"/>
@@ -3474,33 +3474,33 @@
       <c r="AR30" s="1"/>
     </row>
     <row r="31" spans="1:50">
-      <c r="A31" s="12"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="12"/>
-      <c r="L31" s="12"/>
-      <c r="M31" s="12"/>
-      <c r="N31" s="12"/>
-      <c r="O31" s="12"/>
-      <c r="P31" s="12"/>
-      <c r="Q31" s="12"/>
-      <c r="R31" s="12"/>
-      <c r="S31" s="12"/>
-      <c r="T31" s="12"/>
-      <c r="U31" s="12"/>
-      <c r="V31" s="12"/>
-      <c r="W31" s="12"/>
-      <c r="X31" s="12"/>
-      <c r="Y31" s="12"/>
-      <c r="Z31" s="12"/>
-      <c r="AA31" s="13"/>
+      <c r="A31" s="15"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="15"/>
+      <c r="O31" s="15"/>
+      <c r="P31" s="15"/>
+      <c r="Q31" s="15"/>
+      <c r="R31" s="15"/>
+      <c r="S31" s="15"/>
+      <c r="T31" s="15"/>
+      <c r="U31" s="15"/>
+      <c r="V31" s="15"/>
+      <c r="W31" s="15"/>
+      <c r="X31" s="15"/>
+      <c r="Y31" s="15"/>
+      <c r="Z31" s="15"/>
+      <c r="AA31" s="29"/>
       <c r="AL31" s="1"/>
       <c r="AM31" s="4"/>
       <c r="AO31" s="1"/>
@@ -3515,10 +3515,10 @@
     </row>
     <row r="33" spans="8:25">
       <c r="H33" s="2"/>
-      <c r="L33" s="26" t="s">
+      <c r="L33" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="M33" s="12" t="s">
+      <c r="M33" s="15" t="s">
         <v>150</v>
       </c>
       <c r="S33" s="1"/>
@@ -3527,31 +3527,31 @@
     </row>
     <row r="34" spans="8:25" ht="11.25" customHeight="1">
       <c r="H34" s="2"/>
-      <c r="L34" s="27"/>
-      <c r="M34" s="12"/>
+      <c r="L34" s="13"/>
+      <c r="M34" s="15"/>
       <c r="S34" s="1"/>
       <c r="V34" s="4"/>
       <c r="Y34" s="1"/>
     </row>
     <row r="35" spans="8:25">
-      <c r="L35" s="27"/>
-      <c r="M35" s="12"/>
+      <c r="L35" s="13"/>
+      <c r="M35" s="15"/>
     </row>
     <row r="36" spans="8:25">
-      <c r="L36" s="27"/>
-      <c r="M36" s="12"/>
+      <c r="L36" s="13"/>
+      <c r="M36" s="15"/>
     </row>
     <row r="37" spans="8:25">
-      <c r="L37" s="27"/>
-      <c r="M37" s="12"/>
+      <c r="L37" s="13"/>
+      <c r="M37" s="15"/>
     </row>
     <row r="38" spans="8:25">
-      <c r="L38" s="27"/>
-      <c r="M38" s="12"/>
+      <c r="L38" s="13"/>
+      <c r="M38" s="15"/>
     </row>
     <row r="39" spans="8:25">
-      <c r="L39" s="28"/>
-      <c r="M39" s="12"/>
+      <c r="L39" s="14"/>
+      <c r="M39" s="15"/>
     </row>
     <row r="41" spans="8:25">
       <c r="L41" s="10" t="s">
@@ -3570,22 +3570,11 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="L33:L39"/>
-    <mergeCell ref="M25:M31"/>
-    <mergeCell ref="M33:M39"/>
-    <mergeCell ref="V25:V31"/>
-    <mergeCell ref="S25:S31"/>
-    <mergeCell ref="T25:T31"/>
-    <mergeCell ref="I25:I31"/>
-    <mergeCell ref="J25:J31"/>
-    <mergeCell ref="W25:W31"/>
-    <mergeCell ref="L25:L31"/>
-    <mergeCell ref="O25:O31"/>
-    <mergeCell ref="P25:P31"/>
-    <mergeCell ref="Q25:Q31"/>
-    <mergeCell ref="R25:R31"/>
-    <mergeCell ref="U25:U31"/>
-    <mergeCell ref="N25:N31"/>
+    <mergeCell ref="Y22:Y24"/>
+    <mergeCell ref="Y25:Y31"/>
+    <mergeCell ref="Z25:Z31"/>
+    <mergeCell ref="Z22:AA24"/>
+    <mergeCell ref="AA25:AA31"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="X25:X31"/>
@@ -3602,11 +3591,22 @@
     <mergeCell ref="C25:C31"/>
     <mergeCell ref="D25:D31"/>
     <mergeCell ref="H25:H31"/>
-    <mergeCell ref="Y22:Y24"/>
-    <mergeCell ref="Y25:Y31"/>
-    <mergeCell ref="Z25:Z31"/>
-    <mergeCell ref="Z22:AA24"/>
-    <mergeCell ref="AA25:AA31"/>
+    <mergeCell ref="I25:I31"/>
+    <mergeCell ref="J25:J31"/>
+    <mergeCell ref="W25:W31"/>
+    <mergeCell ref="L25:L31"/>
+    <mergeCell ref="O25:O31"/>
+    <mergeCell ref="P25:P31"/>
+    <mergeCell ref="Q25:Q31"/>
+    <mergeCell ref="R25:R31"/>
+    <mergeCell ref="U25:U31"/>
+    <mergeCell ref="N25:N31"/>
+    <mergeCell ref="L33:L39"/>
+    <mergeCell ref="M25:M31"/>
+    <mergeCell ref="M33:M39"/>
+    <mergeCell ref="V25:V31"/>
+    <mergeCell ref="S25:S31"/>
+    <mergeCell ref="T25:T31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -3681,10 +3681,10 @@
       <c r="AR1" s="1"/>
     </row>
     <row r="2" spans="1:44" ht="21">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="14"/>
+      <c r="B2" s="16"/>
       <c r="C2" s="5" t="s">
         <v>170</v>
       </c>
@@ -3700,10 +3700,10 @@
       <c r="AR2" s="1"/>
     </row>
     <row r="3" spans="1:44" ht="21">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="15"/>
+      <c r="B3" s="17"/>
       <c r="C3" s="5" t="s">
         <v>190</v>
       </c>
@@ -4103,115 +4103,115 @@
       <c r="AR17" s="1"/>
     </row>
     <row r="18" spans="1:44" ht="11.25" customHeight="1">
-      <c r="A18" s="30" t="s">
+      <c r="A18" s="31" t="s">
         <v>138</v>
       </c>
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="29" t="s">
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="30" t="s">
         <v>130</v>
       </c>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
     </row>
     <row r="19" spans="1:44" ht="11.25" customHeight="1">
-      <c r="A19" s="30"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
+      <c r="A19" s="31"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
     </row>
     <row r="20" spans="1:44" ht="11.25" customHeight="1">
-      <c r="A20" s="30"/>
-      <c r="B20" s="30"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
+      <c r="A20" s="31"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
     </row>
     <row r="21" spans="1:44">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="E21" s="12" t="s">
+      <c r="E21" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="F21" s="12" t="s">
+      <c r="F21" s="15" t="s">
         <v>184</v>
       </c>
-      <c r="G21" s="12" t="s">
+      <c r="G21" s="15" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="22" spans="1:44">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
+      <c r="A22" s="15"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
     </row>
     <row r="23" spans="1:44">
-      <c r="A23" s="12"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
+      <c r="A23" s="15"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
     </row>
     <row r="24" spans="1:44">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
+      <c r="A24" s="15"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
     </row>
     <row r="25" spans="1:44">
-      <c r="A25" s="12"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
+      <c r="A25" s="15"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
     </row>
     <row r="26" spans="1:44">
-      <c r="A26" s="12"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
+      <c r="A26" s="15"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
     </row>
     <row r="27" spans="1:44">
-      <c r="A27" s="12"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
+      <c r="A27" s="15"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
     </row>
     <row r="29" spans="1:44">
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="15" t="s">
         <v>189</v>
       </c>
       <c r="O29" s="4"/>
@@ -4226,7 +4226,7 @@
       <c r="AQ29" s="3"/>
     </row>
     <row r="30" spans="1:44">
-      <c r="B30" s="12"/>
+      <c r="B30" s="15"/>
       <c r="O30" s="4"/>
       <c r="S30" s="1"/>
       <c r="U30" s="2"/>
@@ -4239,7 +4239,7 @@
       <c r="AQ30" s="3"/>
     </row>
     <row r="31" spans="1:44">
-      <c r="B31" s="12"/>
+      <c r="B31" s="15"/>
       <c r="O31" s="4"/>
       <c r="S31" s="1"/>
       <c r="U31" s="2"/>
@@ -4252,7 +4252,7 @@
       <c r="AQ31" s="3"/>
     </row>
     <row r="32" spans="1:44">
-      <c r="B32" s="12"/>
+      <c r="B32" s="15"/>
       <c r="O32" s="4"/>
       <c r="S32" s="1"/>
       <c r="U32" s="2"/>
@@ -4265,7 +4265,7 @@
       <c r="AQ32" s="3"/>
     </row>
     <row r="33" spans="2:43">
-      <c r="B33" s="12"/>
+      <c r="B33" s="15"/>
       <c r="O33" s="4"/>
       <c r="S33" s="1"/>
       <c r="U33" s="2"/>
@@ -4278,7 +4278,7 @@
       <c r="AQ33" s="3"/>
     </row>
     <row r="34" spans="2:43">
-      <c r="B34" s="12"/>
+      <c r="B34" s="15"/>
       <c r="O34" s="4"/>
       <c r="S34" s="1"/>
       <c r="U34" s="2"/>
@@ -4291,7 +4291,7 @@
       <c r="AQ34" s="3"/>
     </row>
     <row r="35" spans="2:43">
-      <c r="B35" s="12"/>
+      <c r="B35" s="15"/>
       <c r="O35" s="4"/>
       <c r="S35" s="1"/>
       <c r="U35" s="2"/>
@@ -4833,11 +4833,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="B29:B35"/>
-    <mergeCell ref="E21:E27"/>
-    <mergeCell ref="F21:F27"/>
     <mergeCell ref="G21:G27"/>
     <mergeCell ref="D18:G20"/>
     <mergeCell ref="A21:A27"/>
@@ -4845,6 +4840,11 @@
     <mergeCell ref="D21:D27"/>
     <mergeCell ref="A18:C20"/>
     <mergeCell ref="C21:C27"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="B29:B35"/>
+    <mergeCell ref="E21:E27"/>
+    <mergeCell ref="F21:F27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -4858,12 +4858,12 @@
   </sheetPr>
   <dimension ref="A1:AS35"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="1" width="24" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" style="1" customWidth="1"/>
     <col min="3" max="4" width="23.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.42578125" style="1" customWidth="1"/>
     <col min="6" max="6" width="21.28515625" style="1" customWidth="1"/>
@@ -4920,10 +4920,10 @@
       <c r="AS1" s="1"/>
     </row>
     <row r="2" spans="1:45" ht="21">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="14"/>
+      <c r="B2" s="16"/>
       <c r="C2" s="5" t="s">
         <v>191</v>
       </c>
@@ -4940,10 +4940,10 @@
       <c r="AS2" s="1"/>
     </row>
     <row r="3" spans="1:45" ht="21">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="15"/>
+      <c r="B3" s="17"/>
       <c r="C3" s="5" t="s">
         <v>305</v>
       </c>
@@ -5052,7 +5052,7 @@
       <c r="V6" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="W6" s="31" t="s">
+      <c r="W6" s="11" t="s">
         <v>205</v>
       </c>
       <c r="Z6" s="1"/>
@@ -5799,152 +5799,152 @@
       <c r="V17" s="1"/>
     </row>
     <row r="18" spans="1:45" ht="11.25" customHeight="1">
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="25"/>
-      <c r="N18" s="30" t="s">
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="31" t="s">
         <v>130</v>
       </c>
-      <c r="O18" s="25" t="s">
+      <c r="O18" s="27" t="s">
         <v>303</v>
       </c>
-      <c r="P18" s="25"/>
-      <c r="Q18" s="25"/>
-      <c r="R18" s="25"/>
-      <c r="S18" s="16" t="s">
+      <c r="P18" s="27"/>
+      <c r="Q18" s="27"/>
+      <c r="R18" s="27"/>
+      <c r="S18" s="18" t="s">
         <v>304</v>
       </c>
-      <c r="T18" s="18"/>
-      <c r="U18" s="25" t="s">
+      <c r="T18" s="20"/>
+      <c r="U18" s="27" t="s">
         <v>302</v>
       </c>
-      <c r="V18" s="25"/>
+      <c r="V18" s="27"/>
     </row>
     <row r="19" spans="1:45">
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="25"/>
-      <c r="M19" s="25"/>
-      <c r="N19" s="30"/>
-      <c r="O19" s="25"/>
-      <c r="P19" s="25"/>
-      <c r="Q19" s="25"/>
-      <c r="R19" s="25"/>
-      <c r="S19" s="19"/>
-      <c r="T19" s="21"/>
-      <c r="U19" s="25"/>
-      <c r="V19" s="25"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="27"/>
+      <c r="N19" s="31"/>
+      <c r="O19" s="27"/>
+      <c r="P19" s="27"/>
+      <c r="Q19" s="27"/>
+      <c r="R19" s="27"/>
+      <c r="S19" s="21"/>
+      <c r="T19" s="23"/>
+      <c r="U19" s="27"/>
+      <c r="V19" s="27"/>
     </row>
     <row r="20" spans="1:45">
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="25"/>
-      <c r="M20" s="25"/>
-      <c r="N20" s="30"/>
-      <c r="O20" s="25"/>
-      <c r="P20" s="25"/>
-      <c r="Q20" s="25"/>
-      <c r="R20" s="25"/>
-      <c r="S20" s="22"/>
-      <c r="T20" s="24"/>
-      <c r="U20" s="25"/>
-      <c r="V20" s="25"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="27"/>
+      <c r="N20" s="31"/>
+      <c r="O20" s="27"/>
+      <c r="P20" s="27"/>
+      <c r="Q20" s="27"/>
+      <c r="R20" s="27"/>
+      <c r="S20" s="24"/>
+      <c r="T20" s="26"/>
+      <c r="U20" s="27"/>
+      <c r="V20" s="27"/>
     </row>
     <row r="21" spans="1:45" ht="11.25" customHeight="1">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="15" t="s">
         <v>280</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="15" t="s">
         <v>286</v>
       </c>
-      <c r="E21" s="12" t="s">
+      <c r="E21" s="15" t="s">
         <v>266</v>
       </c>
-      <c r="F21" s="12" t="s">
+      <c r="F21" s="15" t="s">
         <v>282</v>
       </c>
-      <c r="G21" s="12" t="s">
+      <c r="G21" s="15" t="s">
         <v>268</v>
       </c>
-      <c r="H21" s="12" t="s">
+      <c r="H21" s="15" t="s">
         <v>267</v>
       </c>
-      <c r="I21" s="12" t="s">
+      <c r="I21" s="15" t="s">
         <v>277</v>
       </c>
-      <c r="J21" s="12" t="s">
+      <c r="J21" s="15" t="s">
         <v>278</v>
       </c>
-      <c r="K21" s="12" t="s">
+      <c r="K21" s="15" t="s">
         <v>279</v>
       </c>
-      <c r="L21" s="12" t="s">
+      <c r="L21" s="15" t="s">
         <v>290</v>
       </c>
-      <c r="M21" s="12" t="s">
+      <c r="M21" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="N21" s="12" t="s">
+      <c r="N21" s="15" t="s">
         <v>281</v>
       </c>
-      <c r="O21" s="12" t="s">
+      <c r="O21" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="P21" s="12" t="s">
+      <c r="P21" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="Q21" s="12" t="s">
+      <c r="Q21" s="15" t="s">
         <v>284</v>
       </c>
       <c r="R21" s="32" t="s">
         <v>139</v>
       </c>
-      <c r="S21" s="13" t="s">
+      <c r="S21" s="29" t="s">
         <v>287</v>
       </c>
-      <c r="T21" s="13" t="s">
+      <c r="T21" s="29" t="s">
         <v>288</v>
       </c>
-      <c r="U21" s="13" t="s">
+      <c r="U21" s="29" t="s">
         <v>289</v>
       </c>
-      <c r="V21" s="13" t="s">
+      <c r="V21" s="29" t="s">
         <v>291</v>
       </c>
-      <c r="W21" s="13" t="s">
+      <c r="W21" s="29" t="s">
         <v>301</v>
       </c>
       <c r="Z21" s="1"/>
@@ -5957,29 +5957,29 @@
       <c r="AS21" s="1"/>
     </row>
     <row r="22" spans="1:45">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="12"/>
-      <c r="O22" s="12"/>
-      <c r="P22" s="12"/>
-      <c r="Q22" s="12"/>
+      <c r="A22" s="15"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="15"/>
+      <c r="P22" s="15"/>
+      <c r="Q22" s="15"/>
       <c r="R22" s="32"/>
-      <c r="S22" s="13"/>
-      <c r="T22" s="13"/>
-      <c r="U22" s="13"/>
-      <c r="V22" s="13"/>
-      <c r="W22" s="13"/>
+      <c r="S22" s="29"/>
+      <c r="T22" s="29"/>
+      <c r="U22" s="29"/>
+      <c r="V22" s="29"/>
+      <c r="W22" s="29"/>
       <c r="Z22" s="1"/>
       <c r="AA22" s="2"/>
       <c r="AM22" s="1"/>
@@ -5990,29 +5990,29 @@
       <c r="AS22" s="1"/>
     </row>
     <row r="23" spans="1:45">
-      <c r="A23" s="12"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="12"/>
-      <c r="O23" s="12"/>
-      <c r="P23" s="12"/>
-      <c r="Q23" s="12"/>
+      <c r="A23" s="15"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="15"/>
       <c r="R23" s="32"/>
-      <c r="S23" s="13"/>
-      <c r="T23" s="13"/>
-      <c r="U23" s="13"/>
-      <c r="V23" s="13"/>
-      <c r="W23" s="13"/>
+      <c r="S23" s="29"/>
+      <c r="T23" s="29"/>
+      <c r="U23" s="29"/>
+      <c r="V23" s="29"/>
+      <c r="W23" s="29"/>
       <c r="Z23" s="1"/>
       <c r="AA23" s="2"/>
       <c r="AM23" s="1"/>
@@ -6023,29 +6023,29 @@
       <c r="AS23" s="1"/>
     </row>
     <row r="24" spans="1:45">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="12"/>
-      <c r="O24" s="12"/>
-      <c r="P24" s="12"/>
-      <c r="Q24" s="12"/>
+      <c r="A24" s="15"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="15"/>
+      <c r="P24" s="15"/>
+      <c r="Q24" s="15"/>
       <c r="R24" s="32"/>
-      <c r="S24" s="13"/>
-      <c r="T24" s="13"/>
-      <c r="U24" s="13"/>
-      <c r="V24" s="13"/>
-      <c r="W24" s="13"/>
+      <c r="S24" s="29"/>
+      <c r="T24" s="29"/>
+      <c r="U24" s="29"/>
+      <c r="V24" s="29"/>
+      <c r="W24" s="29"/>
       <c r="Z24" s="1"/>
       <c r="AA24" s="2"/>
       <c r="AM24" s="1"/>
@@ -6056,29 +6056,29 @@
       <c r="AS24" s="1"/>
     </row>
     <row r="25" spans="1:45">
-      <c r="A25" s="12"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="12"/>
-      <c r="O25" s="12"/>
-      <c r="P25" s="12"/>
-      <c r="Q25" s="12"/>
+      <c r="A25" s="15"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="15"/>
+      <c r="P25" s="15"/>
+      <c r="Q25" s="15"/>
       <c r="R25" s="32"/>
-      <c r="S25" s="13"/>
-      <c r="T25" s="13"/>
-      <c r="U25" s="13"/>
-      <c r="V25" s="13"/>
-      <c r="W25" s="13"/>
+      <c r="S25" s="29"/>
+      <c r="T25" s="29"/>
+      <c r="U25" s="29"/>
+      <c r="V25" s="29"/>
+      <c r="W25" s="29"/>
       <c r="Z25" s="1"/>
       <c r="AA25" s="2"/>
       <c r="AM25" s="1"/>
@@ -6089,29 +6089,29 @@
       <c r="AS25" s="1"/>
     </row>
     <row r="26" spans="1:45">
-      <c r="A26" s="12"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="12"/>
-      <c r="N26" s="12"/>
-      <c r="O26" s="12"/>
-      <c r="P26" s="12"/>
-      <c r="Q26" s="12"/>
+      <c r="A26" s="15"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="15"/>
+      <c r="O26" s="15"/>
+      <c r="P26" s="15"/>
+      <c r="Q26" s="15"/>
       <c r="R26" s="32"/>
-      <c r="S26" s="13"/>
-      <c r="T26" s="13"/>
-      <c r="U26" s="13"/>
-      <c r="V26" s="13"/>
-      <c r="W26" s="13"/>
+      <c r="S26" s="29"/>
+      <c r="T26" s="29"/>
+      <c r="U26" s="29"/>
+      <c r="V26" s="29"/>
+      <c r="W26" s="29"/>
       <c r="Z26" s="1"/>
       <c r="AA26" s="2"/>
       <c r="AM26" s="1"/>
@@ -6122,29 +6122,29 @@
       <c r="AS26" s="1"/>
     </row>
     <row r="27" spans="1:45">
-      <c r="A27" s="12"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="12"/>
-      <c r="N27" s="12"/>
-      <c r="O27" s="12"/>
-      <c r="P27" s="12"/>
-      <c r="Q27" s="12"/>
+      <c r="A27" s="15"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="15"/>
+      <c r="O27" s="15"/>
+      <c r="P27" s="15"/>
+      <c r="Q27" s="15"/>
       <c r="R27" s="32"/>
-      <c r="S27" s="13"/>
-      <c r="T27" s="13"/>
-      <c r="U27" s="13"/>
-      <c r="V27" s="13"/>
-      <c r="W27" s="13"/>
+      <c r="S27" s="29"/>
+      <c r="T27" s="29"/>
+      <c r="U27" s="29"/>
+      <c r="V27" s="29"/>
+      <c r="W27" s="29"/>
       <c r="Z27" s="1"/>
       <c r="AA27" s="2"/>
       <c r="AM27" s="1"/>
@@ -6155,51 +6155,67 @@
       <c r="AS27" s="1"/>
     </row>
     <row r="28" spans="1:45">
-      <c r="S28" s="13"/>
-      <c r="T28" s="13"/>
-      <c r="U28" s="13"/>
-      <c r="V28" s="13"/>
-      <c r="W28" s="13"/>
+      <c r="S28" s="29"/>
+      <c r="T28" s="29"/>
+      <c r="U28" s="29"/>
+      <c r="V28" s="29"/>
+      <c r="W28" s="29"/>
     </row>
     <row r="29" spans="1:45">
-      <c r="F29" s="12" t="s">
+      <c r="F29" s="15" t="s">
         <v>283</v>
       </c>
-      <c r="M29" s="26" t="s">
+      <c r="M29" s="12" t="s">
         <v>300</v>
       </c>
-      <c r="S29" s="13"/>
-      <c r="T29" s="13"/>
-      <c r="U29" s="13"/>
-      <c r="V29" s="13"/>
-      <c r="W29" s="13"/>
+      <c r="S29" s="29"/>
+      <c r="T29" s="29"/>
+      <c r="U29" s="29"/>
+      <c r="V29" s="29"/>
+      <c r="W29" s="29"/>
     </row>
     <row r="30" spans="1:45">
-      <c r="F30" s="12"/>
-      <c r="M30" s="27"/>
+      <c r="F30" s="15"/>
+      <c r="M30" s="13"/>
     </row>
     <row r="31" spans="1:45">
-      <c r="F31" s="12"/>
-      <c r="M31" s="27"/>
+      <c r="F31" s="15"/>
+      <c r="M31" s="13"/>
     </row>
     <row r="32" spans="1:45">
-      <c r="F32" s="12"/>
-      <c r="M32" s="27"/>
+      <c r="F32" s="15"/>
+      <c r="M32" s="13"/>
     </row>
     <row r="33" spans="6:13">
-      <c r="F33" s="12"/>
-      <c r="M33" s="27"/>
+      <c r="F33" s="15"/>
+      <c r="M33" s="13"/>
     </row>
     <row r="34" spans="6:13">
-      <c r="F34" s="12"/>
-      <c r="M34" s="27"/>
+      <c r="F34" s="15"/>
+      <c r="M34" s="13"/>
     </row>
     <row r="35" spans="6:13">
-      <c r="F35" s="12"/>
-      <c r="M35" s="28"/>
+      <c r="F35" s="15"/>
+      <c r="M35" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="S21:S29"/>
+    <mergeCell ref="A21:A27"/>
+    <mergeCell ref="C21:C27"/>
+    <mergeCell ref="N21:N27"/>
+    <mergeCell ref="N18:N20"/>
+    <mergeCell ref="F21:F27"/>
+    <mergeCell ref="F29:F35"/>
+    <mergeCell ref="K21:K27"/>
+    <mergeCell ref="B21:B27"/>
+    <mergeCell ref="E21:E27"/>
+    <mergeCell ref="G21:G27"/>
+    <mergeCell ref="H21:H27"/>
+    <mergeCell ref="I21:I27"/>
+    <mergeCell ref="J21:J27"/>
     <mergeCell ref="U18:V20"/>
     <mergeCell ref="W21:W29"/>
     <mergeCell ref="B18:M20"/>
@@ -6216,22 +6232,6 @@
     <mergeCell ref="Q21:Q27"/>
     <mergeCell ref="R21:R27"/>
     <mergeCell ref="D21:D27"/>
-    <mergeCell ref="S21:S29"/>
-    <mergeCell ref="A21:A27"/>
-    <mergeCell ref="C21:C27"/>
-    <mergeCell ref="N21:N27"/>
-    <mergeCell ref="N18:N20"/>
-    <mergeCell ref="F21:F27"/>
-    <mergeCell ref="F29:F35"/>
-    <mergeCell ref="K21:K27"/>
-    <mergeCell ref="B21:B27"/>
-    <mergeCell ref="E21:E27"/>
-    <mergeCell ref="G21:G27"/>
-    <mergeCell ref="H21:H27"/>
-    <mergeCell ref="I21:I27"/>
-    <mergeCell ref="J21:J27"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6447,7 +6447,7 @@
       </c>
     </row>
     <row r="24" spans="3:6">
-      <c r="C24" s="31" t="s">
+      <c r="C24" s="11" t="s">
         <v>205</v>
       </c>
       <c r="F24" t="str">

--- a/Documentação/Planilhas/Conferencia_TRP.xlsx
+++ b/Documentação/Planilhas/Conferencia_TRP.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="stg_trp_analitico" sheetId="105" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="293">
   <si>
     <t>Conferência dos dados da tabela:</t>
   </si>
@@ -118,12 +118,6 @@
     <t>QT_VOLUMES</t>
   </si>
   <si>
-    <t>B2C Extra</t>
-  </si>
-  <si>
-    <t>100101</t>
-  </si>
-  <si>
     <t>Normal</t>
   </si>
   <si>
@@ -151,18 +145,6 @@
     <t>Entregue a Transportadora</t>
   </si>
   <si>
-    <t>101601</t>
-  </si>
-  <si>
-    <t>4218404901</t>
-  </si>
-  <si>
-    <t>ROT</t>
-  </si>
-  <si>
-    <t>EM ROTA</t>
-  </si>
-  <si>
     <t>Pegar a informação do "Cód Companhia" no cabeçalho da tela</t>
   </si>
   <si>
@@ -175,141 +157,18 @@
     <t>Pegar a informação da coluna "Valor do Frete Cliente" para a Ref Fiscal desejada</t>
   </si>
   <si>
-    <t>Sessão znslsc501m000 (Pedidos de Venda Site Linhas) [informar o NR_ENTREGA na coluna "Entrega"]</t>
-  </si>
-  <si>
-    <t>000000500</t>
-  </si>
-  <si>
     <t>4218646301</t>
   </si>
   <si>
-    <t>Urgente</t>
-  </si>
-  <si>
-    <t>2014-07-09 00:00:00.000</t>
-  </si>
-  <si>
-    <t>2014-07-02 10:53:00.000</t>
-  </si>
-  <si>
-    <t>F20004225</t>
-  </si>
-  <si>
-    <t>2014-07-01 10:53:16.000</t>
-  </si>
-  <si>
     <t>4547005</t>
   </si>
   <si>
-    <t>69.2000</t>
-  </si>
-  <si>
     <t>1.4000</t>
   </si>
   <si>
-    <t>000000505</t>
-  </si>
-  <si>
-    <t>F20004251</t>
-  </si>
-  <si>
-    <t>000001650</t>
-  </si>
-  <si>
-    <t>F20005238</t>
-  </si>
-  <si>
-    <t>000001651</t>
-  </si>
-  <si>
-    <t>F20005245</t>
-  </si>
-  <si>
-    <t>000001715</t>
-  </si>
-  <si>
-    <t>F20005918</t>
-  </si>
-  <si>
-    <t>000001716</t>
-  </si>
-  <si>
-    <t>F20005920</t>
-  </si>
-  <si>
-    <t>000001720</t>
-  </si>
-  <si>
-    <t>F20005900</t>
-  </si>
-  <si>
-    <t>000001745</t>
-  </si>
-  <si>
-    <t>F20005898</t>
-  </si>
-  <si>
-    <t>000001759</t>
-  </si>
-  <si>
-    <t>F20005868</t>
-  </si>
-  <si>
-    <t>42186463</t>
-  </si>
-  <si>
-    <t>F20002673</t>
-  </si>
-  <si>
-    <t>000001615</t>
-  </si>
-  <si>
-    <t>4218646302</t>
-  </si>
-  <si>
-    <t>F20004409</t>
-  </si>
-  <si>
-    <t>Reversa</t>
-  </si>
-  <si>
-    <t>2014-07-04 11:07:58.000</t>
-  </si>
-  <si>
-    <t>2014-06-16 13:29:00.000</t>
-  </si>
-  <si>
     <t>4547006</t>
   </si>
   <si>
-    <t>42190664</t>
-  </si>
-  <si>
-    <t>4219066401</t>
-  </si>
-  <si>
-    <t>2014-08-21 00:00:00.000</t>
-  </si>
-  <si>
-    <t>2014-08-19 12:28:00.000</t>
-  </si>
-  <si>
-    <t>F20004599</t>
-  </si>
-  <si>
-    <t>2014-08-18 12:28:18.000</t>
-  </si>
-  <si>
-    <t>5043020</t>
-  </si>
-  <si>
-    <t>335.2200</t>
-  </si>
-  <si>
-    <t>2.0000</t>
-  </si>
-  <si>
     <t>B2B Extra</t>
   </si>
   <si>
@@ -319,21 +178,9 @@
     <t>7010046001</t>
   </si>
   <si>
-    <t>2014-06-10 16:18:14.000</t>
-  </si>
-  <si>
-    <t>2014-06-11 00:00:00.000</t>
-  </si>
-  <si>
     <t>F20002126</t>
   </si>
   <si>
-    <t>2014-06-10 16:15:00.000</t>
-  </si>
-  <si>
-    <t>2014-06-10 00:00:00.000</t>
-  </si>
-  <si>
     <t>137.6000</t>
   </si>
   <si>
@@ -349,9 +196,6 @@
     <t>Pegar a informação da "Unidade de Negócio" no cabeçalho da tela</t>
   </si>
   <si>
-    <t>17.2300</t>
-  </si>
-  <si>
     <t>2.7000</t>
   </si>
   <si>
@@ -361,51 +205,6 @@
     <t>Pegar a informação da coluna "Status (Fechada)" para a Ref Fiscal desejada. Se for igual a "F", retornará "Finalizado". Caso contrário, retornará "Em processo"</t>
   </si>
   <si>
-    <t>0000003772</t>
-  </si>
-  <si>
-    <t>MG509BR, MG510BR</t>
-  </si>
-  <si>
-    <t>MG511BR, MG512BR</t>
-  </si>
-  <si>
-    <t>MG100000003BR</t>
-  </si>
-  <si>
-    <t>MG100000004BR</t>
-  </si>
-  <si>
-    <t>MG100000011BR</t>
-  </si>
-  <si>
-    <t>MG100000012BR</t>
-  </si>
-  <si>
-    <t>MG100000008BR</t>
-  </si>
-  <si>
-    <t>MG100000009BR</t>
-  </si>
-  <si>
-    <t>MG100000013BR</t>
-  </si>
-  <si>
-    <t>NL100000004BR</t>
-  </si>
-  <si>
-    <t>2014-07-02 14:34:16.000</t>
-  </si>
-  <si>
-    <t>2014-08-18 14:09:49.000</t>
-  </si>
-  <si>
-    <t>2014-08-23 13:53:00.000</t>
-  </si>
-  <si>
-    <t>2014-08-26 16:53:48.000</t>
-  </si>
-  <si>
     <t>NR_ETIQUETA</t>
   </si>
   <si>
@@ -430,9 +229,6 @@
     <t>Limpar a coluna "Código ocorrência Interna". Pegar a informação coluna "Data e Hora da Ocorrência", cuja data seja a mais recente.</t>
   </si>
   <si>
-    <t>2014-08-15 09:38:43.000</t>
-  </si>
-  <si>
     <t>Sessão "znfmdc507m000" (Ordens de Frete) [Na lupinha, informar o NR_ENTREGA como Nr.Pedido Site, limpando primeiramente todos os campos]</t>
   </si>
   <si>
@@ -475,114 +271,39 @@
     <t>Pegar a informação da coluna "Número da Etiqueta". Isso não tem na tabela, mas vamos precisar dela pra validar as informações  de Ocorrência de Entrega</t>
   </si>
   <si>
-    <t>Fazer o detalhamento do Pedido desejado. Na aba inferior "Linhas de Ordem", detalhar a linha apresentada. Na aba superior "Venda", seção "Detalhes do preço", pegar a informação da Data da Ordem</t>
-  </si>
-  <si>
     <t>NR_ORDEM</t>
   </si>
   <si>
     <t>Pegar a informação da coluna "Número da Ordem Fiscal". Isso não tem na tabela, mas vamos precisar dela pra validar as informações  de Data Limite da Expedição</t>
   </si>
   <si>
-    <t>V20043059</t>
-  </si>
-  <si>
-    <t>V20049854</t>
-  </si>
-  <si>
-    <t>V20049860</t>
-  </si>
-  <si>
-    <t>V30000248</t>
-  </si>
-  <si>
-    <t>V30000249</t>
-  </si>
-  <si>
-    <t>V30000253</t>
-  </si>
-  <si>
-    <t>V30000278</t>
-  </si>
-  <si>
-    <t>V20051012</t>
-  </si>
-  <si>
-    <t>V20006187</t>
-  </si>
-  <si>
     <t>Sessão "tdsls4100m000" (Ordens de Venda)</t>
   </si>
   <si>
-    <t>Informar o NR_ORDEM na coluna Ordem e pedir o detalhamento da mesmas. Na aba inferior "Linhas da Ordem", detalhar o item desejado. Na aba superior "Armazém", seção "Armazém",  pegar a informação de "Data da Libreração"</t>
-  </si>
-  <si>
     <t>Sessão "cislil504m00l" (Nota Fiscal)</t>
   </si>
   <si>
-    <t>Informar o NR_REFERENCIA_FISCAL na coluna Ordem. Pegar a informação da coluna "Valor Total"</t>
-  </si>
-  <si>
-    <t>Informar o NR_REFERENCIA_FISCAL na coluna Ordem e pedir o detalhamento da mesma. Na aba inferior "Linhas da Nota Fiscal" , somar todas as quantidades dos itens comprados da coluna "Quantidade". A soma deverá ser feita somente para os itens Comprados ou Fabricados.</t>
-  </si>
-  <si>
-    <t>znslsc524m000, znfmdc507m000, znfmdc510m100, nslsc501m000, tdsls4100m000 e cislil504m00l</t>
-  </si>
-  <si>
     <t>stg_trp_analitico_atualiza</t>
   </si>
   <si>
-    <t>4218405001</t>
-  </si>
-  <si>
-    <t>4218623301</t>
-  </si>
-  <si>
     <t>EXT</t>
   </si>
   <si>
     <t>EXTRAVIO</t>
   </si>
   <si>
-    <t>4218646303</t>
-  </si>
-  <si>
     <t>Pegar a informação do NR Entrega no cabeçalho da tela</t>
   </si>
   <si>
-    <t>0000005202</t>
-  </si>
-  <si>
-    <t>0000005203</t>
-  </si>
-  <si>
     <t>Pegar a informação da coluna "Número da Etiqueta". Isso não tem na tabela, mas vamos precisar dela pra validar as demais informações  de Ocorrência de Entrega</t>
   </si>
   <si>
-    <t>2014-08-28 16:48:35.000</t>
-  </si>
-  <si>
-    <t>2014-08-29 12:01:56.000</t>
-  </si>
-  <si>
-    <t>2014-08-26 14:00:34.000</t>
-  </si>
-  <si>
     <t>Pegar a informação da coluna "Código ocorrência interna"</t>
   </si>
   <si>
     <t>Pegar a informação da descrição da coluna "Código ocorrência interna"</t>
   </si>
   <si>
-    <t>2014-08-29 13:29:01.000</t>
-  </si>
-  <si>
-    <t>2014-06-20 19:18:40.000</t>
-  </si>
-  <si>
-    <t>2014-08-26 09:14:13.000</t>
-  </si>
-  <si>
     <t>Pegar a maior data apresentada na coluna "Data e Hora da Ocorrência" para a ocorrência que está sendo analisada</t>
   </si>
   <si>
@@ -643,90 +364,15 @@
     <t>30</t>
   </si>
   <si>
-    <t>201</t>
-  </si>
-  <si>
-    <t>0.0208</t>
-  </si>
-  <si>
-    <t>6.2451</t>
-  </si>
-  <si>
     <t>11169431000100</t>
   </si>
   <si>
     <t>Vivo_NL</t>
   </si>
   <si>
-    <t>2014-08-18 13:45:17.000</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>0.0221</t>
-  </si>
-  <si>
-    <t>6.6420</t>
-  </si>
-  <si>
-    <t>1969-12-31 21:00:00.000</t>
-  </si>
-  <si>
-    <t>2014-08-05 13:23:24.000</t>
-  </si>
-  <si>
-    <t>4.9200</t>
-  </si>
-  <si>
-    <t>5024000</t>
-  </si>
-  <si>
-    <t>0.0202</t>
-  </si>
-  <si>
-    <t>6.0480</t>
-  </si>
-  <si>
-    <t>4218951201</t>
-  </si>
-  <si>
-    <t>2014-08-06 15:10:24.000</t>
-  </si>
-  <si>
-    <t>2014-08-08 00:00:00.000</t>
-  </si>
-  <si>
-    <t>2014-08-27 15:32:14.000</t>
-  </si>
-  <si>
-    <t>2014-06-18 17:47:58.000</t>
-  </si>
-  <si>
     <t>1.9900</t>
   </si>
   <si>
-    <t>8230820</t>
-  </si>
-  <si>
-    <t>0.0010</t>
-  </si>
-  <si>
-    <t>0.3060</t>
-  </si>
-  <si>
-    <t>4218681201</t>
-  </si>
-  <si>
-    <t>2014-08-28 13:53:00.000</t>
-  </si>
-  <si>
-    <t>2014-08-11 00:00:00.000</t>
-  </si>
-  <si>
-    <t>4.6500</t>
-  </si>
-  <si>
     <t>6413110</t>
   </si>
   <si>
@@ -739,81 +385,12 @@
     <t>3.1968</t>
   </si>
   <si>
-    <t>4218910802</t>
-  </si>
-  <si>
-    <t>2014-08-05 20:42:59.000</t>
-  </si>
-  <si>
-    <t>2014-08-12 00:00:00.000</t>
-  </si>
-  <si>
-    <t>4475240</t>
-  </si>
-  <si>
-    <t>4218938601</t>
-  </si>
-  <si>
-    <t>2014-08-11 17:19:11.000</t>
-  </si>
-  <si>
-    <t>2014-09-02 00:00:00.000</t>
-  </si>
-  <si>
-    <t>20271205</t>
-  </si>
-  <si>
-    <t>Rio de Janeiro</t>
-  </si>
-  <si>
-    <t>RJ</t>
-  </si>
-  <si>
     <t>0.0028</t>
   </si>
   <si>
     <t>0.8400</t>
   </si>
   <si>
-    <t>4281036000737</t>
-  </si>
-  <si>
-    <t>RP_LEVE</t>
-  </si>
-  <si>
-    <t>4219100601</t>
-  </si>
-  <si>
-    <t>2014-08-25 11:05:29.000</t>
-  </si>
-  <si>
-    <t>2014-04-15 15:17:59.000</t>
-  </si>
-  <si>
-    <t>3.4600</t>
-  </si>
-  <si>
-    <t>6180180</t>
-  </si>
-  <si>
-    <t>Osasco</t>
-  </si>
-  <si>
-    <t>0.1020</t>
-  </si>
-  <si>
-    <t>30.5856</t>
-  </si>
-  <si>
-    <t>34028316000294</t>
-  </si>
-  <si>
-    <t>CORREIOS</t>
-  </si>
-  <si>
-    <t>50009458</t>
-  </si>
-  <si>
     <t>7850</t>
   </si>
   <si>
@@ -826,30 +403,6 @@
     <t>Pegar a informação da coluna "Série da Nota Fiscal"</t>
   </si>
   <si>
-    <t>667</t>
-  </si>
-  <si>
-    <t>125</t>
-  </si>
-  <si>
-    <t>432</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>377</t>
-  </si>
-  <si>
-    <t>396</t>
-  </si>
-  <si>
-    <t>760</t>
-  </si>
-  <si>
-    <t>195</t>
-  </si>
-  <si>
     <t>Pegar a informação da coluna "Valor do Frete cobrado Transportadora"</t>
   </si>
   <si>
@@ -857,9 +410,6 @@
   </si>
   <si>
     <t>Pegar a informação da coluna "Valor do Frete Acertado"</t>
-  </si>
-  <si>
-    <t>Fixo 201</t>
   </si>
   <si>
     <t>Pegar a informação da coluna "Data e Hora da Ocorrência", apenas para o "Código Ocorrência Interna" = "ROT". Pegar a data mais antiga</t>
@@ -899,30 +449,12 @@
     <t>Multiplicar o resultado da coluna VL_VOLUME_M3 por 300</t>
   </si>
   <si>
-    <t>2.5150</t>
-  </si>
-  <si>
-    <t>1.7600</t>
-  </si>
-  <si>
-    <t>1.7500</t>
-  </si>
-  <si>
-    <t>0.2400</t>
-  </si>
-  <si>
     <t>0.9720</t>
   </si>
   <si>
-    <t>8.7500</t>
-  </si>
-  <si>
     <t>0.6400</t>
   </si>
   <si>
-    <t>3.4400</t>
-  </si>
-  <si>
     <t>Ir para a sessão "znfmdc560m000" (Contrato de Transportes) e informar o código da transportadora e contrato identificado anteriormente. Pegar a informação "ID Externa do Contrato" no cabeçalho da tela</t>
   </si>
   <si>
@@ -939,13 +471,442 @@
   </si>
   <si>
     <t>znfmdc507m000, znfmdc510m100, znslsc501m000, cislil504m00l e whwmd4500m000</t>
+  </si>
+  <si>
+    <t>2014-08-23 14:53:00.000</t>
+  </si>
+  <si>
+    <t>2014-08-26 17:53:48.000</t>
+  </si>
+  <si>
+    <t>2014-06-10 17:18:14.000</t>
+  </si>
+  <si>
+    <t>2014-06-11 01:00:00.000</t>
+  </si>
+  <si>
+    <t>2014-06-10 17:15:00.000</t>
+  </si>
+  <si>
+    <t>2014-06-10 01:00:00.000</t>
+  </si>
+  <si>
+    <t>70100458</t>
+  </si>
+  <si>
+    <t>7010045801</t>
+  </si>
+  <si>
+    <t>F20002146</t>
+  </si>
+  <si>
+    <t>2014-07-19 09:25:02.000</t>
+  </si>
+  <si>
+    <t>2014-06-10 17:13:58.000</t>
+  </si>
+  <si>
+    <t>2014-06-10 17:09:00.000</t>
+  </si>
+  <si>
+    <t>70100455</t>
+  </si>
+  <si>
+    <t>7010045501</t>
+  </si>
+  <si>
+    <t>F20002137</t>
+  </si>
+  <si>
+    <t>2014-08-22 14:53:00.000</t>
+  </si>
+  <si>
+    <t>2014-06-16 10:57:50.000</t>
+  </si>
+  <si>
+    <t>2014-06-17 01:00:00.000</t>
+  </si>
+  <si>
+    <t>2014-06-10 16:52:00.000</t>
+  </si>
+  <si>
+    <t>2014-06-16 01:00:00.000</t>
+  </si>
+  <si>
+    <t>70100454</t>
+  </si>
+  <si>
+    <t>7010045401</t>
+  </si>
+  <si>
+    <t>F20002136</t>
+  </si>
+  <si>
+    <t>2014-06-10 16:46:00.000</t>
+  </si>
+  <si>
+    <t>70100451</t>
+  </si>
+  <si>
+    <t>7010045101</t>
+  </si>
+  <si>
+    <t>F20002139</t>
+  </si>
+  <si>
+    <t>2014-07-18 15:44:13.000</t>
+  </si>
+  <si>
+    <t>2014-06-10 16:22:00.000</t>
+  </si>
+  <si>
+    <t>50234400</t>
+  </si>
+  <si>
+    <t>5023440001</t>
+  </si>
+  <si>
+    <t>F20007104</t>
+  </si>
+  <si>
+    <t>2015-02-07 14:33:16.000</t>
+  </si>
+  <si>
+    <t>2015-02-10 00:00:00.000</t>
+  </si>
+  <si>
+    <t>RS</t>
+  </si>
+  <si>
+    <t>91050090</t>
+  </si>
+  <si>
+    <t>2015-02-09 23:59:00.000</t>
+  </si>
+  <si>
+    <t>2015-02-07 09:05:00.000</t>
+  </si>
+  <si>
+    <t>2015-02-09 00:00:00.000</t>
+  </si>
+  <si>
+    <t>50234399</t>
+  </si>
+  <si>
+    <t>5023439901</t>
+  </si>
+  <si>
+    <t>F20007105</t>
+  </si>
+  <si>
+    <t>2015-02-07 14:34:04.000</t>
+  </si>
+  <si>
+    <t>2015-02-07 09:06:30.000</t>
+  </si>
+  <si>
+    <t>50234359</t>
+  </si>
+  <si>
+    <t>5023435901</t>
+  </si>
+  <si>
+    <t>F20007081</t>
+  </si>
+  <si>
+    <t>2014-10-09 11:00:00.000</t>
+  </si>
+  <si>
+    <t>2015-02-06 11:37:00.000</t>
+  </si>
+  <si>
+    <t>2015-02-06 13:36:30.000</t>
+  </si>
+  <si>
+    <t>2015-02-06 11:36:11.000</t>
+  </si>
+  <si>
+    <t>50234285</t>
+  </si>
+  <si>
+    <t>5023428501</t>
+  </si>
+  <si>
+    <t>F20007062</t>
+  </si>
+  <si>
+    <t>2015-02-05 14:30:08.000</t>
+  </si>
+  <si>
+    <t>2015-02-06 00:00:00.000</t>
+  </si>
+  <si>
+    <t>2015-02-05 11:44:00.000</t>
+  </si>
+  <si>
+    <t>2015-02-05 13:43:57.000</t>
+  </si>
+  <si>
+    <t>2015-02-05 11:43:47.000</t>
+  </si>
+  <si>
+    <t>50234280</t>
+  </si>
+  <si>
+    <t>5023428001</t>
+  </si>
+  <si>
+    <t>F20007064</t>
+  </si>
+  <si>
+    <t>2015-02-05 16:52:41.000</t>
+  </si>
+  <si>
+    <t>2015-02-05 11:16:00.000</t>
+  </si>
+  <si>
+    <t>2015-02-05 13:15:55.000</t>
+  </si>
+  <si>
+    <t>2015-02-05 11:15:54.000</t>
+  </si>
+  <si>
+    <t>V20004577</t>
+  </si>
+  <si>
+    <t>Problema com Timezone</t>
+  </si>
+  <si>
+    <t>Informar o NR_PEDIDO na coluna Pedido do Cliente. Caso o registro não seja apresentado, utilizar a seta "Next Group" até encontrá-lo. Pegar a informação da coluna "Data de Emissão"</t>
+  </si>
+  <si>
+    <t>Sessão "znslsc500m000" (Pedidos de Venda Integrados)</t>
+  </si>
+  <si>
+    <t>znslsc524m000, znfmdc507m000, znslsc500m000, znfmdc510m100, nslsc501m000, tdsls4100m000 e cislil504m00l</t>
+  </si>
+  <si>
+    <t>Informar o NR_ORDEM na coluna Ordem e pedir o detalhamento da mesmas. Na aba inferior "Linhas da Ordem", detalhar o item desejado. Na aba superior "Armazém", seção "Armazém",  pegar a informação de "Data da Liberação"</t>
+  </si>
+  <si>
+    <t>Informar o NR_REFERENCIA_FISCAL na coluna Referência Fiscal. Pegar a informação da coluna "Valor Total"</t>
+  </si>
+  <si>
+    <t>Informar o NR_REFERENCIA_FISCAL na coluna Referência Fiscal e pedir o detalhamento da mesma. Na aba inferior "Linhas da Nota Fiscal" , somar todas as quantidades dos itens comprados da coluna "Quantidade". A soma deverá ser feita somente para os itens Comprados ou Fabricados.</t>
+  </si>
+  <si>
+    <t>NL100000531BR</t>
+  </si>
+  <si>
+    <t>2014-10-22 16:01:08.000</t>
+  </si>
+  <si>
+    <t>2014-10-03 18:00:09.000</t>
+  </si>
+  <si>
+    <t>2014-08-26 19:53:48.000</t>
+  </si>
+  <si>
+    <t>7010045901</t>
+  </si>
+  <si>
+    <t>2014-09-01 15:13:55.000</t>
+  </si>
+  <si>
+    <t>2014-07-19 11:25:02.000</t>
+  </si>
+  <si>
+    <t>2014-08-22 16:53:00.000</t>
+  </si>
+  <si>
+    <t>2014-07-18 17:44:13.000</t>
+  </si>
+  <si>
+    <t>7000283301</t>
+  </si>
+  <si>
+    <t>2014-09-15 12:48:21.000</t>
+  </si>
+  <si>
+    <t>2014-09-15 17:27:01.000</t>
+  </si>
+  <si>
+    <t>1595</t>
+  </si>
+  <si>
+    <t>2.8000</t>
+  </si>
+  <si>
+    <t>Vivo_UrL</t>
+  </si>
+  <si>
+    <t>2014-07-09 01:00:00.000</t>
+  </si>
+  <si>
+    <t>0.0081</t>
+  </si>
+  <si>
+    <t>2.4300</t>
+  </si>
+  <si>
+    <t>2015-02-06 14:01:13.000</t>
+  </si>
+  <si>
+    <t>5023370201</t>
+  </si>
+  <si>
+    <t>1423</t>
+  </si>
+  <si>
+    <t>2014-12-26 00:00:00.000</t>
+  </si>
+  <si>
+    <t>3986030</t>
+  </si>
+  <si>
+    <t>300.0000</t>
+  </si>
+  <si>
+    <t>2015-01-02 10:15:29.000</t>
+  </si>
+  <si>
+    <t>5023377402</t>
+  </si>
+  <si>
+    <t>1972</t>
+  </si>
+  <si>
+    <t>4.9900</t>
+  </si>
+  <si>
+    <t>Vivo_Rv_Lev</t>
+  </si>
+  <si>
+    <t>2015-01-07 09:49:57.000</t>
+  </si>
+  <si>
+    <t>12948023</t>
+  </si>
+  <si>
+    <t>Atibaia</t>
+  </si>
+  <si>
+    <t>2015-01-07 10:03:28.000</t>
+  </si>
+  <si>
+    <t>5023377502</t>
+  </si>
+  <si>
+    <t>1974</t>
+  </si>
+  <si>
+    <t>2015-01-07 09:54:58.000</t>
+  </si>
+  <si>
+    <t>2015-01-07 13:24:59.000</t>
+  </si>
+  <si>
+    <t>5023380002</t>
+  </si>
+  <si>
+    <t>1980</t>
+  </si>
+  <si>
+    <t>3.9900</t>
+  </si>
+  <si>
+    <t>106.9893</t>
+  </si>
+  <si>
+    <t>2015-01-12 13:12:27.000</t>
+  </si>
+  <si>
+    <t>2015-01-12 14:00:49.000</t>
+  </si>
+  <si>
+    <t>5023377401</t>
+  </si>
+  <si>
+    <t>1443</t>
+  </si>
+  <si>
+    <t>2015-01-13 00:00:00.000</t>
+  </si>
+  <si>
+    <t>2015-01-07 09:56:37.000</t>
+  </si>
+  <si>
+    <t>5023377501</t>
+  </si>
+  <si>
+    <t>1444</t>
+  </si>
+  <si>
+    <t>2015-01-07 09:58:20.000</t>
+  </si>
+  <si>
+    <t>5023379401</t>
+  </si>
+  <si>
+    <t>1458</t>
+  </si>
+  <si>
+    <t>9.9900</t>
+  </si>
+  <si>
+    <t>8.5500</t>
+  </si>
+  <si>
+    <t>2015-01-15 00:00:00.000</t>
+  </si>
+  <si>
+    <t>9061740</t>
+  </si>
+  <si>
+    <t>SANTO ANDRE</t>
+  </si>
+  <si>
+    <t>0.0880</t>
+  </si>
+  <si>
+    <t>26.4000</t>
+  </si>
+  <si>
+    <t>2015-01-09 15:17:15.000</t>
+  </si>
+  <si>
+    <t>5023380001</t>
+  </si>
+  <si>
+    <t>1459</t>
+  </si>
+  <si>
+    <t>2015-01-16 00:00:00.000</t>
+  </si>
+  <si>
+    <t>2015-01-19 15:34:02.000</t>
+  </si>
+  <si>
+    <t>5023381001</t>
+  </si>
+  <si>
+    <t>1466</t>
+  </si>
+  <si>
+    <t>2015-01-19 00:00:00.000</t>
+  </si>
+  <si>
+    <t>2015-01-19 15:34:20.000</t>
+  </si>
+  <si>
+    <t>Fixo 1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -995,6 +956,14 @@
     <font>
       <b/>
       <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1196,7 +1165,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1226,13 +1195,19 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1271,25 +1246,82 @@
     <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1597,11 +1629,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
-    <tabColor rgb="FF92D050"/>
+    <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AX43"/>
+  <dimension ref="A1:AX41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="I4" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20:R22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
@@ -1625,10 +1659,10 @@
     <col min="21" max="21" width="21.85546875" style="1" customWidth="1"/>
     <col min="22" max="22" width="22" style="1" customWidth="1"/>
     <col min="23" max="23" width="22.7109375" style="1" customWidth="1"/>
-    <col min="24" max="24" width="21.5703125" style="1" customWidth="1"/>
+    <col min="24" max="24" width="31.140625" style="1" customWidth="1"/>
     <col min="25" max="25" width="31.5703125" style="2" customWidth="1"/>
     <col min="26" max="26" width="25.7109375" style="1" customWidth="1"/>
-    <col min="27" max="27" width="30" style="1" customWidth="1"/>
+    <col min="27" max="27" width="34.140625" style="1" customWidth="1"/>
     <col min="28" max="28" width="21.140625" style="1" customWidth="1"/>
     <col min="29" max="29" width="23.28515625" style="1" customWidth="1"/>
     <col min="30" max="30" width="22.42578125" style="1" customWidth="1"/>
@@ -1660,10 +1694,10 @@
       <c r="AR1" s="1"/>
     </row>
     <row r="2" spans="1:50" ht="21">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="14"/>
+      <c r="B2" s="16"/>
       <c r="C2" s="5" t="s">
         <v>10</v>
       </c>
@@ -1679,12 +1713,12 @@
       <c r="AR2" s="1"/>
     </row>
     <row r="3" spans="1:50" ht="21">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="15"/>
+      <c r="B3" s="17"/>
       <c r="C3" s="5" t="s">
-        <v>169</v>
+        <v>220</v>
       </c>
       <c r="G3" s="5"/>
       <c r="S3" s="1"/>
@@ -1699,9 +1733,29 @@
       <c r="AR3" s="1"/>
     </row>
     <row r="4" spans="1:50">
+      <c r="N4" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>217</v>
+      </c>
       <c r="S4" s="1"/>
+      <c r="T4" s="1" t="s">
+        <v>217</v>
+      </c>
       <c r="V4" s="4"/>
-      <c r="Y4" s="1"/>
+      <c r="W4" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>217</v>
+      </c>
       <c r="Z4" s="2"/>
       <c r="AL4" s="1"/>
       <c r="AM4" s="4"/>
@@ -1735,10 +1789,10 @@
         <v>11</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>129</v>
+        <v>62</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>153</v>
+        <v>84</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>18</v>
@@ -1816,1310 +1870,1178 @@
     </row>
     <row r="7" spans="1:50">
       <c r="A7" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>3</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>155</v>
+        <v>50</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>216</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>4</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J7" s="6" t="s">
         <v>6</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="L7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L7" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="M7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="N7" s="1" t="s">
+      <c r="M7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="N7" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="O7" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q7" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="R7" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="S7" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="T7" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="U7" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="V7" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="W7" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="X7" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y7" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z7" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB7" s="4"/>
+      <c r="AC7" s="4"/>
+      <c r="AD7" s="31"/>
+      <c r="AE7" s="4"/>
+      <c r="AF7" s="4"/>
+      <c r="AG7" s="4"/>
+      <c r="AH7" s="4"/>
+      <c r="AI7" s="4"/>
+      <c r="AJ7" s="4"/>
+      <c r="AK7" s="4"/>
+      <c r="AM7" s="4"/>
+      <c r="AN7" s="4"/>
+      <c r="AP7" s="4"/>
+      <c r="AQ7" s="4"/>
+      <c r="AR7" s="4"/>
+      <c r="AS7" s="4"/>
+      <c r="AT7" s="4"/>
+      <c r="AU7" s="4"/>
+      <c r="AV7" s="4"/>
+      <c r="AX7" s="4"/>
+    </row>
+    <row r="8" spans="1:50">
+      <c r="A8" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="N8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="O7" s="1" t="s">
+      <c r="O8" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="R8" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="T8" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="U8" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="V8" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="W8" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="X8" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y8" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z8" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB8" s="4"/>
+      <c r="AC8" s="4"/>
+      <c r="AD8" s="31"/>
+      <c r="AE8" s="4"/>
+      <c r="AF8" s="4"/>
+      <c r="AG8" s="4"/>
+      <c r="AH8" s="4"/>
+      <c r="AI8" s="4"/>
+      <c r="AJ8" s="4"/>
+      <c r="AK8" s="4"/>
+      <c r="AM8" s="4"/>
+      <c r="AN8" s="4"/>
+      <c r="AP8" s="4"/>
+      <c r="AQ8" s="4"/>
+      <c r="AR8" s="4"/>
+      <c r="AS8" s="4"/>
+      <c r="AT8" s="4"/>
+      <c r="AU8" s="4"/>
+      <c r="AV8" s="4"/>
+      <c r="AX8" s="4"/>
+    </row>
+    <row r="9" spans="1:50">
+      <c r="A9" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="N9" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="P7" s="1" t="s">
+      <c r="O9" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="Q7" s="1" t="s">
+      <c r="P9" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="R9" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="S9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="T9" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="U9" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="V9" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="W9" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="X9" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="Y9" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z9" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB9" s="4"/>
+      <c r="AC9" s="4"/>
+      <c r="AD9" s="31"/>
+      <c r="AE9" s="4"/>
+      <c r="AF9" s="4"/>
+      <c r="AG9" s="4"/>
+      <c r="AH9" s="4"/>
+      <c r="AI9" s="4"/>
+      <c r="AJ9" s="4"/>
+      <c r="AK9" s="4"/>
+      <c r="AM9" s="4"/>
+      <c r="AN9" s="4"/>
+      <c r="AP9" s="4"/>
+      <c r="AQ9" s="4"/>
+      <c r="AR9" s="4"/>
+      <c r="AS9" s="4"/>
+      <c r="AT9" s="4"/>
+      <c r="AU9" s="4"/>
+      <c r="AV9" s="4"/>
+      <c r="AX9" s="4"/>
+    </row>
+    <row r="10" spans="1:50">
+      <c r="A10" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="N10" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="R7" s="4" t="s">
+      <c r="O10" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="S7" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="T7" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="U7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="V7" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="W7" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="X7" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y7" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z7" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD7" s="2"/>
-      <c r="AL7" s="1"/>
-      <c r="AO7" s="1"/>
-      <c r="AP7" s="1"/>
-      <c r="AR7" s="1"/>
-      <c r="AS7" s="4"/>
-      <c r="AT7" s="1"/>
-      <c r="AU7" s="1"/>
-      <c r="AV7" s="4"/>
-      <c r="AX7" s="1"/>
-    </row>
-    <row r="8" spans="1:50">
-      <c r="A8" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="N8" s="1" t="s">
+      <c r="P10" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="O8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="R8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="S8" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="T8" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="U8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="V8" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="W8" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="X8" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y8" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z8" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD8" s="2"/>
-      <c r="AL8" s="1"/>
-      <c r="AO8" s="1"/>
-      <c r="AP8" s="1"/>
-      <c r="AR8" s="1"/>
-      <c r="AS8" s="4"/>
-      <c r="AT8" s="1"/>
-      <c r="AU8" s="1"/>
-      <c r="AV8" s="4"/>
-      <c r="AX8" s="1"/>
-    </row>
-    <row r="9" spans="1:50">
-      <c r="A9" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="R9" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="S9" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="T9" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="U9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="V9" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="W9" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="X9" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y9" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z9" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD9" s="2"/>
-      <c r="AL9" s="1"/>
-      <c r="AO9" s="1"/>
-      <c r="AP9" s="1"/>
-      <c r="AR9" s="1"/>
-      <c r="AS9" s="4"/>
-      <c r="AT9" s="1"/>
-      <c r="AU9" s="1"/>
-      <c r="AV9" s="4"/>
-      <c r="AX9" s="1"/>
-    </row>
-    <row r="10" spans="1:50">
-      <c r="A10" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="K10" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q10" s="1" t="s">
+      <c r="Q10" s="4" t="s">
         <v>5</v>
       </c>
       <c r="R10" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="S10" s="1" t="s">
+      <c r="S10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="T10" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="U10" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="V10" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="W10" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="X10" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y10" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z10" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB10" s="4"/>
+      <c r="AC10" s="4"/>
+      <c r="AD10" s="31"/>
+      <c r="AE10" s="4"/>
+      <c r="AF10" s="4"/>
+      <c r="AG10" s="4"/>
+      <c r="AH10" s="4"/>
+      <c r="AI10" s="4"/>
+      <c r="AJ10" s="4"/>
+      <c r="AK10" s="4"/>
+      <c r="AM10" s="4"/>
+      <c r="AN10" s="4"/>
+      <c r="AP10" s="4"/>
+      <c r="AQ10" s="4"/>
+      <c r="AR10" s="4"/>
+      <c r="AS10" s="4"/>
+      <c r="AT10" s="4"/>
+      <c r="AU10" s="4"/>
+      <c r="AV10" s="4"/>
+      <c r="AX10" s="4"/>
+    </row>
+    <row r="11" spans="1:50">
+      <c r="A11" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="P11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="R11" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="S11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="T11" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="U11" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="V11" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="W11" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="X11" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="Y11" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z11" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB11" s="4"/>
+      <c r="AC11" s="4"/>
+      <c r="AD11" s="31"/>
+      <c r="AE11" s="4"/>
+      <c r="AF11" s="4"/>
+      <c r="AG11" s="4"/>
+      <c r="AH11" s="4"/>
+      <c r="AI11" s="4"/>
+      <c r="AJ11" s="4"/>
+      <c r="AK11" s="4"/>
+      <c r="AM11" s="4"/>
+      <c r="AN11" s="4"/>
+      <c r="AP11" s="4"/>
+      <c r="AQ11" s="4"/>
+      <c r="AR11" s="4"/>
+      <c r="AS11" s="4"/>
+      <c r="AT11" s="4"/>
+      <c r="AU11" s="4"/>
+      <c r="AV11" s="4"/>
+      <c r="AX11" s="4"/>
+    </row>
+    <row r="12" spans="1:50">
+      <c r="A12" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="R12" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="S12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="T12" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="U12" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="V12" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="W12" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="X12" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y12" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB12" s="4"/>
+      <c r="AC12" s="4"/>
+      <c r="AD12" s="31"/>
+      <c r="AE12" s="4"/>
+      <c r="AF12" s="4"/>
+      <c r="AG12" s="4"/>
+      <c r="AH12" s="4"/>
+      <c r="AI12" s="4"/>
+      <c r="AJ12" s="4"/>
+      <c r="AK12" s="4"/>
+      <c r="AM12" s="4"/>
+      <c r="AN12" s="4"/>
+      <c r="AP12" s="4"/>
+      <c r="AQ12" s="4"/>
+      <c r="AR12" s="4"/>
+      <c r="AS12" s="4"/>
+      <c r="AT12" s="4"/>
+      <c r="AU12" s="4"/>
+      <c r="AV12" s="4"/>
+      <c r="AX12" s="4"/>
+    </row>
+    <row r="13" spans="1:50">
+      <c r="A13" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="P13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="R13" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="S13" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="T13" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="U13" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="V13" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="W13" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="X13" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="Y13" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z13" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB13" s="4"/>
+      <c r="AC13" s="4"/>
+      <c r="AD13" s="31"/>
+      <c r="AE13" s="4"/>
+      <c r="AF13" s="4"/>
+      <c r="AG13" s="4"/>
+      <c r="AH13" s="4"/>
+      <c r="AI13" s="4"/>
+      <c r="AJ13" s="4"/>
+      <c r="AK13" s="4"/>
+      <c r="AM13" s="4"/>
+      <c r="AN13" s="4"/>
+      <c r="AP13" s="4"/>
+      <c r="AQ13" s="4"/>
+      <c r="AR13" s="4"/>
+      <c r="AS13" s="4"/>
+      <c r="AT13" s="4"/>
+      <c r="AU13" s="4"/>
+      <c r="AV13" s="4"/>
+      <c r="AX13" s="4"/>
+    </row>
+    <row r="14" spans="1:50">
+      <c r="A14" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="P14" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q14" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="R14" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="S14" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="T14" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="U14" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="V14" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="W14" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="X14" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="Y14" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="Z14" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB14" s="4"/>
+      <c r="AC14" s="4"/>
+      <c r="AD14" s="31"/>
+      <c r="AE14" s="4"/>
+      <c r="AF14" s="4"/>
+      <c r="AG14" s="4"/>
+      <c r="AH14" s="4"/>
+      <c r="AI14" s="4"/>
+      <c r="AJ14" s="4"/>
+      <c r="AK14" s="4"/>
+      <c r="AM14" s="4"/>
+      <c r="AN14" s="4"/>
+      <c r="AP14" s="4"/>
+      <c r="AQ14" s="4"/>
+      <c r="AR14" s="4"/>
+      <c r="AS14" s="4"/>
+      <c r="AT14" s="4"/>
+      <c r="AU14" s="4"/>
+      <c r="AV14" s="4"/>
+      <c r="AX14" s="4"/>
+    </row>
+    <row r="15" spans="1:50">
+      <c r="A15" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="P15" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q15" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="R15" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="S15" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="T15" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="U15" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="V15" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="W15" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="X15" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="Y15" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="Z15" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB15" s="4"/>
+      <c r="AC15" s="4"/>
+      <c r="AD15" s="31"/>
+      <c r="AE15" s="4"/>
+      <c r="AF15" s="4"/>
+      <c r="AG15" s="4"/>
+      <c r="AH15" s="4"/>
+      <c r="AI15" s="4"/>
+      <c r="AJ15" s="4"/>
+      <c r="AK15" s="4"/>
+      <c r="AM15" s="4"/>
+      <c r="AN15" s="4"/>
+      <c r="AP15" s="4"/>
+      <c r="AQ15" s="4"/>
+      <c r="AR15" s="4"/>
+      <c r="AS15" s="4"/>
+      <c r="AT15" s="4"/>
+      <c r="AU15" s="4"/>
+      <c r="AV15" s="4"/>
+      <c r="AX15" s="4"/>
+    </row>
+    <row r="16" spans="1:50">
+      <c r="A16" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="N16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="O16" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="P16" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q16" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="R16" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="S16" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="T16" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="U16" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="V16" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="W16" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="X16" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="Y16" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="Z16" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA16" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB16" s="4"/>
+      <c r="AC16" s="4"/>
+      <c r="AD16" s="31"/>
+      <c r="AE16" s="4"/>
+      <c r="AF16" s="4"/>
+      <c r="AG16" s="4"/>
+      <c r="AH16" s="4"/>
+      <c r="AI16" s="4"/>
+      <c r="AJ16" s="4"/>
+      <c r="AK16" s="4"/>
+      <c r="AM16" s="4"/>
+      <c r="AN16" s="4"/>
+      <c r="AP16" s="4"/>
+      <c r="AQ16" s="4"/>
+      <c r="AR16" s="4"/>
+      <c r="AS16" s="4"/>
+      <c r="AT16" s="4"/>
+      <c r="AU16" s="4"/>
+      <c r="AV16" s="4"/>
+      <c r="AX16" s="4"/>
+    </row>
+    <row r="17" spans="1:50">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="4"/>
+      <c r="W17" s="4"/>
+      <c r="X17" s="4"/>
+      <c r="Y17" s="4"/>
+      <c r="Z17" s="4"/>
+      <c r="AA17" s="4"/>
+      <c r="AB17" s="4"/>
+      <c r="AC17" s="4"/>
+      <c r="AD17" s="31"/>
+      <c r="AE17" s="4"/>
+      <c r="AF17" s="4"/>
+      <c r="AG17" s="4"/>
+      <c r="AH17" s="4"/>
+      <c r="AI17" s="4"/>
+      <c r="AJ17" s="4"/>
+      <c r="AK17" s="4"/>
+      <c r="AM17" s="4"/>
+      <c r="AN17" s="4"/>
+      <c r="AP17" s="4"/>
+      <c r="AQ17" s="4"/>
+      <c r="AR17" s="4"/>
+      <c r="AS17" s="4"/>
+      <c r="AT17" s="4"/>
+      <c r="AU17" s="4"/>
+      <c r="AV17" s="4"/>
+      <c r="AX17" s="4"/>
+    </row>
+    <row r="18" spans="1:50">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="4"/>
+      <c r="W18" s="4"/>
+      <c r="X18" s="4"/>
+      <c r="Y18" s="4"/>
+      <c r="Z18" s="4"/>
+      <c r="AA18" s="4"/>
+      <c r="AB18" s="4"/>
+      <c r="AC18" s="4"/>
+      <c r="AD18" s="31"/>
+      <c r="AE18" s="4"/>
+      <c r="AF18" s="4"/>
+      <c r="AG18" s="4"/>
+      <c r="AH18" s="4"/>
+      <c r="AI18" s="4"/>
+      <c r="AJ18" s="4"/>
+      <c r="AK18" s="4"/>
+      <c r="AM18" s="4"/>
+      <c r="AN18" s="4"/>
+      <c r="AP18" s="4"/>
+      <c r="AQ18" s="4"/>
+      <c r="AR18" s="4"/>
+      <c r="AS18" s="4"/>
+      <c r="AT18" s="4"/>
+      <c r="AU18" s="4"/>
+      <c r="AV18" s="4"/>
+      <c r="AX18" s="4"/>
+    </row>
+    <row r="19" spans="1:50">
+      <c r="G19" s="4"/>
+      <c r="H19" s="2"/>
+      <c r="S19" s="1"/>
+      <c r="Y19" s="1"/>
+    </row>
+    <row r="20" spans="1:50" ht="11.25" customHeight="1">
+      <c r="A20" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="T10" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="U10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="V10" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="W10" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="X10" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y10" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z10" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD10" s="2"/>
-      <c r="AL10" s="1"/>
-      <c r="AO10" s="1"/>
-      <c r="AP10" s="1"/>
-      <c r="AR10" s="1"/>
-      <c r="AS10" s="4"/>
-      <c r="AT10" s="1"/>
-      <c r="AU10" s="1"/>
-      <c r="AV10" s="4"/>
-      <c r="AX10" s="1"/>
-    </row>
-    <row r="11" spans="1:50">
-      <c r="A11" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H11" s="6" t="s">
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="I11" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="R11" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="S11" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="T11" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="U11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="V11" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="W11" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="X11" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y11" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z11" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD11" s="2"/>
-      <c r="AL11" s="1"/>
-      <c r="AO11" s="1"/>
-      <c r="AP11" s="1"/>
-      <c r="AR11" s="1"/>
-      <c r="AS11" s="4"/>
-      <c r="AT11" s="1"/>
-      <c r="AU11" s="1"/>
-      <c r="AV11" s="4"/>
-      <c r="AX11" s="1"/>
-    </row>
-    <row r="12" spans="1:50">
-      <c r="A12" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="P12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="R12" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="S12" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="T12" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="U12" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="V12" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="W12" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="X12" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y12" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z12" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD12" s="2"/>
-      <c r="AL12" s="1"/>
-      <c r="AO12" s="1"/>
-      <c r="AP12" s="1"/>
-      <c r="AR12" s="1"/>
-      <c r="AS12" s="4"/>
-      <c r="AT12" s="1"/>
-      <c r="AU12" s="1"/>
-      <c r="AV12" s="4"/>
-      <c r="AX12" s="1"/>
-    </row>
-    <row r="13" spans="1:50">
-      <c r="A13" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="K13" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="O13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="P13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="R13" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="S13" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="T13" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="U13" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="V13" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="W13" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="X13" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y13" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z13" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD13" s="2"/>
-      <c r="AL13" s="1"/>
-      <c r="AO13" s="1"/>
-      <c r="AP13" s="1"/>
-      <c r="AR13" s="1"/>
-      <c r="AS13" s="4"/>
-      <c r="AT13" s="1"/>
-      <c r="AU13" s="1"/>
-      <c r="AV13" s="4"/>
-      <c r="AX13" s="1"/>
-    </row>
-    <row r="14" spans="1:50">
-      <c r="A14" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="K14" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="P14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="R14" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="S14" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="T14" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="U14" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="V14" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="W14" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="X14" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y14" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z14" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD14" s="2"/>
-      <c r="AL14" s="1"/>
-      <c r="AO14" s="1"/>
-      <c r="AP14" s="1"/>
-      <c r="AR14" s="1"/>
-      <c r="AS14" s="4"/>
-      <c r="AT14" s="1"/>
-      <c r="AU14" s="1"/>
-      <c r="AV14" s="4"/>
-      <c r="AX14" s="1"/>
-    </row>
-    <row r="15" spans="1:50">
-      <c r="A15" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="K15" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="O15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="P15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="R15" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="S15" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="T15" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="U15" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="V15" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="W15" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="X15" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y15" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z15" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD15" s="2"/>
-      <c r="AL15" s="1"/>
-      <c r="AO15" s="1"/>
-      <c r="AP15" s="1"/>
-      <c r="AR15" s="1"/>
-      <c r="AS15" s="4"/>
-      <c r="AT15" s="1"/>
-      <c r="AU15" s="1"/>
-      <c r="AV15" s="4"/>
-      <c r="AX15" s="1"/>
-    </row>
-    <row r="16" spans="1:50">
-      <c r="A16" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="J16" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="K16" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="O16" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="P16" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q16" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="R16" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="S16" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="T16" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="U16" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="V16" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="W16" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="X16" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y16" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z16" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD16" s="2"/>
-      <c r="AL16" s="1"/>
-      <c r="AO16" s="1"/>
-      <c r="AP16" s="1"/>
-      <c r="AR16" s="1"/>
-      <c r="AS16" s="4"/>
-      <c r="AT16" s="1"/>
-      <c r="AU16" s="1"/>
-      <c r="AV16" s="4"/>
-      <c r="AX16" s="1"/>
-    </row>
-    <row r="17" spans="1:50">
-      <c r="A17" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="J17" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="K17" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="O17" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="P17" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q17" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="R17" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="S17" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="T17" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="U17" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="V17" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="W17" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="X17" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y17" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z17" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA17" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD17" s="2"/>
-      <c r="AL17" s="1"/>
-      <c r="AO17" s="1"/>
-      <c r="AP17" s="1"/>
-      <c r="AR17" s="1"/>
-      <c r="AS17" s="4"/>
-      <c r="AT17" s="1"/>
-      <c r="AU17" s="1"/>
-      <c r="AV17" s="4"/>
-      <c r="AX17" s="1"/>
-    </row>
-    <row r="18" spans="1:50">
-      <c r="A18" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="I18" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="J18" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="K18" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="O18" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="P18" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q18" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="R18" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="S18" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="T18" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="U18" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="V18" s="1" t="s">
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="20"/>
+      <c r="N20" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="O20" s="19"/>
+      <c r="P20" s="19"/>
+      <c r="Q20" s="19"/>
+      <c r="R20" s="20"/>
+      <c r="S20" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="T20" s="19"/>
+      <c r="U20" s="19"/>
+      <c r="V20" s="19"/>
+      <c r="W20" s="20"/>
+      <c r="X20" s="32" t="s">
+        <v>219</v>
+      </c>
+      <c r="Y20" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z20" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="W18" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="X18" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y18" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z18" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD18" s="2"/>
-      <c r="AL18" s="1"/>
-      <c r="AO18" s="1"/>
-      <c r="AP18" s="1"/>
-      <c r="AR18" s="1"/>
-      <c r="AS18" s="4"/>
-      <c r="AT18" s="1"/>
-      <c r="AU18" s="1"/>
-      <c r="AV18" s="4"/>
-      <c r="AX18" s="1"/>
-    </row>
-    <row r="19" spans="1:50">
-      <c r="A19" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="F19" s="9"/>
-      <c r="G19" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="I19" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="J19" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="K19" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="N19" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="O19" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="P19" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q19" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="R19" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="S19" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="T19" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="U19" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="V19" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="W19" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="X19" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="Y19" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="Z19" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AA19" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AD19" s="2"/>
-      <c r="AL19" s="1"/>
-      <c r="AO19" s="1"/>
-      <c r="AP19" s="1"/>
-      <c r="AR19" s="1"/>
-      <c r="AS19" s="4"/>
-      <c r="AT19" s="1"/>
-      <c r="AU19" s="1"/>
-      <c r="AV19" s="4"/>
-      <c r="AX19" s="1"/>
-    </row>
-    <row r="20" spans="1:50">
-      <c r="A20" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="F20" s="9"/>
-      <c r="G20" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="J20" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="K20" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="L20" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="M20" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="N20" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="O20" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="P20" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q20" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="R20" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="S20" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="T20" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="U20" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="V20" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="W20" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="X20" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="Y20" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="Z20" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="AA20" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD20" s="2"/>
-      <c r="AL20" s="1"/>
-      <c r="AO20" s="1"/>
-      <c r="AP20" s="1"/>
-      <c r="AR20" s="1"/>
-      <c r="AS20" s="4"/>
-      <c r="AT20" s="1"/>
-      <c r="AU20" s="1"/>
-      <c r="AV20" s="4"/>
-      <c r="AX20" s="1"/>
-    </row>
-    <row r="21" spans="1:50">
-      <c r="G21" s="4"/>
-      <c r="H21" s="2"/>
-      <c r="S21" s="1"/>
-      <c r="Y21" s="1"/>
+      <c r="AA20" s="35"/>
+    </row>
+    <row r="21" spans="1:50" ht="11.25" customHeight="1">
+      <c r="A21" s="21"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="21"/>
+      <c r="O21" s="22"/>
+      <c r="P21" s="22"/>
+      <c r="Q21" s="22"/>
+      <c r="R21" s="23"/>
+      <c r="S21" s="21"/>
+      <c r="T21" s="22"/>
+      <c r="U21" s="22"/>
+      <c r="V21" s="22"/>
+      <c r="W21" s="23"/>
+      <c r="X21" s="33"/>
+      <c r="Y21" s="35"/>
+      <c r="Z21" s="35"/>
+      <c r="AA21" s="35"/>
     </row>
     <row r="22" spans="1:50" ht="11.25" customHeight="1">
-      <c r="A22" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="25" t="s">
-        <v>138</v>
-      </c>
+      <c r="A22" s="24"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="24"/>
       <c r="F22" s="25"/>
       <c r="G22" s="25"/>
       <c r="H22" s="25"/>
@@ -3127,170 +3049,174 @@
       <c r="J22" s="25"/>
       <c r="K22" s="25"/>
       <c r="L22" s="25"/>
-      <c r="M22" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="18"/>
-      <c r="R22" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="S22" s="17"/>
-      <c r="T22" s="17"/>
-      <c r="U22" s="17"/>
-      <c r="V22" s="17"/>
-      <c r="W22" s="17"/>
-      <c r="X22" s="18"/>
-      <c r="Y22" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="Z22" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="AA22" s="11"/>
+      <c r="M22" s="26"/>
+      <c r="N22" s="24"/>
+      <c r="O22" s="25"/>
+      <c r="P22" s="25"/>
+      <c r="Q22" s="25"/>
+      <c r="R22" s="26"/>
+      <c r="S22" s="24"/>
+      <c r="T22" s="25"/>
+      <c r="U22" s="25"/>
+      <c r="V22" s="25"/>
+      <c r="W22" s="26"/>
+      <c r="X22" s="34"/>
+      <c r="Y22" s="35"/>
+      <c r="Z22" s="35"/>
+      <c r="AA22" s="35"/>
     </row>
     <row r="23" spans="1:50" ht="11.25" customHeight="1">
-      <c r="A23" s="19"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="25"/>
-      <c r="L23" s="25"/>
-      <c r="M23" s="19"/>
-      <c r="N23" s="20"/>
-      <c r="O23" s="20"/>
-      <c r="P23" s="20"/>
-      <c r="Q23" s="21"/>
-      <c r="R23" s="19"/>
-      <c r="S23" s="20"/>
-      <c r="T23" s="20"/>
-      <c r="U23" s="20"/>
-      <c r="V23" s="20"/>
-      <c r="W23" s="20"/>
-      <c r="X23" s="21"/>
-      <c r="Y23" s="11"/>
-      <c r="Z23" s="11"/>
-      <c r="AA23" s="11"/>
-    </row>
-    <row r="24" spans="1:50" ht="11.25" customHeight="1">
-      <c r="A24" s="22"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="25"/>
-      <c r="L24" s="25"/>
-      <c r="M24" s="22"/>
-      <c r="N24" s="23"/>
-      <c r="O24" s="23"/>
-      <c r="P24" s="23"/>
-      <c r="Q24" s="24"/>
-      <c r="R24" s="22"/>
-      <c r="S24" s="23"/>
-      <c r="T24" s="23"/>
-      <c r="U24" s="23"/>
-      <c r="V24" s="23"/>
-      <c r="W24" s="23"/>
-      <c r="X24" s="24"/>
-      <c r="Y24" s="11"/>
-      <c r="Z24" s="11"/>
-      <c r="AA24" s="11"/>
-    </row>
-    <row r="25" spans="1:50" ht="11.25" customHeight="1">
-      <c r="A25" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="E25" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="F25" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="G25" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="H25" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="I25" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="J25" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="K25" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="L25" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="M25" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="N25" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="O25" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="P25" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q25" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="R25" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="S25" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="T25" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="U25" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="V25" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="W25" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="X25" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="Y25" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="Z25" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="AA25" s="13" t="s">
-        <v>168</v>
-      </c>
+      <c r="A23" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="G23" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="H23" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="I23" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="J23" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="K23" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="L23" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="M23" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="N23" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="O23" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="P23" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q23" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="R23" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="S23" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="T23" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="U23" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="V23" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="W23" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="X23" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="Y23" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="Z23" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="AA23" s="28" t="s">
+        <v>223</v>
+      </c>
+      <c r="AL23" s="1"/>
+      <c r="AM23" s="4"/>
+      <c r="AO23" s="1"/>
+      <c r="AP23" s="4"/>
+      <c r="AQ23" s="3"/>
+      <c r="AR23" s="1"/>
+    </row>
+    <row r="24" spans="1:50">
+      <c r="A24" s="15"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="15"/>
+      <c r="P24" s="15"/>
+      <c r="Q24" s="15"/>
+      <c r="R24" s="15"/>
+      <c r="S24" s="15"/>
+      <c r="T24" s="15"/>
+      <c r="U24" s="15"/>
+      <c r="V24" s="15"/>
+      <c r="W24" s="15"/>
+      <c r="X24" s="15"/>
+      <c r="Y24" s="15"/>
+      <c r="Z24" s="15"/>
+      <c r="AA24" s="28"/>
+      <c r="AL24" s="1"/>
+      <c r="AM24" s="4"/>
+      <c r="AO24" s="1"/>
+      <c r="AP24" s="4"/>
+      <c r="AQ24" s="3"/>
+      <c r="AR24" s="1"/>
+    </row>
+    <row r="25" spans="1:50">
+      <c r="A25" s="15"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="15"/>
+      <c r="P25" s="15"/>
+      <c r="Q25" s="15"/>
+      <c r="R25" s="15"/>
+      <c r="S25" s="15"/>
+      <c r="T25" s="15"/>
+      <c r="U25" s="15"/>
+      <c r="V25" s="15"/>
+      <c r="W25" s="15"/>
+      <c r="X25" s="15"/>
+      <c r="Y25" s="15"/>
+      <c r="Z25" s="15"/>
+      <c r="AA25" s="28"/>
       <c r="AL25" s="1"/>
       <c r="AM25" s="4"/>
       <c r="AO25" s="1"/>
@@ -3299,33 +3225,33 @@
       <c r="AR25" s="1"/>
     </row>
     <row r="26" spans="1:50">
-      <c r="A26" s="12"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="12"/>
-      <c r="N26" s="12"/>
-      <c r="O26" s="12"/>
-      <c r="P26" s="12"/>
-      <c r="Q26" s="12"/>
-      <c r="R26" s="12"/>
-      <c r="S26" s="12"/>
-      <c r="T26" s="12"/>
-      <c r="U26" s="12"/>
-      <c r="V26" s="12"/>
-      <c r="W26" s="12"/>
-      <c r="X26" s="12"/>
-      <c r="Y26" s="12"/>
-      <c r="Z26" s="12"/>
-      <c r="AA26" s="13"/>
+      <c r="A26" s="15"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="15"/>
+      <c r="O26" s="15"/>
+      <c r="P26" s="15"/>
+      <c r="Q26" s="15"/>
+      <c r="R26" s="15"/>
+      <c r="S26" s="15"/>
+      <c r="T26" s="15"/>
+      <c r="U26" s="15"/>
+      <c r="V26" s="15"/>
+      <c r="W26" s="15"/>
+      <c r="X26" s="15"/>
+      <c r="Y26" s="15"/>
+      <c r="Z26" s="15"/>
+      <c r="AA26" s="28"/>
       <c r="AL26" s="1"/>
       <c r="AM26" s="4"/>
       <c r="AO26" s="1"/>
@@ -3334,33 +3260,33 @@
       <c r="AR26" s="1"/>
     </row>
     <row r="27" spans="1:50">
-      <c r="A27" s="12"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="12"/>
-      <c r="N27" s="12"/>
-      <c r="O27" s="12"/>
-      <c r="P27" s="12"/>
-      <c r="Q27" s="12"/>
-      <c r="R27" s="12"/>
-      <c r="S27" s="12"/>
-      <c r="T27" s="12"/>
-      <c r="U27" s="12"/>
-      <c r="V27" s="12"/>
-      <c r="W27" s="12"/>
-      <c r="X27" s="12"/>
-      <c r="Y27" s="12"/>
-      <c r="Z27" s="12"/>
-      <c r="AA27" s="13"/>
+      <c r="A27" s="15"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="15"/>
+      <c r="O27" s="15"/>
+      <c r="P27" s="15"/>
+      <c r="Q27" s="15"/>
+      <c r="R27" s="15"/>
+      <c r="S27" s="15"/>
+      <c r="T27" s="15"/>
+      <c r="U27" s="15"/>
+      <c r="V27" s="15"/>
+      <c r="W27" s="15"/>
+      <c r="X27" s="15"/>
+      <c r="Y27" s="15"/>
+      <c r="Z27" s="15"/>
+      <c r="AA27" s="28"/>
       <c r="AL27" s="1"/>
       <c r="AM27" s="4"/>
       <c r="AO27" s="1"/>
@@ -3369,33 +3295,33 @@
       <c r="AR27" s="1"/>
     </row>
     <row r="28" spans="1:50">
-      <c r="A28" s="12"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="12"/>
-      <c r="L28" s="12"/>
-      <c r="M28" s="12"/>
-      <c r="N28" s="12"/>
-      <c r="O28" s="12"/>
-      <c r="P28" s="12"/>
-      <c r="Q28" s="12"/>
-      <c r="R28" s="12"/>
-      <c r="S28" s="12"/>
-      <c r="T28" s="12"/>
-      <c r="U28" s="12"/>
-      <c r="V28" s="12"/>
-      <c r="W28" s="12"/>
-      <c r="X28" s="12"/>
-      <c r="Y28" s="12"/>
-      <c r="Z28" s="12"/>
-      <c r="AA28" s="13"/>
+      <c r="A28" s="15"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="15"/>
+      <c r="N28" s="15"/>
+      <c r="O28" s="15"/>
+      <c r="P28" s="15"/>
+      <c r="Q28" s="15"/>
+      <c r="R28" s="15"/>
+      <c r="S28" s="15"/>
+      <c r="T28" s="15"/>
+      <c r="U28" s="15"/>
+      <c r="V28" s="15"/>
+      <c r="W28" s="15"/>
+      <c r="X28" s="15"/>
+      <c r="Y28" s="15"/>
+      <c r="Z28" s="15"/>
+      <c r="AA28" s="28"/>
       <c r="AL28" s="1"/>
       <c r="AM28" s="4"/>
       <c r="AO28" s="1"/>
@@ -3404,33 +3330,33 @@
       <c r="AR28" s="1"/>
     </row>
     <row r="29" spans="1:50">
-      <c r="A29" s="12"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="12"/>
-      <c r="L29" s="12"/>
-      <c r="M29" s="12"/>
-      <c r="N29" s="12"/>
-      <c r="O29" s="12"/>
-      <c r="P29" s="12"/>
-      <c r="Q29" s="12"/>
-      <c r="R29" s="12"/>
-      <c r="S29" s="12"/>
-      <c r="T29" s="12"/>
-      <c r="U29" s="12"/>
-      <c r="V29" s="12"/>
-      <c r="W29" s="12"/>
-      <c r="X29" s="12"/>
-      <c r="Y29" s="12"/>
-      <c r="Z29" s="12"/>
-      <c r="AA29" s="13"/>
+      <c r="A29" s="15"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="15"/>
+      <c r="O29" s="15"/>
+      <c r="P29" s="15"/>
+      <c r="Q29" s="15"/>
+      <c r="R29" s="15"/>
+      <c r="S29" s="15"/>
+      <c r="T29" s="15"/>
+      <c r="U29" s="15"/>
+      <c r="V29" s="15"/>
+      <c r="W29" s="15"/>
+      <c r="X29" s="15"/>
+      <c r="Y29" s="15"/>
+      <c r="Z29" s="15"/>
+      <c r="AA29" s="28"/>
       <c r="AL29" s="1"/>
       <c r="AM29" s="4"/>
       <c r="AO29" s="1"/>
@@ -3439,174 +3365,105 @@
       <c r="AR29" s="1"/>
     </row>
     <row r="30" spans="1:50">
-      <c r="A30" s="12"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="12"/>
-      <c r="L30" s="12"/>
-      <c r="M30" s="12"/>
-      <c r="N30" s="12"/>
-      <c r="O30" s="12"/>
-      <c r="P30" s="12"/>
-      <c r="Q30" s="12"/>
-      <c r="R30" s="12"/>
-      <c r="S30" s="12"/>
-      <c r="T30" s="12"/>
-      <c r="U30" s="12"/>
-      <c r="V30" s="12"/>
-      <c r="W30" s="12"/>
-      <c r="X30" s="12"/>
-      <c r="Y30" s="12"/>
-      <c r="Z30" s="12"/>
-      <c r="AA30" s="13"/>
-      <c r="AL30" s="1"/>
-      <c r="AM30" s="4"/>
-      <c r="AO30" s="1"/>
-      <c r="AP30" s="4"/>
-      <c r="AQ30" s="3"/>
-      <c r="AR30" s="1"/>
+      <c r="H30" s="2"/>
+      <c r="S30" s="1"/>
+      <c r="Y30" s="1"/>
     </row>
     <row r="31" spans="1:50">
-      <c r="A31" s="12"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="12"/>
-      <c r="L31" s="12"/>
-      <c r="M31" s="12"/>
-      <c r="N31" s="12"/>
-      <c r="O31" s="12"/>
-      <c r="P31" s="12"/>
-      <c r="Q31" s="12"/>
-      <c r="R31" s="12"/>
-      <c r="S31" s="12"/>
-      <c r="T31" s="12"/>
-      <c r="U31" s="12"/>
-      <c r="V31" s="12"/>
-      <c r="W31" s="12"/>
-      <c r="X31" s="12"/>
-      <c r="Y31" s="12"/>
-      <c r="Z31" s="12"/>
-      <c r="AA31" s="13"/>
-      <c r="AL31" s="1"/>
-      <c r="AM31" s="4"/>
-      <c r="AO31" s="1"/>
-      <c r="AP31" s="4"/>
-      <c r="AQ31" s="3"/>
-      <c r="AR31" s="1"/>
-    </row>
-    <row r="32" spans="1:50">
+      <c r="H31" s="2"/>
+      <c r="L31" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="M31" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="S31" s="1"/>
+      <c r="V31" s="4"/>
+      <c r="Y31" s="1"/>
+    </row>
+    <row r="32" spans="1:50" ht="11.25" customHeight="1">
       <c r="H32" s="2"/>
+      <c r="L32" s="13"/>
+      <c r="M32" s="15"/>
       <c r="S32" s="1"/>
+      <c r="V32" s="4"/>
       <c r="Y32" s="1"/>
     </row>
-    <row r="33" spans="8:25">
-      <c r="H33" s="2"/>
-      <c r="L33" s="26" t="s">
-        <v>149</v>
-      </c>
-      <c r="M33" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="S33" s="1"/>
-      <c r="V33" s="4"/>
-      <c r="Y33" s="1"/>
-    </row>
-    <row r="34" spans="8:25" ht="11.25" customHeight="1">
-      <c r="H34" s="2"/>
-      <c r="L34" s="27"/>
-      <c r="M34" s="12"/>
-      <c r="S34" s="1"/>
-      <c r="V34" s="4"/>
-      <c r="Y34" s="1"/>
-    </row>
-    <row r="35" spans="8:25">
-      <c r="L35" s="27"/>
-      <c r="M35" s="12"/>
-    </row>
-    <row r="36" spans="8:25">
-      <c r="L36" s="27"/>
-      <c r="M36" s="12"/>
-    </row>
-    <row r="37" spans="8:25">
-      <c r="L37" s="27"/>
-      <c r="M37" s="12"/>
-    </row>
-    <row r="38" spans="8:25">
-      <c r="L38" s="27"/>
-      <c r="M38" s="12"/>
-    </row>
-    <row r="39" spans="8:25">
-      <c r="L39" s="28"/>
-      <c r="M39" s="12"/>
-    </row>
-    <row r="41" spans="8:25">
+    <row r="33" spans="12:13">
+      <c r="L33" s="13"/>
+      <c r="M33" s="15"/>
+    </row>
+    <row r="34" spans="12:13">
+      <c r="L34" s="13"/>
+      <c r="M34" s="15"/>
+    </row>
+    <row r="35" spans="12:13">
+      <c r="L35" s="13"/>
+      <c r="M35" s="15"/>
+    </row>
+    <row r="36" spans="12:13">
+      <c r="L36" s="13"/>
+      <c r="M36" s="15"/>
+    </row>
+    <row r="37" spans="12:13">
+      <c r="L37" s="14"/>
+      <c r="M37" s="15"/>
+    </row>
+    <row r="39" spans="12:13">
+      <c r="L39" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="40" spans="12:13">
+      <c r="L40" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="41" spans="12:13">
       <c r="L41" s="10" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="42" spans="8:25">
-      <c r="L42" s="10" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="43" spans="8:25">
-      <c r="L43" s="10" t="s">
-        <v>146</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="37">
-    <mergeCell ref="L33:L39"/>
-    <mergeCell ref="M25:M31"/>
-    <mergeCell ref="M33:M39"/>
-    <mergeCell ref="V25:V31"/>
-    <mergeCell ref="S25:S31"/>
-    <mergeCell ref="T25:T31"/>
-    <mergeCell ref="I25:I31"/>
-    <mergeCell ref="J25:J31"/>
-    <mergeCell ref="W25:W31"/>
-    <mergeCell ref="L25:L31"/>
-    <mergeCell ref="O25:O31"/>
-    <mergeCell ref="P25:P31"/>
-    <mergeCell ref="Q25:Q31"/>
-    <mergeCell ref="R25:R31"/>
-    <mergeCell ref="U25:U31"/>
-    <mergeCell ref="N25:N31"/>
+  <mergeCells count="38">
+    <mergeCell ref="E20:M22"/>
+    <mergeCell ref="N20:R22"/>
+    <mergeCell ref="S20:W22"/>
+    <mergeCell ref="X20:X22"/>
+    <mergeCell ref="Y20:Y22"/>
+    <mergeCell ref="Y23:Y29"/>
+    <mergeCell ref="Z23:Z29"/>
+    <mergeCell ref="Z20:AA22"/>
+    <mergeCell ref="AA23:AA29"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="X25:X31"/>
-    <mergeCell ref="F25:F31"/>
-    <mergeCell ref="R22:X24"/>
-    <mergeCell ref="E22:L24"/>
-    <mergeCell ref="M22:Q24"/>
-    <mergeCell ref="A22:D24"/>
-    <mergeCell ref="G25:G31"/>
-    <mergeCell ref="K25:K31"/>
-    <mergeCell ref="E25:E31"/>
-    <mergeCell ref="A25:A31"/>
-    <mergeCell ref="B25:B31"/>
-    <mergeCell ref="C25:C31"/>
-    <mergeCell ref="D25:D31"/>
-    <mergeCell ref="H25:H31"/>
-    <mergeCell ref="Y22:Y24"/>
-    <mergeCell ref="Y25:Y31"/>
-    <mergeCell ref="Z25:Z31"/>
-    <mergeCell ref="Z22:AA24"/>
-    <mergeCell ref="AA25:AA31"/>
+    <mergeCell ref="X23:X29"/>
+    <mergeCell ref="F23:F29"/>
+    <mergeCell ref="A20:D22"/>
+    <mergeCell ref="G23:G29"/>
+    <mergeCell ref="K23:K29"/>
+    <mergeCell ref="E23:E29"/>
+    <mergeCell ref="A23:A29"/>
+    <mergeCell ref="B23:B29"/>
+    <mergeCell ref="C23:C29"/>
+    <mergeCell ref="D23:D29"/>
+    <mergeCell ref="H23:H29"/>
+    <mergeCell ref="I23:I29"/>
+    <mergeCell ref="J23:J29"/>
+    <mergeCell ref="W23:W29"/>
+    <mergeCell ref="L23:L29"/>
+    <mergeCell ref="O23:O29"/>
+    <mergeCell ref="P23:P29"/>
+    <mergeCell ref="Q23:Q29"/>
+    <mergeCell ref="R23:R29"/>
+    <mergeCell ref="U23:U29"/>
+    <mergeCell ref="N23:N29"/>
+    <mergeCell ref="L31:L37"/>
+    <mergeCell ref="M23:M29"/>
+    <mergeCell ref="M31:M37"/>
+    <mergeCell ref="V23:V29"/>
+    <mergeCell ref="S23:S29"/>
+    <mergeCell ref="T23:T29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -3616,11 +3473,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
-    <tabColor rgb="FF92D050"/>
+    <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="A1:AR79"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
@@ -3681,12 +3540,12 @@
       <c r="AR1" s="1"/>
     </row>
     <row r="2" spans="1:44" ht="21">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="14"/>
+      <c r="B2" s="16"/>
       <c r="C2" s="5" t="s">
-        <v>170</v>
+        <v>88</v>
       </c>
       <c r="S2" s="1"/>
       <c r="V2" s="4"/>
@@ -3700,12 +3559,12 @@
       <c r="AR2" s="1"/>
     </row>
     <row r="3" spans="1:44" ht="21">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="15"/>
+      <c r="B3" s="17"/>
       <c r="C3" s="5" t="s">
-        <v>190</v>
+        <v>97</v>
       </c>
       <c r="D3" s="5"/>
       <c r="G3" s="5"/>
@@ -3733,6 +3592,9 @@
       <c r="AR4" s="1"/>
     </row>
     <row r="5" spans="1:44">
+      <c r="G5" s="1" t="s">
+        <v>217</v>
+      </c>
       <c r="L5" s="2"/>
       <c r="O5" s="4"/>
       <c r="Y5" s="1"/>
@@ -3748,13 +3610,13 @@
         <v>13</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>129</v>
+        <v>62</v>
       </c>
       <c r="C6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>16</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>17</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>24</v>
@@ -3778,25 +3640,25 @@
     </row>
     <row r="7" spans="1:44">
       <c r="A7" s="6" t="s">
-        <v>34</v>
+        <v>224</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>177</v>
+        <v>224</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>180</v>
+        <v>39</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>180</v>
+        <v>41</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="S7" s="1"/>
       <c r="T7" s="4"/>
@@ -3810,26 +3672,24 @@
       <c r="AR7" s="1"/>
     </row>
     <row r="8" spans="1:44">
-      <c r="A8" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="A8" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>185</v>
+      <c r="E8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>226</v>
       </c>
       <c r="S8" s="1"/>
       <c r="T8" s="4"/>
@@ -3843,24 +3703,24 @@
       <c r="AR8" s="1"/>
     </row>
     <row r="9" spans="1:44">
-      <c r="A9" s="1" t="s">
-        <v>44</v>
+      <c r="A9" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="B9" s="9"/>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>5</v>
+      <c r="E9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>227</v>
       </c>
       <c r="S9" s="1"/>
       <c r="T9" s="4"/>
@@ -3874,24 +3734,24 @@
       <c r="AR9" s="1"/>
     </row>
     <row r="10" spans="1:44">
-      <c r="A10" s="1" t="s">
-        <v>45</v>
+      <c r="A10" s="4" t="s">
+        <v>228</v>
       </c>
       <c r="B10" s="9"/>
-      <c r="C10" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>181</v>
+      <c r="C10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>229</v>
       </c>
       <c r="S10" s="1"/>
       <c r="T10" s="4"/>
@@ -3905,24 +3765,24 @@
       <c r="AR10" s="1"/>
     </row>
     <row r="11" spans="1:44">
-      <c r="A11" s="1" t="s">
-        <v>171</v>
+      <c r="A11" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="B11" s="9"/>
-      <c r="C11" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>182</v>
+      <c r="C11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>230</v>
       </c>
       <c r="S11" s="1"/>
       <c r="T11" s="4"/>
@@ -3936,24 +3796,24 @@
       <c r="AR11" s="1"/>
     </row>
     <row r="12" spans="1:44">
-      <c r="A12" s="1" t="s">
-        <v>172</v>
+      <c r="A12" s="4" t="s">
+        <v>163</v>
       </c>
       <c r="B12" s="9"/>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>186</v>
+      <c r="E12" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>231</v>
       </c>
       <c r="S12" s="1"/>
       <c r="T12" s="4"/>
@@ -3967,24 +3827,24 @@
       <c r="AR12" s="1"/>
     </row>
     <row r="13" spans="1:44">
-      <c r="A13" s="1" t="s">
-        <v>54</v>
+      <c r="A13" s="4" t="s">
+        <v>171</v>
       </c>
       <c r="B13" s="9"/>
-      <c r="C13" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>125</v>
+      <c r="C13" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>5</v>
       </c>
       <c r="S13" s="1"/>
       <c r="T13" s="4"/>
@@ -3998,24 +3858,24 @@
       <c r="AR13" s="1"/>
     </row>
     <row r="14" spans="1:44">
-      <c r="A14" s="1" t="s">
-        <v>54</v>
+      <c r="A14" s="4" t="s">
+        <v>175</v>
       </c>
       <c r="B14" s="9"/>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>5</v>
+      <c r="E14" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>232</v>
       </c>
       <c r="S14" s="1"/>
       <c r="T14" s="4"/>
@@ -4029,24 +3889,24 @@
       <c r="AR14" s="1"/>
     </row>
     <row r="15" spans="1:44">
-      <c r="A15" s="1" t="s">
-        <v>82</v>
+      <c r="A15" s="4" t="s">
+        <v>233</v>
       </c>
       <c r="B15" s="9"/>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>137</v>
+      <c r="E15" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>234</v>
       </c>
       <c r="S15" s="1"/>
       <c r="T15" s="4"/>
@@ -4060,24 +3920,24 @@
       <c r="AR15" s="1"/>
     </row>
     <row r="16" spans="1:44">
-      <c r="A16" s="1" t="s">
-        <v>175</v>
+      <c r="A16" s="4" t="s">
+        <v>233</v>
       </c>
       <c r="B16" s="9"/>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>187</v>
+      <c r="E16" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>235</v>
       </c>
       <c r="S16" s="1"/>
       <c r="T16" s="4"/>
@@ -4103,116 +3963,116 @@
       <c r="AR17" s="1"/>
     </row>
     <row r="18" spans="1:44" ht="11.25" customHeight="1">
-      <c r="A18" s="30" t="s">
-        <v>138</v>
-      </c>
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="29" t="s">
-        <v>130</v>
-      </c>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
+      <c r="A18" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="50"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="46"/>
     </row>
     <row r="19" spans="1:44" ht="11.25" customHeight="1">
-      <c r="A19" s="30"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
+      <c r="A19" s="36"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="47"/>
     </row>
     <row r="20" spans="1:44" ht="11.25" customHeight="1">
-      <c r="A20" s="30"/>
-      <c r="B20" s="30"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
+      <c r="A20" s="38"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="48"/>
     </row>
     <row r="21" spans="1:44">
-      <c r="A21" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>183</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="G21" s="12" t="s">
-        <v>188</v>
+      <c r="A21" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:44">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
+      <c r="A22" s="15"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
     </row>
     <row r="23" spans="1:44">
-      <c r="A23" s="12"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
+      <c r="A23" s="15"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
     </row>
     <row r="24" spans="1:44">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
+      <c r="A24" s="15"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
     </row>
     <row r="25" spans="1:44">
-      <c r="A25" s="12"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
+      <c r="A25" s="15"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
     </row>
     <row r="26" spans="1:44">
-      <c r="A26" s="12"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
+      <c r="A26" s="15"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
     </row>
     <row r="27" spans="1:44">
-      <c r="A27" s="12"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
+      <c r="A27" s="15"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
     </row>
     <row r="29" spans="1:44">
-      <c r="B29" s="12" t="s">
-        <v>189</v>
+      <c r="B29" s="15" t="s">
+        <v>96</v>
       </c>
       <c r="O29" s="4"/>
       <c r="S29" s="1"/>
@@ -4226,7 +4086,7 @@
       <c r="AQ29" s="3"/>
     </row>
     <row r="30" spans="1:44">
-      <c r="B30" s="12"/>
+      <c r="B30" s="15"/>
       <c r="O30" s="4"/>
       <c r="S30" s="1"/>
       <c r="U30" s="2"/>
@@ -4239,7 +4099,7 @@
       <c r="AQ30" s="3"/>
     </row>
     <row r="31" spans="1:44">
-      <c r="B31" s="12"/>
+      <c r="B31" s="15"/>
       <c r="O31" s="4"/>
       <c r="S31" s="1"/>
       <c r="U31" s="2"/>
@@ -4252,7 +4112,7 @@
       <c r="AQ31" s="3"/>
     </row>
     <row r="32" spans="1:44">
-      <c r="B32" s="12"/>
+      <c r="B32" s="15"/>
       <c r="O32" s="4"/>
       <c r="S32" s="1"/>
       <c r="U32" s="2"/>
@@ -4265,7 +4125,7 @@
       <c r="AQ32" s="3"/>
     </row>
     <row r="33" spans="2:43">
-      <c r="B33" s="12"/>
+      <c r="B33" s="15"/>
       <c r="O33" s="4"/>
       <c r="S33" s="1"/>
       <c r="U33" s="2"/>
@@ -4278,7 +4138,7 @@
       <c r="AQ33" s="3"/>
     </row>
     <row r="34" spans="2:43">
-      <c r="B34" s="12"/>
+      <c r="B34" s="15"/>
       <c r="O34" s="4"/>
       <c r="S34" s="1"/>
       <c r="U34" s="2"/>
@@ -4291,7 +4151,7 @@
       <c r="AQ34" s="3"/>
     </row>
     <row r="35" spans="2:43">
-      <c r="B35" s="12"/>
+      <c r="B35" s="15"/>
       <c r="O35" s="4"/>
       <c r="S35" s="1"/>
       <c r="U35" s="2"/>
@@ -4833,18 +4693,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="G21:G27"/>
+    <mergeCell ref="A21:A27"/>
+    <mergeCell ref="B21:B27"/>
+    <mergeCell ref="D21:D27"/>
+    <mergeCell ref="C21:C27"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="B29:B35"/>
     <mergeCell ref="E21:E27"/>
     <mergeCell ref="F21:F27"/>
-    <mergeCell ref="G21:G27"/>
     <mergeCell ref="D18:G20"/>
-    <mergeCell ref="A21:A27"/>
-    <mergeCell ref="B21:B27"/>
-    <mergeCell ref="D21:D27"/>
     <mergeCell ref="A18:C20"/>
-    <mergeCell ref="C21:C27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -4858,7 +4718,9 @@
   </sheetPr>
   <dimension ref="A1:AS35"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18:M20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
@@ -4920,12 +4782,12 @@
       <c r="AS1" s="1"/>
     </row>
     <row r="2" spans="1:45" ht="21">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="14"/>
+      <c r="B2" s="16"/>
       <c r="C2" s="5" t="s">
-        <v>191</v>
+        <v>98</v>
       </c>
       <c r="D2" s="5"/>
       <c r="V2" s="1"/>
@@ -4940,12 +4802,12 @@
       <c r="AS2" s="1"/>
     </row>
     <row r="3" spans="1:45" ht="21">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="15"/>
+      <c r="B3" s="17"/>
       <c r="C3" s="5" t="s">
-        <v>305</v>
+        <v>149</v>
       </c>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
@@ -4987,43 +4849,43 @@
     </row>
     <row r="6" spans="1:45" ht="20.25" customHeight="1">
       <c r="A6" s="7" t="s">
-        <v>199</v>
+        <v>106</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>129</v>
+        <v>62</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>285</v>
+        <v>135</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>2</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>203</v>
+        <v>110</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>196</v>
+        <v>103</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>195</v>
+        <v>102</v>
       </c>
       <c r="I6" s="7" t="s">
         <v>14</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>192</v>
+        <v>99</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>193</v>
+        <v>100</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>201</v>
+        <v>108</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>204</v>
+        <v>111</v>
       </c>
       <c r="N6" s="7" t="s">
         <v>12</v>
@@ -5035,25 +4897,25 @@
         <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>194</v>
+        <v>101</v>
       </c>
       <c r="R6" s="7" t="s">
         <v>27</v>
       </c>
       <c r="S6" s="7" t="s">
-        <v>197</v>
+        <v>104</v>
       </c>
       <c r="T6" s="7" t="s">
-        <v>198</v>
+        <v>105</v>
       </c>
       <c r="U6" s="7" t="s">
-        <v>200</v>
+        <v>107</v>
       </c>
       <c r="V6" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="W6" s="31" t="s">
-        <v>205</v>
+        <v>109</v>
+      </c>
+      <c r="W6" s="11" t="s">
+        <v>112</v>
       </c>
       <c r="Z6" s="1"/>
       <c r="AJ6" s="4"/>
@@ -5062,87 +4924,97 @@
       <c r="AR6" s="3"/>
     </row>
     <row r="7" spans="1:45">
-      <c r="A7" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="E7" s="6" t="s">
+      <c r="A7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="I7" s="6" t="s">
+      <c r="F7" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="I7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J7" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="K7" s="6" t="s">
+      <c r="J7" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="L7" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="N7" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="O7" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="P7" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q7" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="R7" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="S7" s="6" t="s">
+      <c r="L7" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="N7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="T7" s="6" t="s">
+      <c r="O7" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="S7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="U7" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="V7" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="W7" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="Z7" s="1"/>
+      <c r="T7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="U7" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="V7" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="W7" s="31" t="s">
+        <v>242</v>
+      </c>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="4"/>
+      <c r="AA7" s="4"/>
+      <c r="AB7" s="4"/>
+      <c r="AC7" s="4"/>
+      <c r="AD7" s="4"/>
+      <c r="AE7" s="4"/>
+      <c r="AF7" s="4"/>
+      <c r="AG7" s="4"/>
+      <c r="AH7" s="4"/>
+      <c r="AI7" s="4"/>
       <c r="AJ7" s="4"/>
+      <c r="AK7" s="4"/>
+      <c r="AL7" s="4"/>
       <c r="AN7" s="3"/>
+      <c r="AO7" s="4"/>
       <c r="AP7" s="3"/>
       <c r="AR7" s="3"/>
     </row>
     <row r="8" spans="1:45">
-      <c r="A8" s="1" t="s">
-        <v>208</v>
+      <c r="A8" s="4" t="s">
+        <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>99</v>
+        <v>243</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
@@ -5150,43 +5022,43 @@
         <v>4</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>211</v>
+        <v>115</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>214</v>
+        <v>114</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>270</v>
+        <v>244</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>293</v>
+        <v>8</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>212</v>
+        <v>116</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>127</v>
+        <v>5</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>100</v>
+        <v>245</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>87</v>
+        <v>246</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>206</v>
+        <v>113</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="S8" s="1" t="s">
         <v>5</v>
@@ -5195,13 +5067,13 @@
         <v>5</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>215</v>
+        <v>8</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="W8" s="2" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="Z8" s="1"/>
       <c r="AJ8" s="4"/>
@@ -5210,11 +5082,11 @@
       <c r="AR8" s="3"/>
     </row>
     <row r="9" spans="1:45">
-      <c r="A9" s="1" t="s">
-        <v>208</v>
+      <c r="A9" s="4" t="s">
+        <v>3</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>223</v>
+        <v>249</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -5222,43 +5094,43 @@
         <v>4</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>211</v>
+        <v>115</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>207</v>
+        <v>3</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>271</v>
+        <v>250</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>219</v>
+        <v>251</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>294</v>
+        <v>143</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>212</v>
+        <v>252</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>127</v>
+        <v>5</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>218</v>
+        <v>253</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>220</v>
+        <v>254</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>206</v>
+        <v>255</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="S9" s="1" t="s">
         <v>5</v>
@@ -5267,13 +5139,13 @@
         <v>5</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>221</v>
+        <v>122</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>222</v>
+        <v>123</v>
       </c>
       <c r="W9" s="2" t="s">
-        <v>224</v>
+        <v>256</v>
       </c>
       <c r="Z9" s="1"/>
       <c r="AJ9" s="4"/>
@@ -5282,11 +5154,11 @@
       <c r="AR9" s="3"/>
     </row>
     <row r="10" spans="1:45">
-      <c r="A10" s="1" t="s">
-        <v>208</v>
+      <c r="A10" s="4" t="s">
+        <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>223</v>
+        <v>257</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
@@ -5294,43 +5166,43 @@
         <v>4</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>211</v>
+        <v>115</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>207</v>
+        <v>3</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>219</v>
+        <v>251</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>294</v>
+        <v>143</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>212</v>
+        <v>252</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>127</v>
+        <v>5</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>225</v>
+        <v>259</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>220</v>
+        <v>254</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>206</v>
+        <v>255</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="S10" s="1" t="s">
         <v>5</v>
@@ -5339,13 +5211,13 @@
         <v>5</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>221</v>
+        <v>122</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>222</v>
+        <v>123</v>
       </c>
       <c r="W10" s="2" t="s">
-        <v>224</v>
+        <v>260</v>
       </c>
       <c r="Z10" s="1"/>
       <c r="AJ10" s="4"/>
@@ -5354,11 +5226,11 @@
       <c r="AR10" s="3"/>
     </row>
     <row r="11" spans="1:45">
-      <c r="A11" s="1" t="s">
-        <v>208</v>
+      <c r="A11" s="4" t="s">
+        <v>3</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>232</v>
+        <v>261</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
@@ -5366,43 +5238,43 @@
         <v>4</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>211</v>
+        <v>115</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>207</v>
+        <v>3</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>6</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>228</v>
+        <v>263</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>6</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>295</v>
+        <v>264</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>212</v>
+        <v>252</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>226</v>
+        <v>5</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>227</v>
+        <v>265</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>229</v>
+        <v>118</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>206</v>
+        <v>119</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="S11" s="1" t="s">
         <v>5</v>
@@ -5411,13 +5283,13 @@
         <v>5</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>230</v>
+        <v>120</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>231</v>
+        <v>121</v>
       </c>
       <c r="W11" s="2" t="s">
-        <v>217</v>
+        <v>266</v>
       </c>
       <c r="Z11" s="1"/>
       <c r="AJ11" s="4"/>
@@ -5426,11 +5298,11 @@
       <c r="AR11" s="3"/>
     </row>
     <row r="12" spans="1:45">
-      <c r="A12" s="1" t="s">
-        <v>208</v>
+      <c r="A12" s="4" t="s">
+        <v>3</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>240</v>
+        <v>267</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
@@ -5438,43 +5310,43 @@
         <v>4</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>211</v>
+        <v>115</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>207</v>
+        <v>114</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>6</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>235</v>
+        <v>251</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>6</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>296</v>
+        <v>143</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>212</v>
+        <v>116</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>233</v>
+        <v>5</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>234</v>
+        <v>269</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>237</v>
+        <v>255</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="S12" s="1" t="s">
         <v>5</v>
@@ -5483,13 +5355,13 @@
         <v>5</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>238</v>
+        <v>122</v>
       </c>
       <c r="V12" s="1" t="s">
-        <v>239</v>
+        <v>123</v>
       </c>
       <c r="W12" s="2" t="s">
-        <v>241</v>
+        <v>270</v>
       </c>
       <c r="Z12" s="1"/>
       <c r="AJ12" s="4"/>
@@ -5498,11 +5370,11 @@
       <c r="AR12" s="3"/>
     </row>
     <row r="13" spans="1:45">
-      <c r="A13" s="1" t="s">
-        <v>208</v>
+      <c r="A13" s="4" t="s">
+        <v>3</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>244</v>
+        <v>271</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
@@ -5510,43 +5382,43 @@
         <v>4</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>211</v>
+        <v>115</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>207</v>
+        <v>114</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>6</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>6</v>
+        <v>251</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>6</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>297</v>
+        <v>143</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>212</v>
+        <v>116</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>233</v>
+        <v>5</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>242</v>
+        <v>269</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>206</v>
+        <v>255</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="S13" s="1" t="s">
         <v>5</v>
@@ -5555,13 +5427,13 @@
         <v>5</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>221</v>
+        <v>122</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>222</v>
+        <v>123</v>
       </c>
       <c r="W13" s="2" t="s">
-        <v>245</v>
+        <v>273</v>
       </c>
       <c r="Z13" s="1"/>
       <c r="AJ13" s="4"/>
@@ -5570,11 +5442,11 @@
       <c r="AR13" s="3"/>
     </row>
     <row r="14" spans="1:45">
-      <c r="A14" s="1" t="s">
-        <v>208</v>
+      <c r="A14" s="4" t="s">
+        <v>3</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>254</v>
+        <v>274</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -5582,10 +5454,10 @@
         <v>4</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>252</v>
+        <v>115</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>207</v>
+        <v>114</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>275</v>
@@ -5594,31 +5466,31 @@
         <v>6</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>6</v>
+        <v>276</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>6</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>298</v>
+        <v>277</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>253</v>
+        <v>116</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>233</v>
+        <v>5</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>246</v>
+        <v>278</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>247</v>
+        <v>279</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>248</v>
+        <v>280</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>249</v>
+        <v>37</v>
       </c>
       <c r="S14" s="1" t="s">
         <v>5</v>
@@ -5627,13 +5499,13 @@
         <v>5</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>250</v>
+        <v>281</v>
       </c>
       <c r="V14" s="1" t="s">
-        <v>251</v>
+        <v>282</v>
       </c>
       <c r="W14" s="1" t="s">
-        <v>255</v>
+        <v>283</v>
       </c>
       <c r="Z14" s="1"/>
       <c r="AA14" s="2"/>
@@ -5645,11 +5517,11 @@
       <c r="AS14" s="1"/>
     </row>
     <row r="15" spans="1:45">
-      <c r="A15" s="1" t="s">
-        <v>208</v>
+      <c r="A15" s="4" t="s">
+        <v>3</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
@@ -5657,43 +5529,43 @@
         <v>4</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>262</v>
+        <v>115</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>3</v>
+        <v>114</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>6</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>6</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>299</v>
+        <v>142</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>263</v>
+        <v>116</v>
       </c>
       <c r="N15" s="1" t="s">
         <v>5</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>256</v>
+        <v>286</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>258</v>
+        <v>118</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>259</v>
+        <v>119</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="S15" s="1" t="s">
         <v>5</v>
@@ -5702,13 +5574,13 @@
         <v>5</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>260</v>
+        <v>120</v>
       </c>
       <c r="V15" s="1" t="s">
-        <v>261</v>
+        <v>121</v>
       </c>
       <c r="W15" s="1" t="s">
-        <v>217</v>
+        <v>287</v>
       </c>
       <c r="Z15" s="1"/>
       <c r="AA15" s="2"/>
@@ -5720,11 +5592,11 @@
       <c r="AS15" s="1"/>
     </row>
     <row r="16" spans="1:45">
-      <c r="A16" s="1" t="s">
-        <v>208</v>
+      <c r="A16" s="4" t="s">
+        <v>3</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>265</v>
+        <v>288</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
@@ -5732,43 +5604,43 @@
         <v>4</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>262</v>
+        <v>115</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>3</v>
+        <v>114</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>276</v>
+        <v>289</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>6</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>6</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>299</v>
+        <v>142</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>263</v>
+        <v>116</v>
       </c>
       <c r="N16" s="1" t="s">
         <v>5</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>256</v>
+        <v>290</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>258</v>
+        <v>118</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>259</v>
+        <v>119</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="S16" s="1" t="s">
         <v>5</v>
@@ -5777,13 +5649,13 @@
         <v>5</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>260</v>
+        <v>120</v>
       </c>
       <c r="V16" s="1" t="s">
-        <v>261</v>
+        <v>121</v>
       </c>
       <c r="W16" s="1" t="s">
-        <v>217</v>
+        <v>291</v>
       </c>
       <c r="Z16" s="1"/>
       <c r="AA16" s="2"/>
@@ -5799,153 +5671,153 @@
       <c r="V17" s="1"/>
     </row>
     <row r="18" spans="1:45" ht="11.25" customHeight="1">
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="O18" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="P18" s="27"/>
+      <c r="Q18" s="27"/>
+      <c r="R18" s="27"/>
+      <c r="S18" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="T18" s="20"/>
+      <c r="U18" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="V18" s="27"/>
+    </row>
+    <row r="19" spans="1:45">
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="27"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="27"/>
+      <c r="P19" s="27"/>
+      <c r="Q19" s="27"/>
+      <c r="R19" s="27"/>
+      <c r="S19" s="21"/>
+      <c r="T19" s="23"/>
+      <c r="U19" s="27"/>
+      <c r="V19" s="27"/>
+    </row>
+    <row r="20" spans="1:45">
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="27"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="27"/>
+      <c r="P20" s="27"/>
+      <c r="Q20" s="27"/>
+      <c r="R20" s="27"/>
+      <c r="S20" s="24"/>
+      <c r="T20" s="26"/>
+      <c r="U20" s="27"/>
+      <c r="V20" s="27"/>
+    </row>
+    <row r="21" spans="1:45" ht="11.25" customHeight="1">
+      <c r="A21" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="H21" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="I21" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="J21" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="K21" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="L21" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="M21" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="N21" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="O21" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="P21" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q21" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="R21" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="S21" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="T21" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="25"/>
-      <c r="N18" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="O18" s="25" t="s">
-        <v>303</v>
-      </c>
-      <c r="P18" s="25"/>
-      <c r="Q18" s="25"/>
-      <c r="R18" s="25"/>
-      <c r="S18" s="16" t="s">
-        <v>304</v>
-      </c>
-      <c r="T18" s="18"/>
-      <c r="U18" s="25" t="s">
-        <v>302</v>
-      </c>
-      <c r="V18" s="25"/>
-    </row>
-    <row r="19" spans="1:45">
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="25"/>
-      <c r="M19" s="25"/>
-      <c r="N19" s="30"/>
-      <c r="O19" s="25"/>
-      <c r="P19" s="25"/>
-      <c r="Q19" s="25"/>
-      <c r="R19" s="25"/>
-      <c r="S19" s="19"/>
-      <c r="T19" s="21"/>
-      <c r="U19" s="25"/>
-      <c r="V19" s="25"/>
-    </row>
-    <row r="20" spans="1:45">
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="25"/>
-      <c r="M20" s="25"/>
-      <c r="N20" s="30"/>
-      <c r="O20" s="25"/>
-      <c r="P20" s="25"/>
-      <c r="Q20" s="25"/>
-      <c r="R20" s="25"/>
-      <c r="S20" s="22"/>
-      <c r="T20" s="24"/>
-      <c r="U20" s="25"/>
-      <c r="V20" s="25"/>
-    </row>
-    <row r="21" spans="1:45" ht="11.25" customHeight="1">
-      <c r="A21" s="12" t="s">
-        <v>280</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>286</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>266</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>282</v>
-      </c>
-      <c r="G21" s="12" t="s">
-        <v>268</v>
-      </c>
-      <c r="H21" s="12" t="s">
-        <v>267</v>
-      </c>
-      <c r="I21" s="12" t="s">
-        <v>277</v>
-      </c>
-      <c r="J21" s="12" t="s">
-        <v>278</v>
-      </c>
-      <c r="K21" s="12" t="s">
-        <v>279</v>
-      </c>
-      <c r="L21" s="12" t="s">
-        <v>290</v>
-      </c>
-      <c r="M21" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="N21" s="12" t="s">
-        <v>281</v>
-      </c>
-      <c r="O21" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="P21" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q21" s="12" t="s">
-        <v>284</v>
-      </c>
-      <c r="R21" s="32" t="s">
+      <c r="U21" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="S21" s="13" t="s">
-        <v>287</v>
-      </c>
-      <c r="T21" s="13" t="s">
-        <v>288</v>
-      </c>
-      <c r="U21" s="13" t="s">
-        <v>289</v>
-      </c>
-      <c r="V21" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="W21" s="13" t="s">
-        <v>301</v>
+      <c r="V21" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="W21" s="28" t="s">
+        <v>145</v>
       </c>
       <c r="Z21" s="1"/>
       <c r="AA21" s="2"/>
@@ -5957,29 +5829,29 @@
       <c r="AS21" s="1"/>
     </row>
     <row r="22" spans="1:45">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="12"/>
-      <c r="O22" s="12"/>
-      <c r="P22" s="12"/>
-      <c r="Q22" s="12"/>
-      <c r="R22" s="32"/>
-      <c r="S22" s="13"/>
-      <c r="T22" s="13"/>
-      <c r="U22" s="13"/>
-      <c r="V22" s="13"/>
-      <c r="W22" s="13"/>
+      <c r="A22" s="15"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="15"/>
+      <c r="P22" s="15"/>
+      <c r="Q22" s="15"/>
+      <c r="R22" s="30"/>
+      <c r="S22" s="28"/>
+      <c r="T22" s="28"/>
+      <c r="U22" s="28"/>
+      <c r="V22" s="28"/>
+      <c r="W22" s="28"/>
       <c r="Z22" s="1"/>
       <c r="AA22" s="2"/>
       <c r="AM22" s="1"/>
@@ -5990,29 +5862,29 @@
       <c r="AS22" s="1"/>
     </row>
     <row r="23" spans="1:45">
-      <c r="A23" s="12"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="12"/>
-      <c r="O23" s="12"/>
-      <c r="P23" s="12"/>
-      <c r="Q23" s="12"/>
-      <c r="R23" s="32"/>
-      <c r="S23" s="13"/>
-      <c r="T23" s="13"/>
-      <c r="U23" s="13"/>
-      <c r="V23" s="13"/>
-      <c r="W23" s="13"/>
+      <c r="A23" s="15"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="15"/>
+      <c r="R23" s="30"/>
+      <c r="S23" s="28"/>
+      <c r="T23" s="28"/>
+      <c r="U23" s="28"/>
+      <c r="V23" s="28"/>
+      <c r="W23" s="28"/>
       <c r="Z23" s="1"/>
       <c r="AA23" s="2"/>
       <c r="AM23" s="1"/>
@@ -6023,29 +5895,29 @@
       <c r="AS23" s="1"/>
     </row>
     <row r="24" spans="1:45">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="12"/>
-      <c r="O24" s="12"/>
-      <c r="P24" s="12"/>
-      <c r="Q24" s="12"/>
-      <c r="R24" s="32"/>
-      <c r="S24" s="13"/>
-      <c r="T24" s="13"/>
-      <c r="U24" s="13"/>
-      <c r="V24" s="13"/>
-      <c r="W24" s="13"/>
+      <c r="A24" s="15"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="15"/>
+      <c r="P24" s="15"/>
+      <c r="Q24" s="15"/>
+      <c r="R24" s="30"/>
+      <c r="S24" s="28"/>
+      <c r="T24" s="28"/>
+      <c r="U24" s="28"/>
+      <c r="V24" s="28"/>
+      <c r="W24" s="28"/>
       <c r="Z24" s="1"/>
       <c r="AA24" s="2"/>
       <c r="AM24" s="1"/>
@@ -6056,29 +5928,29 @@
       <c r="AS24" s="1"/>
     </row>
     <row r="25" spans="1:45">
-      <c r="A25" s="12"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="12"/>
-      <c r="O25" s="12"/>
-      <c r="P25" s="12"/>
-      <c r="Q25" s="12"/>
-      <c r="R25" s="32"/>
-      <c r="S25" s="13"/>
-      <c r="T25" s="13"/>
-      <c r="U25" s="13"/>
-      <c r="V25" s="13"/>
-      <c r="W25" s="13"/>
+      <c r="A25" s="15"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="15"/>
+      <c r="P25" s="15"/>
+      <c r="Q25" s="15"/>
+      <c r="R25" s="30"/>
+      <c r="S25" s="28"/>
+      <c r="T25" s="28"/>
+      <c r="U25" s="28"/>
+      <c r="V25" s="28"/>
+      <c r="W25" s="28"/>
       <c r="Z25" s="1"/>
       <c r="AA25" s="2"/>
       <c r="AM25" s="1"/>
@@ -6089,29 +5961,29 @@
       <c r="AS25" s="1"/>
     </row>
     <row r="26" spans="1:45">
-      <c r="A26" s="12"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="12"/>
-      <c r="N26" s="12"/>
-      <c r="O26" s="12"/>
-      <c r="P26" s="12"/>
-      <c r="Q26" s="12"/>
-      <c r="R26" s="32"/>
-      <c r="S26" s="13"/>
-      <c r="T26" s="13"/>
-      <c r="U26" s="13"/>
-      <c r="V26" s="13"/>
-      <c r="W26" s="13"/>
+      <c r="A26" s="15"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="15"/>
+      <c r="O26" s="15"/>
+      <c r="P26" s="15"/>
+      <c r="Q26" s="15"/>
+      <c r="R26" s="30"/>
+      <c r="S26" s="28"/>
+      <c r="T26" s="28"/>
+      <c r="U26" s="28"/>
+      <c r="V26" s="28"/>
+      <c r="W26" s="28"/>
       <c r="Z26" s="1"/>
       <c r="AA26" s="2"/>
       <c r="AM26" s="1"/>
@@ -6122,29 +5994,29 @@
       <c r="AS26" s="1"/>
     </row>
     <row r="27" spans="1:45">
-      <c r="A27" s="12"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="12"/>
-      <c r="N27" s="12"/>
-      <c r="O27" s="12"/>
-      <c r="P27" s="12"/>
-      <c r="Q27" s="12"/>
-      <c r="R27" s="32"/>
-      <c r="S27" s="13"/>
-      <c r="T27" s="13"/>
-      <c r="U27" s="13"/>
-      <c r="V27" s="13"/>
-      <c r="W27" s="13"/>
+      <c r="A27" s="15"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="15"/>
+      <c r="O27" s="15"/>
+      <c r="P27" s="15"/>
+      <c r="Q27" s="15"/>
+      <c r="R27" s="30"/>
+      <c r="S27" s="28"/>
+      <c r="T27" s="28"/>
+      <c r="U27" s="28"/>
+      <c r="V27" s="28"/>
+      <c r="W27" s="28"/>
       <c r="Z27" s="1"/>
       <c r="AA27" s="2"/>
       <c r="AM27" s="1"/>
@@ -6155,51 +6027,67 @@
       <c r="AS27" s="1"/>
     </row>
     <row r="28" spans="1:45">
-      <c r="S28" s="13"/>
-      <c r="T28" s="13"/>
-      <c r="U28" s="13"/>
-      <c r="V28" s="13"/>
-      <c r="W28" s="13"/>
+      <c r="S28" s="28"/>
+      <c r="T28" s="28"/>
+      <c r="U28" s="28"/>
+      <c r="V28" s="28"/>
+      <c r="W28" s="28"/>
     </row>
     <row r="29" spans="1:45">
-      <c r="F29" s="12" t="s">
-        <v>283</v>
-      </c>
-      <c r="M29" s="26" t="s">
-        <v>300</v>
-      </c>
-      <c r="S29" s="13"/>
-      <c r="T29" s="13"/>
-      <c r="U29" s="13"/>
-      <c r="V29" s="13"/>
-      <c r="W29" s="13"/>
+      <c r="F29" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="M29" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="S29" s="28"/>
+      <c r="T29" s="28"/>
+      <c r="U29" s="28"/>
+      <c r="V29" s="28"/>
+      <c r="W29" s="28"/>
     </row>
     <row r="30" spans="1:45">
-      <c r="F30" s="12"/>
-      <c r="M30" s="27"/>
+      <c r="F30" s="15"/>
+      <c r="M30" s="13"/>
     </row>
     <row r="31" spans="1:45">
-      <c r="F31" s="12"/>
-      <c r="M31" s="27"/>
+      <c r="F31" s="15"/>
+      <c r="M31" s="13"/>
     </row>
     <row r="32" spans="1:45">
-      <c r="F32" s="12"/>
-      <c r="M32" s="27"/>
+      <c r="F32" s="15"/>
+      <c r="M32" s="13"/>
     </row>
     <row r="33" spans="6:13">
-      <c r="F33" s="12"/>
-      <c r="M33" s="27"/>
+      <c r="F33" s="15"/>
+      <c r="M33" s="13"/>
     </row>
     <row r="34" spans="6:13">
-      <c r="F34" s="12"/>
-      <c r="M34" s="27"/>
+      <c r="F34" s="15"/>
+      <c r="M34" s="13"/>
     </row>
     <row r="35" spans="6:13">
-      <c r="F35" s="12"/>
-      <c r="M35" s="28"/>
+      <c r="F35" s="15"/>
+      <c r="M35" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="S21:S29"/>
+    <mergeCell ref="A21:A27"/>
+    <mergeCell ref="C21:C27"/>
+    <mergeCell ref="N21:N27"/>
+    <mergeCell ref="N18:N20"/>
+    <mergeCell ref="F21:F27"/>
+    <mergeCell ref="F29:F35"/>
+    <mergeCell ref="K21:K27"/>
+    <mergeCell ref="B21:B27"/>
+    <mergeCell ref="E21:E27"/>
+    <mergeCell ref="G21:G27"/>
+    <mergeCell ref="H21:H27"/>
+    <mergeCell ref="I21:I27"/>
+    <mergeCell ref="J21:J27"/>
     <mergeCell ref="U18:V20"/>
     <mergeCell ref="W21:W29"/>
     <mergeCell ref="B18:M20"/>
@@ -6216,22 +6104,6 @@
     <mergeCell ref="Q21:Q27"/>
     <mergeCell ref="R21:R27"/>
     <mergeCell ref="D21:D27"/>
-    <mergeCell ref="S21:S29"/>
-    <mergeCell ref="A21:A27"/>
-    <mergeCell ref="C21:C27"/>
-    <mergeCell ref="N21:N27"/>
-    <mergeCell ref="N18:N20"/>
-    <mergeCell ref="F21:F27"/>
-    <mergeCell ref="F29:F35"/>
-    <mergeCell ref="K21:K27"/>
-    <mergeCell ref="B21:B27"/>
-    <mergeCell ref="E21:E27"/>
-    <mergeCell ref="G21:G27"/>
-    <mergeCell ref="H21:H27"/>
-    <mergeCell ref="I21:I27"/>
-    <mergeCell ref="J21:J27"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6240,7 +6112,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C2:F27"/>
+  <dimension ref="C2:F28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F24" sqref="F2:F24"/>
@@ -6250,7 +6122,7 @@
   <sheetData>
     <row r="2" spans="3:6">
       <c r="C2" s="7" t="s">
-        <v>199</v>
+        <v>106</v>
       </c>
       <c r="F2" t="str">
         <f>CONCATENATE(C2,",")</f>
@@ -6262,13 +6134,13 @@
         <v>13</v>
       </c>
       <c r="F3" t="str">
-        <f t="shared" ref="F3:F27" si="0">CONCATENATE(C3,",")</f>
+        <f t="shared" ref="F3:F28" si="0">CONCATENATE(C3,",")</f>
         <v>NR_ENTREGA,</v>
       </c>
     </row>
     <row r="4" spans="3:6">
       <c r="C4" s="7" t="s">
-        <v>129</v>
+        <v>62</v>
       </c>
       <c r="F4" t="str">
         <f t="shared" si="0"/>
@@ -6277,7 +6149,7 @@
     </row>
     <row r="5" spans="3:6">
       <c r="C5" s="7" t="s">
-        <v>285</v>
+        <v>135</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" si="0"/>
@@ -6295,7 +6167,7 @@
     </row>
     <row r="7" spans="3:6">
       <c r="C7" s="7" t="s">
-        <v>203</v>
+        <v>110</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" si="0"/>
@@ -6304,7 +6176,7 @@
     </row>
     <row r="8" spans="3:6">
       <c r="C8" s="7" t="s">
-        <v>196</v>
+        <v>103</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" si="0"/>
@@ -6313,7 +6185,7 @@
     </row>
     <row r="9" spans="3:6">
       <c r="C9" s="7" t="s">
-        <v>195</v>
+        <v>102</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" si="0"/>
@@ -6331,7 +6203,7 @@
     </row>
     <row r="11" spans="3:6">
       <c r="C11" s="7" t="s">
-        <v>192</v>
+        <v>99</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="0"/>
@@ -6340,7 +6212,7 @@
     </row>
     <row r="12" spans="3:6">
       <c r="C12" s="7" t="s">
-        <v>193</v>
+        <v>100</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" si="0"/>
@@ -6349,7 +6221,7 @@
     </row>
     <row r="13" spans="3:6">
       <c r="C13" s="7" t="s">
-        <v>201</v>
+        <v>108</v>
       </c>
       <c r="F13" t="str">
         <f t="shared" si="0"/>
@@ -6358,97 +6230,97 @@
     </row>
     <row r="14" spans="3:6">
       <c r="C14" s="7" t="s">
-        <v>12</v>
+        <v>111</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" si="0"/>
-        <v>DT_SAIDA_ENTREGA,</v>
+        <v>DS_OBS_ROMANEIO,</v>
       </c>
     </row>
     <row r="15" spans="3:6">
       <c r="C15" s="7" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" si="0"/>
-        <v>DT_PROMETIDA,</v>
+        <v>DT_SAIDA_ENTREGA,</v>
       </c>
     </row>
     <row r="16" spans="3:6">
       <c r="C16" s="7" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="F16" t="str">
         <f t="shared" si="0"/>
-        <v>CD_CEP_DESTINATARIO,</v>
+        <v>DT_PROMETIDA,</v>
       </c>
     </row>
     <row r="17" spans="3:6">
       <c r="C17" s="7" t="s">
-        <v>194</v>
+        <v>28</v>
       </c>
       <c r="F17" t="str">
         <f t="shared" si="0"/>
-        <v>NM_CIDADE_DESTINATARIO,</v>
+        <v>CD_CEP_DESTINATARIO,</v>
       </c>
     </row>
     <row r="18" spans="3:6">
       <c r="C18" s="7" t="s">
-        <v>27</v>
+        <v>101</v>
       </c>
       <c r="F18" t="str">
         <f t="shared" si="0"/>
-        <v>NM_UF_DESTINATARIO,</v>
+        <v>NM_CIDADE_DESTINATARIO,</v>
       </c>
     </row>
     <row r="19" spans="3:6">
       <c r="C19" s="7" t="s">
-        <v>197</v>
+        <v>27</v>
       </c>
       <c r="F19" t="str">
         <f t="shared" si="0"/>
-        <v>NR_NOTA_FATURA,</v>
+        <v>NM_UF_DESTINATARIO,</v>
       </c>
     </row>
     <row r="20" spans="3:6">
       <c r="C20" s="7" t="s">
-        <v>198</v>
+        <v>104</v>
       </c>
       <c r="F20" t="str">
         <f t="shared" si="0"/>
-        <v>NR_SERIE_NOTA_FATURA,</v>
+        <v>NR_NOTA_FATURA,</v>
       </c>
     </row>
     <row r="21" spans="3:6">
       <c r="C21" s="7" t="s">
-        <v>200</v>
+        <v>105</v>
       </c>
       <c r="F21" t="str">
         <f t="shared" si="0"/>
-        <v>VL_VOLUME_M3,</v>
+        <v>NR_SERIE_NOTA_FATURA,</v>
       </c>
     </row>
     <row r="22" spans="3:6">
       <c r="C22" s="7" t="s">
-        <v>202</v>
+        <v>107</v>
       </c>
       <c r="F22" t="str">
         <f t="shared" si="0"/>
-        <v>VL_PESO_CUBADO,</v>
+        <v>VL_VOLUME_M3,</v>
       </c>
     </row>
     <row r="23" spans="3:6">
       <c r="C23" s="7" t="s">
-        <v>204</v>
+        <v>109</v>
       </c>
       <c r="F23" t="str">
         <f t="shared" si="0"/>
-        <v>DS_OBS_ROMANEIO,</v>
+        <v>VL_PESO_CUBADO,</v>
       </c>
     </row>
     <row r="24" spans="3:6">
-      <c r="C24" s="31" t="s">
-        <v>205</v>
+      <c r="C24" s="11" t="s">
+        <v>112</v>
       </c>
       <c r="F24" t="str">
         <f t="shared" si="0"/>
@@ -6457,27 +6329,36 @@
     </row>
     <row r="25" spans="3:6">
       <c r="C25" s="7" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F25" t="str">
         <f t="shared" si="0"/>
-        <v>NM_APELIDO_TRANSPORTADORA,</v>
+        <v>DT_EMISSAO_PEDIDO,</v>
       </c>
     </row>
     <row r="26" spans="3:6">
       <c r="C26" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F26" t="str">
         <f t="shared" si="0"/>
-        <v>VL_TOTAL_NF,</v>
+        <v>DT_LIMITE_EXPEDICAO,</v>
       </c>
     </row>
     <row r="27" spans="3:6">
       <c r="C27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" t="str">
+        <f t="shared" si="0"/>
+        <v>VL_TOTAL_NF,</v>
+      </c>
+    </row>
+    <row r="28" spans="3:6">
+      <c r="C28" t="s">
         <v>32</v>
       </c>
-      <c r="F27" t="str">
+      <c r="F28" t="str">
         <f t="shared" si="0"/>
         <v>QT_VOLUMES,</v>
       </c>

--- a/Documentação/Planilhas/Conferencia_TRP.xlsx
+++ b/Documentação/Planilhas/Conferencia_TRP.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="297">
   <si>
     <t>Conferência dos dados da tabela:</t>
   </si>
@@ -900,6 +900,18 @@
   </si>
   <si>
     <t>Fixo 1</t>
+  </si>
+  <si>
+    <t>MG100000036BR</t>
+  </si>
+  <si>
+    <t>F20007092</t>
+  </si>
+  <si>
+    <t>NL100000140BR</t>
+  </si>
+  <si>
+    <t>F20006687</t>
   </si>
 </sst>
 </file>
@@ -1198,23 +1210,8 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1243,21 +1240,6 @@
     <xf numFmtId="49" fontId="4" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1270,28 +1252,25 @@
     <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1303,7 +1282,19 @@
     <xf numFmtId="49" fontId="5" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1318,10 +1309,31 @@
     <xf numFmtId="49" fontId="7" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1694,10 +1706,10 @@
       <c r="AR1" s="1"/>
     </row>
     <row r="2" spans="1:50" ht="21">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="16"/>
+      <c r="B2" s="28"/>
       <c r="C2" s="5" t="s">
         <v>10</v>
       </c>
@@ -1713,10 +1725,10 @@
       <c r="AR2" s="1"/>
     </row>
     <row r="3" spans="1:50" ht="21">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="17"/>
+      <c r="B3" s="29"/>
       <c r="C3" s="5" t="s">
         <v>220</v>
       </c>
@@ -1952,7 +1964,7 @@
       </c>
       <c r="AB7" s="4"/>
       <c r="AC7" s="4"/>
-      <c r="AD7" s="31"/>
+      <c r="AD7" s="12"/>
       <c r="AE7" s="4"/>
       <c r="AF7" s="4"/>
       <c r="AG7" s="4"/>
@@ -2051,7 +2063,7 @@
       </c>
       <c r="AB8" s="4"/>
       <c r="AC8" s="4"/>
-      <c r="AD8" s="31"/>
+      <c r="AD8" s="12"/>
       <c r="AE8" s="4"/>
       <c r="AF8" s="4"/>
       <c r="AG8" s="4"/>
@@ -2150,7 +2162,7 @@
       </c>
       <c r="AB9" s="4"/>
       <c r="AC9" s="4"/>
-      <c r="AD9" s="31"/>
+      <c r="AD9" s="12"/>
       <c r="AE9" s="4"/>
       <c r="AF9" s="4"/>
       <c r="AG9" s="4"/>
@@ -2249,7 +2261,7 @@
       </c>
       <c r="AB10" s="4"/>
       <c r="AC10" s="4"/>
-      <c r="AD10" s="31"/>
+      <c r="AD10" s="12"/>
       <c r="AE10" s="4"/>
       <c r="AF10" s="4"/>
       <c r="AG10" s="4"/>
@@ -2348,7 +2360,7 @@
       </c>
       <c r="AB11" s="4"/>
       <c r="AC11" s="4"/>
-      <c r="AD11" s="31"/>
+      <c r="AD11" s="12"/>
       <c r="AE11" s="4"/>
       <c r="AF11" s="4"/>
       <c r="AG11" s="4"/>
@@ -2447,7 +2459,7 @@
       </c>
       <c r="AB12" s="4"/>
       <c r="AC12" s="4"/>
-      <c r="AD12" s="31"/>
+      <c r="AD12" s="12"/>
       <c r="AE12" s="4"/>
       <c r="AF12" s="4"/>
       <c r="AG12" s="4"/>
@@ -2546,7 +2558,7 @@
       </c>
       <c r="AB13" s="4"/>
       <c r="AC13" s="4"/>
-      <c r="AD13" s="31"/>
+      <c r="AD13" s="12"/>
       <c r="AE13" s="4"/>
       <c r="AF13" s="4"/>
       <c r="AG13" s="4"/>
@@ -2645,7 +2657,7 @@
       </c>
       <c r="AB14" s="4"/>
       <c r="AC14" s="4"/>
-      <c r="AD14" s="31"/>
+      <c r="AD14" s="12"/>
       <c r="AE14" s="4"/>
       <c r="AF14" s="4"/>
       <c r="AG14" s="4"/>
@@ -2744,7 +2756,7 @@
       </c>
       <c r="AB15" s="4"/>
       <c r="AC15" s="4"/>
-      <c r="AD15" s="31"/>
+      <c r="AD15" s="12"/>
       <c r="AE15" s="4"/>
       <c r="AF15" s="4"/>
       <c r="AG15" s="4"/>
@@ -2843,7 +2855,7 @@
       </c>
       <c r="AB16" s="4"/>
       <c r="AC16" s="4"/>
-      <c r="AD16" s="31"/>
+      <c r="AD16" s="12"/>
       <c r="AE16" s="4"/>
       <c r="AF16" s="4"/>
       <c r="AG16" s="4"/>
@@ -2891,7 +2903,7 @@
       <c r="AA17" s="4"/>
       <c r="AB17" s="4"/>
       <c r="AC17" s="4"/>
-      <c r="AD17" s="31"/>
+      <c r="AD17" s="12"/>
       <c r="AE17" s="4"/>
       <c r="AF17" s="4"/>
       <c r="AG17" s="4"/>
@@ -2939,7 +2951,7 @@
       <c r="AA18" s="4"/>
       <c r="AB18" s="4"/>
       <c r="AC18" s="4"/>
-      <c r="AD18" s="31"/>
+      <c r="AD18" s="12"/>
       <c r="AE18" s="4"/>
       <c r="AF18" s="4"/>
       <c r="AG18" s="4"/>
@@ -2965,186 +2977,186 @@
       <c r="Y19" s="1"/>
     </row>
     <row r="20" spans="1:50" ht="11.25" customHeight="1">
-      <c r="A20" s="18" t="s">
+      <c r="A20" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="18" t="s">
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="19"/>
-      <c r="M20" s="20"/>
-      <c r="N20" s="18" t="s">
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="O20" s="19"/>
-      <c r="P20" s="19"/>
-      <c r="Q20" s="19"/>
-      <c r="R20" s="20"/>
-      <c r="S20" s="18" t="s">
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="15"/>
+      <c r="S20" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="T20" s="19"/>
-      <c r="U20" s="19"/>
-      <c r="V20" s="19"/>
-      <c r="W20" s="20"/>
-      <c r="X20" s="32" t="s">
+      <c r="T20" s="14"/>
+      <c r="U20" s="14"/>
+      <c r="V20" s="14"/>
+      <c r="W20" s="15"/>
+      <c r="X20" s="22" t="s">
         <v>219</v>
       </c>
-      <c r="Y20" s="35" t="s">
+      <c r="Y20" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="Z20" s="35" t="s">
+      <c r="Z20" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="AA20" s="35"/>
+      <c r="AA20" s="25"/>
     </row>
     <row r="21" spans="1:50" ht="11.25" customHeight="1">
-      <c r="A21" s="21"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="22"/>
-      <c r="L21" s="22"/>
-      <c r="M21" s="23"/>
-      <c r="N21" s="21"/>
-      <c r="O21" s="22"/>
-      <c r="P21" s="22"/>
-      <c r="Q21" s="22"/>
-      <c r="R21" s="23"/>
-      <c r="S21" s="21"/>
-      <c r="T21" s="22"/>
-      <c r="U21" s="22"/>
-      <c r="V21" s="22"/>
-      <c r="W21" s="23"/>
-      <c r="X21" s="33"/>
-      <c r="Y21" s="35"/>
-      <c r="Z21" s="35"/>
-      <c r="AA21" s="35"/>
+      <c r="A21" s="16"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="16"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="17"/>
+      <c r="R21" s="18"/>
+      <c r="S21" s="16"/>
+      <c r="T21" s="17"/>
+      <c r="U21" s="17"/>
+      <c r="V21" s="17"/>
+      <c r="W21" s="18"/>
+      <c r="X21" s="23"/>
+      <c r="Y21" s="25"/>
+      <c r="Z21" s="25"/>
+      <c r="AA21" s="25"/>
     </row>
     <row r="22" spans="1:50" ht="11.25" customHeight="1">
-      <c r="A22" s="24"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="25"/>
-      <c r="L22" s="25"/>
-      <c r="M22" s="26"/>
-      <c r="N22" s="24"/>
-      <c r="O22" s="25"/>
-      <c r="P22" s="25"/>
-      <c r="Q22" s="25"/>
-      <c r="R22" s="26"/>
-      <c r="S22" s="24"/>
-      <c r="T22" s="25"/>
-      <c r="U22" s="25"/>
-      <c r="V22" s="25"/>
-      <c r="W22" s="26"/>
-      <c r="X22" s="34"/>
-      <c r="Y22" s="35"/>
-      <c r="Z22" s="35"/>
-      <c r="AA22" s="35"/>
+      <c r="A22" s="19"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="20"/>
+      <c r="P22" s="20"/>
+      <c r="Q22" s="20"/>
+      <c r="R22" s="21"/>
+      <c r="S22" s="19"/>
+      <c r="T22" s="20"/>
+      <c r="U22" s="20"/>
+      <c r="V22" s="20"/>
+      <c r="W22" s="21"/>
+      <c r="X22" s="24"/>
+      <c r="Y22" s="25"/>
+      <c r="Z22" s="25"/>
+      <c r="AA22" s="25"/>
     </row>
     <row r="23" spans="1:50" ht="11.25" customHeight="1">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="D23" s="15" t="s">
+      <c r="D23" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="E23" s="15" t="s">
+      <c r="E23" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="F23" s="15" t="s">
+      <c r="F23" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="G23" s="15" t="s">
+      <c r="G23" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="H23" s="15" t="s">
+      <c r="H23" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="I23" s="15" t="s">
+      <c r="I23" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="J23" s="15" t="s">
+      <c r="J23" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="K23" s="15" t="s">
+      <c r="K23" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="L23" s="15" t="s">
+      <c r="L23" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="M23" s="15" t="s">
+      <c r="M23" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="N23" s="15" t="s">
+      <c r="N23" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="O23" s="15" t="s">
+      <c r="O23" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="P23" s="15" t="s">
+      <c r="P23" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="Q23" s="15" t="s">
+      <c r="Q23" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="R23" s="15" t="s">
+      <c r="R23" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="S23" s="15" t="s">
+      <c r="S23" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="T23" s="15" t="s">
+      <c r="T23" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="U23" s="15" t="s">
+      <c r="U23" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="V23" s="15" t="s">
+      <c r="V23" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="W23" s="15" t="s">
+      <c r="W23" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="X23" s="15" t="s">
+      <c r="X23" s="26" t="s">
         <v>218</v>
       </c>
-      <c r="Y23" s="15" t="s">
+      <c r="Y23" s="26" t="s">
         <v>221</v>
       </c>
-      <c r="Z23" s="15" t="s">
+      <c r="Z23" s="26" t="s">
         <v>222</v>
       </c>
-      <c r="AA23" s="28" t="s">
+      <c r="AA23" s="27" t="s">
         <v>223</v>
       </c>
       <c r="AL23" s="1"/>
@@ -3155,33 +3167,33 @@
       <c r="AR23" s="1"/>
     </row>
     <row r="24" spans="1:50">
-      <c r="A24" s="15"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="15"/>
-      <c r="O24" s="15"/>
-      <c r="P24" s="15"/>
-      <c r="Q24" s="15"/>
-      <c r="R24" s="15"/>
-      <c r="S24" s="15"/>
-      <c r="T24" s="15"/>
-      <c r="U24" s="15"/>
-      <c r="V24" s="15"/>
-      <c r="W24" s="15"/>
-      <c r="X24" s="15"/>
-      <c r="Y24" s="15"/>
-      <c r="Z24" s="15"/>
-      <c r="AA24" s="28"/>
+      <c r="A24" s="26"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="26"/>
+      <c r="L24" s="26"/>
+      <c r="M24" s="26"/>
+      <c r="N24" s="26"/>
+      <c r="O24" s="26"/>
+      <c r="P24" s="26"/>
+      <c r="Q24" s="26"/>
+      <c r="R24" s="26"/>
+      <c r="S24" s="26"/>
+      <c r="T24" s="26"/>
+      <c r="U24" s="26"/>
+      <c r="V24" s="26"/>
+      <c r="W24" s="26"/>
+      <c r="X24" s="26"/>
+      <c r="Y24" s="26"/>
+      <c r="Z24" s="26"/>
+      <c r="AA24" s="27"/>
       <c r="AL24" s="1"/>
       <c r="AM24" s="4"/>
       <c r="AO24" s="1"/>
@@ -3190,33 +3202,33 @@
       <c r="AR24" s="1"/>
     </row>
     <row r="25" spans="1:50">
-      <c r="A25" s="15"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="15"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="15"/>
-      <c r="O25" s="15"/>
-      <c r="P25" s="15"/>
-      <c r="Q25" s="15"/>
-      <c r="R25" s="15"/>
-      <c r="S25" s="15"/>
-      <c r="T25" s="15"/>
-      <c r="U25" s="15"/>
-      <c r="V25" s="15"/>
-      <c r="W25" s="15"/>
-      <c r="X25" s="15"/>
-      <c r="Y25" s="15"/>
-      <c r="Z25" s="15"/>
-      <c r="AA25" s="28"/>
+      <c r="A25" s="26"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="26"/>
+      <c r="M25" s="26"/>
+      <c r="N25" s="26"/>
+      <c r="O25" s="26"/>
+      <c r="P25" s="26"/>
+      <c r="Q25" s="26"/>
+      <c r="R25" s="26"/>
+      <c r="S25" s="26"/>
+      <c r="T25" s="26"/>
+      <c r="U25" s="26"/>
+      <c r="V25" s="26"/>
+      <c r="W25" s="26"/>
+      <c r="X25" s="26"/>
+      <c r="Y25" s="26"/>
+      <c r="Z25" s="26"/>
+      <c r="AA25" s="27"/>
       <c r="AL25" s="1"/>
       <c r="AM25" s="4"/>
       <c r="AO25" s="1"/>
@@ -3225,33 +3237,33 @@
       <c r="AR25" s="1"/>
     </row>
     <row r="26" spans="1:50">
-      <c r="A26" s="15"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="15"/>
-      <c r="M26" s="15"/>
-      <c r="N26" s="15"/>
-      <c r="O26" s="15"/>
-      <c r="P26" s="15"/>
-      <c r="Q26" s="15"/>
-      <c r="R26" s="15"/>
-      <c r="S26" s="15"/>
-      <c r="T26" s="15"/>
-      <c r="U26" s="15"/>
-      <c r="V26" s="15"/>
-      <c r="W26" s="15"/>
-      <c r="X26" s="15"/>
-      <c r="Y26" s="15"/>
-      <c r="Z26" s="15"/>
-      <c r="AA26" s="28"/>
+      <c r="A26" s="26"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="26"/>
+      <c r="M26" s="26"/>
+      <c r="N26" s="26"/>
+      <c r="O26" s="26"/>
+      <c r="P26" s="26"/>
+      <c r="Q26" s="26"/>
+      <c r="R26" s="26"/>
+      <c r="S26" s="26"/>
+      <c r="T26" s="26"/>
+      <c r="U26" s="26"/>
+      <c r="V26" s="26"/>
+      <c r="W26" s="26"/>
+      <c r="X26" s="26"/>
+      <c r="Y26" s="26"/>
+      <c r="Z26" s="26"/>
+      <c r="AA26" s="27"/>
       <c r="AL26" s="1"/>
       <c r="AM26" s="4"/>
       <c r="AO26" s="1"/>
@@ -3260,33 +3272,33 @@
       <c r="AR26" s="1"/>
     </row>
     <row r="27" spans="1:50">
-      <c r="A27" s="15"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="15"/>
-      <c r="L27" s="15"/>
-      <c r="M27" s="15"/>
-      <c r="N27" s="15"/>
-      <c r="O27" s="15"/>
-      <c r="P27" s="15"/>
-      <c r="Q27" s="15"/>
-      <c r="R27" s="15"/>
-      <c r="S27" s="15"/>
-      <c r="T27" s="15"/>
-      <c r="U27" s="15"/>
-      <c r="V27" s="15"/>
-      <c r="W27" s="15"/>
-      <c r="X27" s="15"/>
-      <c r="Y27" s="15"/>
-      <c r="Z27" s="15"/>
-      <c r="AA27" s="28"/>
+      <c r="A27" s="26"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="26"/>
+      <c r="M27" s="26"/>
+      <c r="N27" s="26"/>
+      <c r="O27" s="26"/>
+      <c r="P27" s="26"/>
+      <c r="Q27" s="26"/>
+      <c r="R27" s="26"/>
+      <c r="S27" s="26"/>
+      <c r="T27" s="26"/>
+      <c r="U27" s="26"/>
+      <c r="V27" s="26"/>
+      <c r="W27" s="26"/>
+      <c r="X27" s="26"/>
+      <c r="Y27" s="26"/>
+      <c r="Z27" s="26"/>
+      <c r="AA27" s="27"/>
       <c r="AL27" s="1"/>
       <c r="AM27" s="4"/>
       <c r="AO27" s="1"/>
@@ -3295,33 +3307,33 @@
       <c r="AR27" s="1"/>
     </row>
     <row r="28" spans="1:50">
-      <c r="A28" s="15"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="15"/>
-      <c r="M28" s="15"/>
-      <c r="N28" s="15"/>
-      <c r="O28" s="15"/>
-      <c r="P28" s="15"/>
-      <c r="Q28" s="15"/>
-      <c r="R28" s="15"/>
-      <c r="S28" s="15"/>
-      <c r="T28" s="15"/>
-      <c r="U28" s="15"/>
-      <c r="V28" s="15"/>
-      <c r="W28" s="15"/>
-      <c r="X28" s="15"/>
-      <c r="Y28" s="15"/>
-      <c r="Z28" s="15"/>
-      <c r="AA28" s="28"/>
+      <c r="A28" s="26"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="26"/>
+      <c r="L28" s="26"/>
+      <c r="M28" s="26"/>
+      <c r="N28" s="26"/>
+      <c r="O28" s="26"/>
+      <c r="P28" s="26"/>
+      <c r="Q28" s="26"/>
+      <c r="R28" s="26"/>
+      <c r="S28" s="26"/>
+      <c r="T28" s="26"/>
+      <c r="U28" s="26"/>
+      <c r="V28" s="26"/>
+      <c r="W28" s="26"/>
+      <c r="X28" s="26"/>
+      <c r="Y28" s="26"/>
+      <c r="Z28" s="26"/>
+      <c r="AA28" s="27"/>
       <c r="AL28" s="1"/>
       <c r="AM28" s="4"/>
       <c r="AO28" s="1"/>
@@ -3330,33 +3342,33 @@
       <c r="AR28" s="1"/>
     </row>
     <row r="29" spans="1:50">
-      <c r="A29" s="15"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="15"/>
-      <c r="K29" s="15"/>
-      <c r="L29" s="15"/>
-      <c r="M29" s="15"/>
-      <c r="N29" s="15"/>
-      <c r="O29" s="15"/>
-      <c r="P29" s="15"/>
-      <c r="Q29" s="15"/>
-      <c r="R29" s="15"/>
-      <c r="S29" s="15"/>
-      <c r="T29" s="15"/>
-      <c r="U29" s="15"/>
-      <c r="V29" s="15"/>
-      <c r="W29" s="15"/>
-      <c r="X29" s="15"/>
-      <c r="Y29" s="15"/>
-      <c r="Z29" s="15"/>
-      <c r="AA29" s="28"/>
+      <c r="A29" s="26"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="26"/>
+      <c r="L29" s="26"/>
+      <c r="M29" s="26"/>
+      <c r="N29" s="26"/>
+      <c r="O29" s="26"/>
+      <c r="P29" s="26"/>
+      <c r="Q29" s="26"/>
+      <c r="R29" s="26"/>
+      <c r="S29" s="26"/>
+      <c r="T29" s="26"/>
+      <c r="U29" s="26"/>
+      <c r="V29" s="26"/>
+      <c r="W29" s="26"/>
+      <c r="X29" s="26"/>
+      <c r="Y29" s="26"/>
+      <c r="Z29" s="26"/>
+      <c r="AA29" s="27"/>
       <c r="AL29" s="1"/>
       <c r="AM29" s="4"/>
       <c r="AO29" s="1"/>
@@ -3371,10 +3383,10 @@
     </row>
     <row r="31" spans="1:50">
       <c r="H31" s="2"/>
-      <c r="L31" s="12" t="s">
+      <c r="L31" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="M31" s="15" t="s">
+      <c r="M31" s="26" t="s">
         <v>82</v>
       </c>
       <c r="S31" s="1"/>
@@ -3383,31 +3395,31 @@
     </row>
     <row r="32" spans="1:50" ht="11.25" customHeight="1">
       <c r="H32" s="2"/>
-      <c r="L32" s="13"/>
-      <c r="M32" s="15"/>
+      <c r="L32" s="31"/>
+      <c r="M32" s="26"/>
       <c r="S32" s="1"/>
       <c r="V32" s="4"/>
       <c r="Y32" s="1"/>
     </row>
     <row r="33" spans="12:13">
-      <c r="L33" s="13"/>
-      <c r="M33" s="15"/>
+      <c r="L33" s="31"/>
+      <c r="M33" s="26"/>
     </row>
     <row r="34" spans="12:13">
-      <c r="L34" s="13"/>
-      <c r="M34" s="15"/>
+      <c r="L34" s="31"/>
+      <c r="M34" s="26"/>
     </row>
     <row r="35" spans="12:13">
-      <c r="L35" s="13"/>
-      <c r="M35" s="15"/>
+      <c r="L35" s="31"/>
+      <c r="M35" s="26"/>
     </row>
     <row r="36" spans="12:13">
-      <c r="L36" s="13"/>
-      <c r="M36" s="15"/>
+      <c r="L36" s="31"/>
+      <c r="M36" s="26"/>
     </row>
     <row r="37" spans="12:13">
-      <c r="L37" s="14"/>
-      <c r="M37" s="15"/>
+      <c r="L37" s="32"/>
+      <c r="M37" s="26"/>
     </row>
     <row r="39" spans="12:13">
       <c r="L39" s="10" t="s">
@@ -3426,11 +3438,23 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="E20:M22"/>
-    <mergeCell ref="N20:R22"/>
-    <mergeCell ref="S20:W22"/>
-    <mergeCell ref="X20:X22"/>
-    <mergeCell ref="Y20:Y22"/>
+    <mergeCell ref="L31:L37"/>
+    <mergeCell ref="M23:M29"/>
+    <mergeCell ref="M31:M37"/>
+    <mergeCell ref="V23:V29"/>
+    <mergeCell ref="S23:S29"/>
+    <mergeCell ref="T23:T29"/>
+    <mergeCell ref="H23:H29"/>
+    <mergeCell ref="I23:I29"/>
+    <mergeCell ref="J23:J29"/>
+    <mergeCell ref="W23:W29"/>
+    <mergeCell ref="L23:L29"/>
+    <mergeCell ref="O23:O29"/>
+    <mergeCell ref="P23:P29"/>
+    <mergeCell ref="Q23:Q29"/>
+    <mergeCell ref="R23:R29"/>
+    <mergeCell ref="U23:U29"/>
+    <mergeCell ref="N23:N29"/>
     <mergeCell ref="Y23:Y29"/>
     <mergeCell ref="Z23:Z29"/>
     <mergeCell ref="Z20:AA22"/>
@@ -3447,23 +3471,11 @@
     <mergeCell ref="B23:B29"/>
     <mergeCell ref="C23:C29"/>
     <mergeCell ref="D23:D29"/>
-    <mergeCell ref="H23:H29"/>
-    <mergeCell ref="I23:I29"/>
-    <mergeCell ref="J23:J29"/>
-    <mergeCell ref="W23:W29"/>
-    <mergeCell ref="L23:L29"/>
-    <mergeCell ref="O23:O29"/>
-    <mergeCell ref="P23:P29"/>
-    <mergeCell ref="Q23:Q29"/>
-    <mergeCell ref="R23:R29"/>
-    <mergeCell ref="U23:U29"/>
-    <mergeCell ref="N23:N29"/>
-    <mergeCell ref="L31:L37"/>
-    <mergeCell ref="M23:M29"/>
-    <mergeCell ref="M31:M37"/>
-    <mergeCell ref="V23:V29"/>
-    <mergeCell ref="S23:S29"/>
-    <mergeCell ref="T23:T29"/>
+    <mergeCell ref="E20:M22"/>
+    <mergeCell ref="N20:R22"/>
+    <mergeCell ref="S20:W22"/>
+    <mergeCell ref="X20:X22"/>
+    <mergeCell ref="Y20:Y22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -3540,10 +3552,10 @@
       <c r="AR1" s="1"/>
     </row>
     <row r="2" spans="1:44" ht="21">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="16"/>
+      <c r="B2" s="28"/>
       <c r="C2" s="5" t="s">
         <v>88</v>
       </c>
@@ -3559,10 +3571,10 @@
       <c r="AR2" s="1"/>
     </row>
     <row r="3" spans="1:44" ht="21">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="17"/>
+      <c r="B3" s="29"/>
       <c r="C3" s="5" t="s">
         <v>97</v>
       </c>
@@ -3963,115 +3975,115 @@
       <c r="AR17" s="1"/>
     </row>
     <row r="18" spans="1:44" ht="11.25" customHeight="1">
-      <c r="A18" s="49" t="s">
+      <c r="A18" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="B18" s="50"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="44" t="s">
+      <c r="B18" s="43"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="46"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="35"/>
     </row>
     <row r="19" spans="1:44" ht="11.25" customHeight="1">
-      <c r="A19" s="36"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="52"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="47"/>
+      <c r="A19" s="45"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="38"/>
     </row>
     <row r="20" spans="1:44" ht="11.25" customHeight="1">
-      <c r="A20" s="38"/>
-      <c r="B20" s="39"/>
-      <c r="C20" s="53"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="48"/>
+      <c r="A20" s="48"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="41"/>
     </row>
     <row r="21" spans="1:44">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="E21" s="15" t="s">
+      <c r="E21" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="F21" s="15" t="s">
+      <c r="F21" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="G21" s="15" t="s">
+      <c r="G21" s="26" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:44">
-      <c r="A22" s="15"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
+      <c r="A22" s="26"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
     </row>
     <row r="23" spans="1:44">
-      <c r="A23" s="15"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
+      <c r="A23" s="26"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
     </row>
     <row r="24" spans="1:44">
-      <c r="A24" s="15"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
+      <c r="A24" s="26"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
     </row>
     <row r="25" spans="1:44">
-      <c r="A25" s="15"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
+      <c r="A25" s="26"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
     </row>
     <row r="26" spans="1:44">
-      <c r="A26" s="15"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
+      <c r="A26" s="26"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
     </row>
     <row r="27" spans="1:44">
-      <c r="A27" s="15"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
+      <c r="A27" s="26"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
     </row>
     <row r="29" spans="1:44">
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="26" t="s">
         <v>96</v>
       </c>
       <c r="O29" s="4"/>
@@ -4086,7 +4098,7 @@
       <c r="AQ29" s="3"/>
     </row>
     <row r="30" spans="1:44">
-      <c r="B30" s="15"/>
+      <c r="B30" s="26"/>
       <c r="O30" s="4"/>
       <c r="S30" s="1"/>
       <c r="U30" s="2"/>
@@ -4099,7 +4111,7 @@
       <c r="AQ30" s="3"/>
     </row>
     <row r="31" spans="1:44">
-      <c r="B31" s="15"/>
+      <c r="B31" s="26"/>
       <c r="O31" s="4"/>
       <c r="S31" s="1"/>
       <c r="U31" s="2"/>
@@ -4112,7 +4124,7 @@
       <c r="AQ31" s="3"/>
     </row>
     <row r="32" spans="1:44">
-      <c r="B32" s="15"/>
+      <c r="B32" s="26"/>
       <c r="O32" s="4"/>
       <c r="S32" s="1"/>
       <c r="U32" s="2"/>
@@ -4125,7 +4137,7 @@
       <c r="AQ32" s="3"/>
     </row>
     <row r="33" spans="2:43">
-      <c r="B33" s="15"/>
+      <c r="B33" s="26"/>
       <c r="O33" s="4"/>
       <c r="S33" s="1"/>
       <c r="U33" s="2"/>
@@ -4138,7 +4150,7 @@
       <c r="AQ33" s="3"/>
     </row>
     <row r="34" spans="2:43">
-      <c r="B34" s="15"/>
+      <c r="B34" s="26"/>
       <c r="O34" s="4"/>
       <c r="S34" s="1"/>
       <c r="U34" s="2"/>
@@ -4151,7 +4163,7 @@
       <c r="AQ34" s="3"/>
     </row>
     <row r="35" spans="2:43">
-      <c r="B35" s="15"/>
+      <c r="B35" s="26"/>
       <c r="O35" s="4"/>
       <c r="S35" s="1"/>
       <c r="U35" s="2"/>
@@ -4693,11 +4705,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="G21:G27"/>
-    <mergeCell ref="A21:A27"/>
-    <mergeCell ref="B21:B27"/>
-    <mergeCell ref="D21:D27"/>
-    <mergeCell ref="C21:C27"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="B29:B35"/>
@@ -4705,6 +4712,11 @@
     <mergeCell ref="F21:F27"/>
     <mergeCell ref="D18:G20"/>
     <mergeCell ref="A18:C20"/>
+    <mergeCell ref="G21:G27"/>
+    <mergeCell ref="A21:A27"/>
+    <mergeCell ref="B21:B27"/>
+    <mergeCell ref="D21:D27"/>
+    <mergeCell ref="C21:C27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -4714,12 +4726,12 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
-    <tabColor rgb="FF92D050"/>
+    <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="A1:AS35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:M20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="V8" sqref="V8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -4782,10 +4794,10 @@
       <c r="AS1" s="1"/>
     </row>
     <row r="2" spans="1:45" ht="21">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="16"/>
+      <c r="B2" s="28"/>
       <c r="C2" s="5" t="s">
         <v>98</v>
       </c>
@@ -4802,10 +4814,10 @@
       <c r="AS2" s="1"/>
     </row>
     <row r="3" spans="1:45" ht="21">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="17"/>
+      <c r="B3" s="29"/>
       <c r="C3" s="5" t="s">
         <v>149</v>
       </c>
@@ -4927,66 +4939,70 @@
       <c r="A7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="4" t="s">
+      <c r="C7" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="J7" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="K7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="L7" s="4" t="s">
+      <c r="L7" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="M7" s="4" t="s">
+      <c r="M7" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="N7" s="4" t="s">
+      <c r="N7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="O7" s="4" t="s">
+      <c r="O7" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="P7" s="4" t="s">
+      <c r="P7" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="Q7" s="4" t="s">
+      <c r="Q7" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="R7" s="4" t="s">
+      <c r="R7" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="S7" s="4" t="s">
+      <c r="S7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="T7" s="4" t="s">
+      <c r="T7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="U7" s="4" t="s">
+      <c r="U7" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="V7" s="4" t="s">
+      <c r="V7" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="W7" s="31" t="s">
+      <c r="W7" s="12" t="s">
         <v>242</v>
       </c>
       <c r="X7" s="4"/>
@@ -5013,63 +5029,67 @@
       <c r="A8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="1" t="s">
+      <c r="C8" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="I8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="J8" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="K8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="L8" s="4" t="s">
+      <c r="L8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="M8" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="N8" s="1" t="s">
+      <c r="N8" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="O8" s="1" t="s">
+      <c r="O8" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="P8" s="1" t="s">
+      <c r="P8" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="Q8" s="1" t="s">
+      <c r="Q8" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="R8" s="1" t="s">
+      <c r="R8" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="S8" s="1" t="s">
+      <c r="S8" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="T8" s="1" t="s">
+      <c r="T8" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="U8" s="1" t="s">
+      <c r="U8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="V8" s="1" t="s">
+      <c r="V8" s="6" t="s">
         <v>247</v>
       </c>
       <c r="W8" s="2" t="s">
@@ -5671,152 +5691,152 @@
       <c r="V17" s="1"/>
     </row>
     <row r="18" spans="1:45" ht="11.25" customHeight="1">
-      <c r="B18" s="27" t="s">
+      <c r="B18" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="27"/>
-      <c r="N18" s="29" t="s">
+      <c r="C18" s="52"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="52"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="52"/>
+      <c r="L18" s="52"/>
+      <c r="M18" s="52"/>
+      <c r="N18" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="O18" s="27" t="s">
+      <c r="O18" s="52" t="s">
         <v>147</v>
       </c>
-      <c r="P18" s="27"/>
-      <c r="Q18" s="27"/>
-      <c r="R18" s="27"/>
-      <c r="S18" s="18" t="s">
+      <c r="P18" s="52"/>
+      <c r="Q18" s="52"/>
+      <c r="R18" s="52"/>
+      <c r="S18" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="T18" s="20"/>
-      <c r="U18" s="27" t="s">
+      <c r="T18" s="15"/>
+      <c r="U18" s="52" t="s">
         <v>146</v>
       </c>
-      <c r="V18" s="27"/>
+      <c r="V18" s="52"/>
     </row>
     <row r="19" spans="1:45">
-      <c r="B19" s="27"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="27"/>
-      <c r="K19" s="27"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="27"/>
-      <c r="N19" s="29"/>
-      <c r="O19" s="27"/>
-      <c r="P19" s="27"/>
-      <c r="Q19" s="27"/>
-      <c r="R19" s="27"/>
-      <c r="S19" s="21"/>
-      <c r="T19" s="23"/>
-      <c r="U19" s="27"/>
-      <c r="V19" s="27"/>
+      <c r="B19" s="52"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="52"/>
+      <c r="L19" s="52"/>
+      <c r="M19" s="52"/>
+      <c r="N19" s="51"/>
+      <c r="O19" s="52"/>
+      <c r="P19" s="52"/>
+      <c r="Q19" s="52"/>
+      <c r="R19" s="52"/>
+      <c r="S19" s="16"/>
+      <c r="T19" s="18"/>
+      <c r="U19" s="52"/>
+      <c r="V19" s="52"/>
     </row>
     <row r="20" spans="1:45">
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="27"/>
-      <c r="M20" s="27"/>
-      <c r="N20" s="29"/>
-      <c r="O20" s="27"/>
-      <c r="P20" s="27"/>
-      <c r="Q20" s="27"/>
-      <c r="R20" s="27"/>
-      <c r="S20" s="24"/>
-      <c r="T20" s="26"/>
-      <c r="U20" s="27"/>
-      <c r="V20" s="27"/>
+      <c r="B20" s="52"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="52"/>
+      <c r="L20" s="52"/>
+      <c r="M20" s="52"/>
+      <c r="N20" s="51"/>
+      <c r="O20" s="52"/>
+      <c r="P20" s="52"/>
+      <c r="Q20" s="52"/>
+      <c r="R20" s="52"/>
+      <c r="S20" s="19"/>
+      <c r="T20" s="21"/>
+      <c r="U20" s="52"/>
+      <c r="V20" s="52"/>
     </row>
     <row r="21" spans="1:45" ht="11.25" customHeight="1">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="26" t="s">
         <v>292</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="26" t="s">
         <v>136</v>
       </c>
-      <c r="E21" s="15" t="s">
+      <c r="E21" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="F21" s="15" t="s">
+      <c r="F21" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="G21" s="15" t="s">
+      <c r="G21" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="H21" s="15" t="s">
+      <c r="H21" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="I21" s="15" t="s">
+      <c r="I21" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="J21" s="15" t="s">
+      <c r="J21" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="K21" s="15" t="s">
+      <c r="K21" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="L21" s="15" t="s">
+      <c r="L21" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="M21" s="15" t="s">
+      <c r="M21" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="N21" s="15" t="s">
+      <c r="N21" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="O21" s="15" t="s">
+      <c r="O21" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="P21" s="15" t="s">
+      <c r="P21" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="Q21" s="15" t="s">
+      <c r="Q21" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="R21" s="30" t="s">
+      <c r="R21" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="S21" s="28" t="s">
+      <c r="S21" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="T21" s="28" t="s">
+      <c r="T21" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="U21" s="28" t="s">
+      <c r="U21" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="V21" s="28" t="s">
+      <c r="V21" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="W21" s="28" t="s">
+      <c r="W21" s="27" t="s">
         <v>145</v>
       </c>
       <c r="Z21" s="1"/>
@@ -5829,29 +5849,29 @@
       <c r="AS21" s="1"/>
     </row>
     <row r="22" spans="1:45">
-      <c r="A22" s="15"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="15"/>
-      <c r="O22" s="15"/>
-      <c r="P22" s="15"/>
-      <c r="Q22" s="15"/>
-      <c r="R22" s="30"/>
-      <c r="S22" s="28"/>
-      <c r="T22" s="28"/>
-      <c r="U22" s="28"/>
-      <c r="V22" s="28"/>
-      <c r="W22" s="28"/>
+      <c r="A22" s="26"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="26"/>
+      <c r="N22" s="26"/>
+      <c r="O22" s="26"/>
+      <c r="P22" s="26"/>
+      <c r="Q22" s="26"/>
+      <c r="R22" s="53"/>
+      <c r="S22" s="27"/>
+      <c r="T22" s="27"/>
+      <c r="U22" s="27"/>
+      <c r="V22" s="27"/>
+      <c r="W22" s="27"/>
       <c r="Z22" s="1"/>
       <c r="AA22" s="2"/>
       <c r="AM22" s="1"/>
@@ -5862,29 +5882,29 @@
       <c r="AS22" s="1"/>
     </row>
     <row r="23" spans="1:45">
-      <c r="A23" s="15"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="15"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="15"/>
-      <c r="O23" s="15"/>
-      <c r="P23" s="15"/>
-      <c r="Q23" s="15"/>
-      <c r="R23" s="30"/>
-      <c r="S23" s="28"/>
-      <c r="T23" s="28"/>
-      <c r="U23" s="28"/>
-      <c r="V23" s="28"/>
-      <c r="W23" s="28"/>
+      <c r="A23" s="26"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="26"/>
+      <c r="N23" s="26"/>
+      <c r="O23" s="26"/>
+      <c r="P23" s="26"/>
+      <c r="Q23" s="26"/>
+      <c r="R23" s="53"/>
+      <c r="S23" s="27"/>
+      <c r="T23" s="27"/>
+      <c r="U23" s="27"/>
+      <c r="V23" s="27"/>
+      <c r="W23" s="27"/>
       <c r="Z23" s="1"/>
       <c r="AA23" s="2"/>
       <c r="AM23" s="1"/>
@@ -5895,29 +5915,29 @@
       <c r="AS23" s="1"/>
     </row>
     <row r="24" spans="1:45">
-      <c r="A24" s="15"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="15"/>
-      <c r="O24" s="15"/>
-      <c r="P24" s="15"/>
-      <c r="Q24" s="15"/>
-      <c r="R24" s="30"/>
-      <c r="S24" s="28"/>
-      <c r="T24" s="28"/>
-      <c r="U24" s="28"/>
-      <c r="V24" s="28"/>
-      <c r="W24" s="28"/>
+      <c r="A24" s="26"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="26"/>
+      <c r="L24" s="26"/>
+      <c r="M24" s="26"/>
+      <c r="N24" s="26"/>
+      <c r="O24" s="26"/>
+      <c r="P24" s="26"/>
+      <c r="Q24" s="26"/>
+      <c r="R24" s="53"/>
+      <c r="S24" s="27"/>
+      <c r="T24" s="27"/>
+      <c r="U24" s="27"/>
+      <c r="V24" s="27"/>
+      <c r="W24" s="27"/>
       <c r="Z24" s="1"/>
       <c r="AA24" s="2"/>
       <c r="AM24" s="1"/>
@@ -5928,29 +5948,29 @@
       <c r="AS24" s="1"/>
     </row>
     <row r="25" spans="1:45">
-      <c r="A25" s="15"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="15"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="15"/>
-      <c r="O25" s="15"/>
-      <c r="P25" s="15"/>
-      <c r="Q25" s="15"/>
-      <c r="R25" s="30"/>
-      <c r="S25" s="28"/>
-      <c r="T25" s="28"/>
-      <c r="U25" s="28"/>
-      <c r="V25" s="28"/>
-      <c r="W25" s="28"/>
+      <c r="A25" s="26"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="26"/>
+      <c r="M25" s="26"/>
+      <c r="N25" s="26"/>
+      <c r="O25" s="26"/>
+      <c r="P25" s="26"/>
+      <c r="Q25" s="26"/>
+      <c r="R25" s="53"/>
+      <c r="S25" s="27"/>
+      <c r="T25" s="27"/>
+      <c r="U25" s="27"/>
+      <c r="V25" s="27"/>
+      <c r="W25" s="27"/>
       <c r="Z25" s="1"/>
       <c r="AA25" s="2"/>
       <c r="AM25" s="1"/>
@@ -5961,29 +5981,29 @@
       <c r="AS25" s="1"/>
     </row>
     <row r="26" spans="1:45">
-      <c r="A26" s="15"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="15"/>
-      <c r="M26" s="15"/>
-      <c r="N26" s="15"/>
-      <c r="O26" s="15"/>
-      <c r="P26" s="15"/>
-      <c r="Q26" s="15"/>
-      <c r="R26" s="30"/>
-      <c r="S26" s="28"/>
-      <c r="T26" s="28"/>
-      <c r="U26" s="28"/>
-      <c r="V26" s="28"/>
-      <c r="W26" s="28"/>
+      <c r="A26" s="26"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="26"/>
+      <c r="M26" s="26"/>
+      <c r="N26" s="26"/>
+      <c r="O26" s="26"/>
+      <c r="P26" s="26"/>
+      <c r="Q26" s="26"/>
+      <c r="R26" s="53"/>
+      <c r="S26" s="27"/>
+      <c r="T26" s="27"/>
+      <c r="U26" s="27"/>
+      <c r="V26" s="27"/>
+      <c r="W26" s="27"/>
       <c r="Z26" s="1"/>
       <c r="AA26" s="2"/>
       <c r="AM26" s="1"/>
@@ -5994,29 +6014,29 @@
       <c r="AS26" s="1"/>
     </row>
     <row r="27" spans="1:45">
-      <c r="A27" s="15"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="15"/>
-      <c r="L27" s="15"/>
-      <c r="M27" s="15"/>
-      <c r="N27" s="15"/>
-      <c r="O27" s="15"/>
-      <c r="P27" s="15"/>
-      <c r="Q27" s="15"/>
-      <c r="R27" s="30"/>
-      <c r="S27" s="28"/>
-      <c r="T27" s="28"/>
-      <c r="U27" s="28"/>
-      <c r="V27" s="28"/>
-      <c r="W27" s="28"/>
+      <c r="A27" s="26"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="26"/>
+      <c r="M27" s="26"/>
+      <c r="N27" s="26"/>
+      <c r="O27" s="26"/>
+      <c r="P27" s="26"/>
+      <c r="Q27" s="26"/>
+      <c r="R27" s="53"/>
+      <c r="S27" s="27"/>
+      <c r="T27" s="27"/>
+      <c r="U27" s="27"/>
+      <c r="V27" s="27"/>
+      <c r="W27" s="27"/>
       <c r="Z27" s="1"/>
       <c r="AA27" s="2"/>
       <c r="AM27" s="1"/>
@@ -6027,51 +6047,67 @@
       <c r="AS27" s="1"/>
     </row>
     <row r="28" spans="1:45">
-      <c r="S28" s="28"/>
-      <c r="T28" s="28"/>
-      <c r="U28" s="28"/>
-      <c r="V28" s="28"/>
-      <c r="W28" s="28"/>
+      <c r="S28" s="27"/>
+      <c r="T28" s="27"/>
+      <c r="U28" s="27"/>
+      <c r="V28" s="27"/>
+      <c r="W28" s="27"/>
     </row>
     <row r="29" spans="1:45">
-      <c r="F29" s="15" t="s">
+      <c r="F29" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="M29" s="12" t="s">
+      <c r="M29" s="30" t="s">
         <v>144</v>
       </c>
-      <c r="S29" s="28"/>
-      <c r="T29" s="28"/>
-      <c r="U29" s="28"/>
-      <c r="V29" s="28"/>
-      <c r="W29" s="28"/>
+      <c r="S29" s="27"/>
+      <c r="T29" s="27"/>
+      <c r="U29" s="27"/>
+      <c r="V29" s="27"/>
+      <c r="W29" s="27"/>
     </row>
     <row r="30" spans="1:45">
-      <c r="F30" s="15"/>
-      <c r="M30" s="13"/>
+      <c r="F30" s="26"/>
+      <c r="M30" s="31"/>
     </row>
     <row r="31" spans="1:45">
-      <c r="F31" s="15"/>
-      <c r="M31" s="13"/>
+      <c r="F31" s="26"/>
+      <c r="M31" s="31"/>
     </row>
     <row r="32" spans="1:45">
-      <c r="F32" s="15"/>
-      <c r="M32" s="13"/>
+      <c r="F32" s="26"/>
+      <c r="M32" s="31"/>
     </row>
     <row r="33" spans="6:13">
-      <c r="F33" s="15"/>
-      <c r="M33" s="13"/>
+      <c r="F33" s="26"/>
+      <c r="M33" s="31"/>
     </row>
     <row r="34" spans="6:13">
-      <c r="F34" s="15"/>
-      <c r="M34" s="13"/>
+      <c r="F34" s="26"/>
+      <c r="M34" s="31"/>
     </row>
     <row r="35" spans="6:13">
-      <c r="F35" s="15"/>
-      <c r="M35" s="14"/>
+      <c r="F35" s="26"/>
+      <c r="M35" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="U18:V20"/>
+    <mergeCell ref="W21:W29"/>
+    <mergeCell ref="B18:M20"/>
+    <mergeCell ref="U21:U29"/>
+    <mergeCell ref="L21:L27"/>
+    <mergeCell ref="V21:V29"/>
+    <mergeCell ref="M21:M27"/>
+    <mergeCell ref="M29:M35"/>
+    <mergeCell ref="T21:T29"/>
+    <mergeCell ref="O18:R20"/>
+    <mergeCell ref="S18:T20"/>
+    <mergeCell ref="O21:O27"/>
+    <mergeCell ref="P21:P27"/>
+    <mergeCell ref="Q21:Q27"/>
+    <mergeCell ref="R21:R27"/>
+    <mergeCell ref="D21:D27"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="S21:S29"/>
@@ -6088,22 +6124,6 @@
     <mergeCell ref="H21:H27"/>
     <mergeCell ref="I21:I27"/>
     <mergeCell ref="J21:J27"/>
-    <mergeCell ref="U18:V20"/>
-    <mergeCell ref="W21:W29"/>
-    <mergeCell ref="B18:M20"/>
-    <mergeCell ref="U21:U29"/>
-    <mergeCell ref="L21:L27"/>
-    <mergeCell ref="V21:V29"/>
-    <mergeCell ref="M21:M27"/>
-    <mergeCell ref="M29:M35"/>
-    <mergeCell ref="T21:T29"/>
-    <mergeCell ref="O18:R20"/>
-    <mergeCell ref="S18:T20"/>
-    <mergeCell ref="O21:O27"/>
-    <mergeCell ref="P21:P27"/>
-    <mergeCell ref="Q21:Q27"/>
-    <mergeCell ref="R21:R27"/>
-    <mergeCell ref="D21:D27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
